--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:Q233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7045,7 +7045,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7055,30 +7055,64 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>992000</v>
+        <v>252900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>992000</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>252900</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>257900</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>320000</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>257900</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>678300</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7088,64 +7122,64 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>252900</v>
+        <v>420900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/granta_sedan/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>252900</t>
+          <t>420900</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/granta_sedan/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>257900</v>
+        <v>425900</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>320000</v>
+        <v>455900</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>257900</v>
+        <v>425900</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>678300</v>
+        <v>940900</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7155,64 +7189,64 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>420900</v>
+        <v>273900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/granta_drive_active/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>420900</t>
+          <t>273900</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/granta_drive_active/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>425900</v>
+        <v>278900</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="J134" t="n">
-        <v>455900</v>
+        <v>313900</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>425900</v>
+        <v>278900</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>940900</v>
+        <v>705300</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7222,30 +7256,40 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>988000</v>
+        <v>343900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>988000</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>343900</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/lada/largus/</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>446300</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7255,64 +7299,46 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus CNG</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>273900</v>
+        <v>764900</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>273900</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/lada/granta_universal/</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>278900</v>
+        <v>764900</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="J136" t="n">
-        <v>313900</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>278900</v>
+        <v>764900</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>705300</v>
+        <v>917900</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7322,40 +7348,40 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>343900</v>
+        <v>379300</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/largus/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>343900</t>
+          <t>379300</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/largus/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>446300</v>
+        <v>611900</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7365,46 +7391,46 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Largus CNG</t>
+          <t>Largus Cross CNG</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>917900</v>
+        <v>982900</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7414,40 +7440,46 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>379300</v>
+        <v>384300</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>379300</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="J139" t="n">
-        <v>611900</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>384300</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>384300</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>1443900</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7457,46 +7489,46 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Largus Cross CNG</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>982900</v>
+        <v>1300900</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7506,46 +7538,30 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>384300</v>
+        <v>468900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
-        <v>384300</v>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="P141" t="n">
-        <v>1443900</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>468900</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7555,54 +7571,46 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон CNG</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1610000</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1300900</v>
+        <v>938900</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7612,30 +7620,46 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>468900</v>
+        <v>329000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>468900</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>329000</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>329000</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>1301900</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7645,46 +7669,54 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Largus Фургон CNG</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>515900</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>938900</v>
+        <v>738000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/niva</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7694,46 +7726,64 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>329000</v>
+        <v>350300</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>580900</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/lada/4x4_3_dv/</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>329000</v>
+        <v>579900</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+        </is>
+      </c>
+      <c r="J145" t="n">
+        <v>350300</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>329000</v>
+        <v>579900</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1301900</v>
+        <v>800900</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7743,62 +7793,54 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>515900</v>
+        <v>371300</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>515900</v>
+        <v>371300</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>515900</v>
+        <v>371300</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>515900</v>
+        <v>398900</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>738000</v>
+        <v>918900</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/niva</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7808,72 +7850,54 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>350300</v>
+        <v>569900</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>580900</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/lada/4x4_3_dv/</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>350300</v>
+        <v>569900</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1392500</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>800900</v>
+        <v>921900</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
+          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7883,54 +7907,64 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>371300</v>
+        <v>355200</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://ac-aquamarine.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>355200</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/lada/niva_travel/</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>371300</v>
+        <v>360200</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
+          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>371300</v>
+        <v>440200</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>398900</v>
+        <v>360200</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>918900</v>
+        <v>998900</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
+          <t>https://avto-zlt.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7940,54 +7974,64 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>569900</v>
+        <v>439500</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross_1/</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>439500</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross_1/</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J149" t="n">
-        <v>569900</v>
+        <v>565900</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>921900</v>
+        <v>1269900</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7997,64 +8041,32 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>355200</v>
+        <v>560900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/niva_travel/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>355200</t>
+          <t>560900</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>360200</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
-        </is>
-      </c>
-      <c r="J150" t="n">
-        <v>440200</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
-        <v>360200</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
-        </is>
-      </c>
-      <c r="P150" t="n">
-        <v>998900</v>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/travel</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8064,64 +8076,64 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>439500</v>
+        <v>385000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>439500</t>
+          <t>385000</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross_1/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_1/</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>444500</v>
+        <v>390000</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>565900</v>
+        <v>514900</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>444500</v>
+        <v>390000</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1269900</v>
+        <v>1213900</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8131,32 +8143,64 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>560900</v>
+        <v>428000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross_1/</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>560900</t>
+          <t>428000</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_cross/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross_1/</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>433000</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
+        </is>
+      </c>
+      <c r="J152" t="n">
+        <v>590900</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>433000</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>1328900</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8166,72 +8210,32 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>385000</v>
+        <v>585900</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_1/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>385000</t>
+          <t>585900</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_1/</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>390000</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
-        </is>
-      </c>
-      <c r="J153" t="n">
-        <v>514900</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1293900</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-universal/</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
-        <v>390000</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>1213900</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8241,64 +8245,32 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>428000</v>
+        <v>509900</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross_1/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>428000</t>
+          <t>509900</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross_1/</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>433000</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
-        <v>590900</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
-        <v>433000</v>
-      </c>
-      <c r="O154" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
-        </is>
-      </c>
-      <c r="P154" t="n">
-        <v>1328900</v>
-      </c>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8308,32 +8280,64 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>585900</v>
+        <v>375900</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_1/</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>585900</t>
+          <t>375900</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_1/</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>380900</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>445900</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>380900</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>1121900</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8343,32 +8347,64 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>509900</v>
+        <v>460900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_cng/</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>509900</t>
+          <t>460900</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sw/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_cng/</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>465900</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>556900</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>465900</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>1316900</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8378,72 +8414,32 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>375900</v>
+        <v>440900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_1/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta/</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>375900</t>
+          <t>440900</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_1/</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>380900</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
-        </is>
-      </c>
-      <c r="J157" t="n">
-        <v>445900</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1257500</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-sedan/</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
-        <v>380900</v>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
-        </is>
-      </c>
-      <c r="P157" t="n">
-        <v>1121900</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8453,64 +8449,64 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>460900</v>
+        <v>574900</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_cng/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>460900</t>
+          <t>574900</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_cng/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/vesta_sport/</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>465900</v>
+        <v>579900</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>556900</v>
+        <v>740900</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>465900</v>
+        <v>579900</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1316900</v>
+        <v>1597900</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8520,40 +8516,64 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>440900</v>
+        <v>380900</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>440900</t>
+          <t>380900</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1640900</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-ng-sedan/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>385900</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
+        </is>
+      </c>
+      <c r="J159" t="n">
+        <v>428900</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>385900</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>1106900</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8563,198 +8583,178 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>574900</v>
+        <v>379300</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sport/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>574900</t>
+          <t>379300</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/vesta_sport/</t>
+          <t>https://ac-aquamarine.ru/auto/lada/xray_cross/</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="J160" t="n">
-        <v>740900</v>
+        <v>561900</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1597900</v>
+        <v>1249900</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>380900</v>
+        <v>649900</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>380900</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/lada/xray/</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>385900</v>
+        <v>649900</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>428900</v>
+        <v>649900</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>385900</v>
+        <v>844900</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="P161" t="n">
-        <v>1106900</v>
+        <v>1019900</v>
       </c>
       <c r="Q161" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray</t>
+          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>379300</v>
+        <v>400900</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>379300</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/lada/xray_cross/</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>384300</v>
+        <v>400900</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>561900</v>
+        <v>400900</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>384300</v>
+        <v>534900</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1249900</v>
+        <v>709900</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8764,54 +8764,54 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>649900</v>
+        <v>419900</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>649900</v>
+        <v>419900</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="J163" t="n">
-        <v>649900</v>
+        <v>419900</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>844900</v>
+        <v>464900</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1019900</v>
+        <v>689900</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8821,54 +8821,54 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>400900</v>
+        <v>490900</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>400900</v>
+        <v>490900</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>400900</v>
+        <v>490900</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>534900</v>
+        <v>594900</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>709900</v>
+        <v>769900</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8878,168 +8878,146 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>419900</v>
+        <v>614000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>419900</v>
+        <v>769900</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>419900</v>
+        <v>769900</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="N165" t="n">
-        <v>464900</v>
+        <v>614000</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="P165" t="n">
-        <v>689900</v>
+        <v>989000</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>490900</v>
+        <v>1749900</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>490900</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1784930</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/livan/s6pro/</t>
         </is>
       </c>
       <c r="J166" t="n">
-        <v>490900</v>
+        <v>1749900</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
-        <v>594900</v>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
-      <c r="P166" t="n">
-        <v>769900</v>
-      </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>614000</v>
+        <v>1579900</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>769900</v>
+        <v>1579900</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
+          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>769900</v>
+        <v>1579900</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>614000</v>
+        <v>1579900</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="P167" t="n">
-        <v>989000</v>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9049,132 +9027,158 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1749900</v>
+        <v>1729900</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1784930</t>
+          <t>1840930</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/livan/s6pro/</t>
+          <t>https://ac-aquamarine.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1749900</v>
+        <v>1729900</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1579900</v>
+        <v>1414000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://ac-aquamarine.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1414000</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1579900</v>
+        <v>1419000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="J169" t="n">
-        <v>1579900</v>
+        <v>1444000</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
+          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>1579900</v>
+        <v>1419000</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1729900</v>
+        <v>2434000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+          <t>https://ac-aquamarine.ru/auto/moskvich/3e/</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1840930</t>
+          <t>2434000</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/livan/x6pro/</t>
-        </is>
-      </c>
-      <c r="J170" t="n">
-        <v>1729900</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+          <t>https://ac-aquamarine.ru/auto/moskvich/3e/</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2439000</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>2439000</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9184,148 +9188,164 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1414000</v>
+        <v>1750000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>1414000</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/moskvich/3/</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
-        </is>
-      </c>
-      <c r="J171" t="n">
-        <v>1444000</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
         </is>
       </c>
       <c r="L171" t="n">
-        <v>1770000</v>
+        <v>1750000</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
-        </is>
-      </c>
-      <c r="N171" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2434000</v>
+        <v>892000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/moskvich/3e/</t>
+          <t>https://ac-aquamarine.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2434000</t>
+          <t>892000</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/moskvich/3e/</t>
+          <t>https://ac-aquamarine.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>2439000</v>
+        <v>897000</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2439000</v>
+        <v>897000</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1750000</v>
+        <v>633000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+          <t>https://ac-aquamarine.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>633000</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/nissan/terrano/</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>638000</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>830000</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>638000</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9335,198 +9355,190 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>892000</v>
+        <v>1129000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/nissan/qashqai/</t>
+          <t>https://ac-aquamarine.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>892000</t>
+          <t>1129000</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/nissan/qashqai/</t>
+          <t>https://ac-aquamarine.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>897000</v>
+        <v>1134000</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="J174" t="n">
-        <v>1050000</v>
+        <v>1249000</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>897000</v>
+        <v>1134000</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2337000</v>
+        <v>2762000</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>633000</v>
+        <v>1263900</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/nissan/terrano/</t>
+          <t>https://ac-aquamarine.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>633000</t>
+          <t>1263900</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/nissan/terrano/</t>
+          <t>https://ac-aquamarine.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>638000</v>
+        <v>1268900</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="J175" t="n">
-        <v>830000</v>
+        <v>1779900</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1901900</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>638000</v>
+        <v>1268900</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="P175" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1129000</v>
+        <v>1269900</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/nissan/x-trail/</t>
+          <t>https://ac-aquamarine.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1129000</t>
+          <t>1269900</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/nissan/x-trail/</t>
+          <t>https://ac-aquamarine.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>1134000</v>
+        <v>1613000</v>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="J176" t="n">
-        <v>1249000</v>
+        <v>1659900</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>1134000</v>
+        <v>1613000</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="P176" t="n">
-        <v>2762000</v>
-      </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9536,156 +9548,144 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1263900</v>
+        <v>2109900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>1263900</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>1268900</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
-      <c r="J177" t="n">
-        <v>1779900</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1901900</v>
+        <v>2109900</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
-        </is>
-      </c>
-      <c r="N177" t="n">
-        <v>1268900</v>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1269900</v>
+        <v>356000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>1269900</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/omoda/s5/</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>1613000</v>
+        <v>470000</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>1659900</v>
+        <v>470000</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>1613000</v>
+        <v>356000</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>825000</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>2109900</v>
+        <v>346000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>2109900</v>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>506000</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>506000</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>346000</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>883000</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9695,168 +9695,164 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>470000</v>
+        <v>559900</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>470000</v>
+        <v>559900</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>825000</v>
+        <v>851000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>346000</v>
+        <v>853000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://ac-aquamarine.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>853000</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/renault/arkana/</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>506000</v>
+        <v>858000</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J181" t="n">
-        <v>506000</v>
+        <v>925000</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>346000</v>
+        <v>858000</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>883000</v>
+        <v>1874000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>366000</v>
+        <v>470000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>559900</v>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+          <t>https://ac-aquamarine.ru/auto/renault/duster/</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>470000</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="J182" t="n">
-        <v>559900</v>
+        <v>650000</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="N182" t="n">
-        <v>366000</v>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="P182" t="n">
-        <v>851000</v>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9866,64 +9862,46 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>853000</v>
+        <v>475000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/arkana/</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>853000</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/renault/arkana/</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>858000</v>
+        <v>475000</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
-      <c r="J183" t="n">
-        <v>925000</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>858000</v>
+        <v>475000</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1874000</v>
+        <v>1618000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9933,40 +9911,64 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>470000</v>
+        <v>708000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/duster/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>470000</t>
+          <t>708000</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/duster/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/kaptur/</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>713000</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J184" t="n">
-        <v>650000</v>
+        <v>865000</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>713000</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>1724000</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9976,46 +9978,64 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>475000</v>
+        <v>390000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://ac-aquamarine.ru/auto/renault/logan/</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>390000</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>475000</v>
+        <v>395000</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>495000</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>475000</v>
+        <v>395000</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1618000</v>
+        <v>1124000</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -10025,64 +10045,64 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>708000</v>
+        <v>498990</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/kaptur/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>708000</t>
+          <t>498990</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/kaptur/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>713000</v>
+        <v>503990</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>865000</v>
+        <v>605000</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>713000</v>
+        <v>503990</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1724000</v>
+        <v>1301000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10092,64 +10112,64 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>390000</v>
+        <v>672990</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/logan/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>390000</t>
+          <t>672990</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/logan/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway_city/</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>495000</v>
+        <v>705000</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1124000</v>
+        <v>958000</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -10159,64 +10179,64 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>498990</v>
+        <v>390000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>498990</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/sandero/</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>605000</v>
+        <v>505000</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1301000</v>
+        <v>1258000</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -10226,64 +10246,64 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>672990</v>
+        <v>394000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>672990</t>
+          <t>394000</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/logan_stepway_city/</t>
+          <t>https://ac-aquamarine.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>677990</v>
+        <v>399000</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="J189" t="n">
-        <v>705000</v>
+        <v>650000</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>677990</v>
+        <v>399000</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>958000</v>
+        <v>1373000</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10293,188 +10313,178 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>390000</v>
+        <v>656993</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/sandero/</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>390000</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/renault/sandero/</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>395000</v>
+        <v>730000</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>505000</v>
+        <v>730000</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>395000</v>
+        <v>656993</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1258000</v>
+        <v>1001000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>394000</v>
+        <v>949000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/sandero_stepway/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>394000</t>
+          <t>949000</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/renault/sandero_stepway/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/karoq/</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>399000</v>
+        <v>954000</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>650000</v>
+        <v>1193000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>399000</v>
+        <v>954000</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1373000</v>
+        <v>1955000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>656993</v>
+        <v>1354000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>730000</v>
+        <v>1354000</v>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="J192" t="n">
-        <v>730000</v>
+        <v>1354000</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>656993</v>
+        <v>1354000</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1001000</v>
+        <v>1962000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>590</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10484,64 +10494,32 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq Hockey Edition</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>949000</v>
+        <v>1271340</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/karoq/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>949000</t>
+          <t>1271340</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/karoq/</t>
-        </is>
-      </c>
-      <c r="H193" t="n">
-        <v>954000</v>
-      </c>
-      <c r="I193" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="J193" t="n">
-        <v>1193000</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="N193" t="n">
-        <v>954000</v>
-      </c>
-      <c r="O193" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="P193" t="n">
-        <v>1955000</v>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_hockey_edition/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>593</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10551,54 +10529,32 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Kodiaq Laurin &amp; Klement</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1354000</v>
+        <v>3483600</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="H194" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="I194" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="J194" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="N194" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="O194" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="P194" t="n">
-        <v>1962000</v>
-      </c>
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_laurin__klement/</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3483600</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>576</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10608,32 +10564,32 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Kodiaq Hockey Edition</t>
+          <t>Kodiaq New</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1271340</v>
+        <v>2184000</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1271340</t>
+          <t>2184000</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_hockey_edition/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq/</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10643,32 +10599,56 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Kodiaq Laurin &amp; Klement</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>3483600</v>
+        <v>2713000</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_scout/</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>3483600</t>
+          <t>2713000</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_laurin__klement/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_scout/</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>2718000</v>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>2718000</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3498000</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10678,32 +10658,56 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Kodiaq New</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2184000</v>
+        <v>2745000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_sportline/</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2184000</t>
+          <t>2745000</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_sportline/</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10713,56 +10717,40 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>2713000</v>
+        <v>839800</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_scout/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2713000</t>
+          <t>839800</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_scout/</t>
-        </is>
-      </c>
-      <c r="H198" t="n">
-        <v>2718000</v>
-      </c>
-      <c r="I198" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
-        </is>
-      </c>
-      <c r="N198" t="n">
-        <v>2718000</v>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
-        </is>
-      </c>
-      <c r="P198" t="n">
-        <v>3498000</v>
-      </c>
-      <c r="Q198" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="J198" t="n">
+        <v>1179000</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10772,56 +10760,46 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2745000</v>
+        <v>1705000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_sportline/</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2745000</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/kodiaq_sportline/</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>2750000</v>
+        <v>1705000</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
         </is>
       </c>
       <c r="N199" t="n">
-        <v>2750000</v>
+        <v>1705000</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="P199" t="n">
-        <v>3776000</v>
+        <v>1985000</v>
       </c>
       <c r="Q199" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10831,40 +10809,46 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>839800</v>
+        <v>543800</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>839800</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="J200" t="n">
-        <v>1179000</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>1129000</v>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>543800</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>1359500</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10874,46 +10858,46 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1705000</v>
+        <v>844800</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>1705000</v>
+        <v>844800</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>1705000</v>
+        <v>844800</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>1985000</v>
+        <v>1657000</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -10923,46 +10907,40 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>543800</v>
+        <v>420000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="H202" t="n">
-        <v>1129000</v>
-      </c>
-      <c r="I202" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="N202" t="n">
-        <v>543800</v>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="P202" t="n">
-        <v>1359500</v>
-      </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>420000</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="J202" t="n">
+        <v>589000</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10972,46 +10950,46 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>844800</v>
+        <v>425000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>844800</v>
+        <v>425000</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>844800</v>
+        <v>425000</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>1657000</v>
+        <v>1051000</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11021,40 +10999,40 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>420000</v>
+        <v>1206000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/rapid/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>420000</t>
+          <t>1206000</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/rapid/</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/superb/</t>
         </is>
       </c>
       <c r="J204" t="n">
-        <v>589000</v>
+        <v>1713000</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -11064,46 +11042,64 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>425000</v>
+        <v>1747000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://ac-aquamarine.ru/auto/skoda/superb_combi/</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1747000</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/skoda/superb_combi/</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>425000</v>
+        <v>1752000</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="J205" t="n">
+        <v>2001000</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>425000</v>
+        <v>1752000</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1051000</v>
+        <v>2681000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -11113,156 +11109,116 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1206000</v>
+        <v>1211000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>1206000</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/superb/</t>
-        </is>
-      </c>
-      <c r="J206" t="n">
-        <v>1713000</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>1211000</v>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1211000</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>2388000</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1747000</v>
+        <v>1749300</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/superb_combi/</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1747000</t>
+          <t>1749300</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/skoda/superb_combi/</t>
-        </is>
-      </c>
-      <c r="H207" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="J207" t="n">
-        <v>2001000</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
-        </is>
-      </c>
-      <c r="N207" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="P207" t="n">
-        <v>2681000</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/hc/</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1211000</v>
+        <v>1407000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
-        </is>
-      </c>
-      <c r="H208" t="n">
-        <v>1211000</v>
-      </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
-        </is>
-      </c>
-      <c r="N208" t="n">
-        <v>1211000</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>2388000</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/hs/</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1407000</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/solaris/hs/</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -11272,32 +11228,32 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1749300</v>
+        <v>1426600</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/hc/</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1749300</t>
+          <t>1426600</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/hc/</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/krs/</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -11307,102 +11263,146 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1407000</v>
+        <v>1444800</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/hs/</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1407000</t>
+          <t>1444800</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/hs/</t>
+          <t>https://ac-aquamarine.ru/auto/solaris/krx/</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1426600</v>
+        <v>1379000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/krs/</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>1426600</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/krs/</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="J211" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>2669000</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1444800</v>
+        <v>1069000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>1444800</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/solaris/krx/</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="J212" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -11412,278 +11412,230 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1379000</v>
+        <v>969000</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>1469000</v>
+        <v>1219000</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
         </is>
       </c>
       <c r="J213" t="n">
-        <v>1469000</v>
+        <v>1219000</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>1379000</v>
+        <v>969000</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2669000</v>
+        <v>2419000</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1069000</v>
+        <v>2843000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://ac-aquamarine.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2843000</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/tank/300/</t>
         </is>
       </c>
       <c r="H214" t="n">
-        <v>1119000</v>
+        <v>2848000</v>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="J214" t="n">
-        <v>1119000</v>
+        <v>2869300</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>1069000</v>
+        <v>2848000</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="P214" t="n">
-        <v>2319000</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>969000</v>
+        <v>3893000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://ac-aquamarine.ru/auto/tank/500/</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3893000</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="H215" t="n">
-        <v>1219000</v>
+        <v>3898000</v>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
-        </is>
-      </c>
-      <c r="J215" t="n">
-        <v>1219000</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>969000</v>
+        <v>3898000</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
-        </is>
-      </c>
-      <c r="P215" t="n">
-        <v>2419000</v>
-      </c>
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>2843000</v>
+        <v>1285000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>2843000</t>
-        </is>
-      </c>
-      <c r="G216" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/tank/300/</t>
-        </is>
-      </c>
-      <c r="H216" t="n">
-        <v>2848000</v>
-      </c>
-      <c r="I216" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="J216" t="n">
-        <v>2869300</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/tank/300</t>
-        </is>
-      </c>
-      <c r="N216" t="n">
-        <v>2848000</v>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1285000</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3909 Бортовой грузовик</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3893000</v>
+        <v>1330000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>3893000</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="H217" t="n">
-        <v>3898000</v>
-      </c>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="N217" t="n">
-        <v>3898000</v>
-      </c>
-      <c r="O217" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1330000</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11693,30 +11645,30 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1285000</v>
+        <v>1305000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="L218" t="n">
-        <v>1285000</v>
+        <v>1305000</v>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11726,30 +11678,30 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>3909 Скорая помощь</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1280000</v>
+        <v>1270000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
       <c r="L219" t="n">
-        <v>1280000</v>
+        <v>1270000</v>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11759,30 +11711,30 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1305000</v>
+        <v>1250000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="L220" t="n">
-        <v>1305000</v>
+        <v>1250000</v>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11792,30 +11744,72 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>3909 Скорая помощь</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1270000</v>
+        <v>533000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://ac-aquamarine.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>533000</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/uaz/hunter/</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>538000</v>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="J221" t="n">
+        <v>555000</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="L221" t="n">
-        <v>1270000</v>
+        <v>1227000</v>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-hunter-krossover/</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>538000</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -11825,30 +11819,64 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1250000</v>
+        <v>424380</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://ac-aquamarine.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>424380</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>429380</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="J222" t="n">
+        <v>619000</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>429380</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11858,72 +11886,30 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>533000</v>
+        <v>1530000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>533000</t>
-        </is>
-      </c>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/uaz/hunter/</t>
-        </is>
-      </c>
-      <c r="H223" t="n">
-        <v>538000</v>
-      </c>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="J223" t="n">
-        <v>555000</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>1227000</v>
+        <v>1530000</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-hunter-krossover/</t>
-        </is>
-      </c>
-      <c r="N223" t="n">
-        <v>538000</v>
-      </c>
-      <c r="O223" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="P223" t="n">
-        <v>1545000</v>
-      </c>
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11933,64 +11919,32 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>424380</v>
+        <v>616000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/uaz/patriot/</t>
+          <t>https://ac-aquamarine.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>424380</t>
+          <t>616000</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="H224" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="J224" t="n">
-        <v>619000</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="N224" t="n">
-        <v>429380</v>
-      </c>
-      <c r="O224" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="P224" t="n">
-        <v>1745000</v>
-      </c>
-      <c r="Q224" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
+          <t>https://ac-aquamarine.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12000,30 +11954,54 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1530000</v>
+        <v>621000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>621000</v>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="J225" t="n">
+        <v>638000</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>621000</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12033,163 +12011,181 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Профи</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>616000</v>
+        <v>1655000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>616000</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/uaz/patriot_pickup/</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>621000</v>
+        <v>4790000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="H227" t="n">
-        <v>621000</v>
+        <v>4790000</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="J227" t="n">
-        <v>638000</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>621000</v>
+        <v>4790000</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="P227" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1655000</v>
+        <v>1008000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1655000</v>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>1008000</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J228" t="n">
+        <v>1322000</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>4790000</v>
+        <v>514300</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="H229" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="I229" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="N229" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="O229" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>514300</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/polo/</t>
+        </is>
+      </c>
+      <c r="J229" t="n">
+        <v>687900</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12199,64 +12195,46 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1008000</v>
+        <v>519300</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/jetta/</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>1008000</t>
-        </is>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/jetta/</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="H230" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J230" t="n">
-        <v>1322000</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="P230" t="n">
-        <v>1627000</v>
+        <v>1620900</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12266,40 +12244,64 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>514300</v>
+        <v>1222900</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/polo/</t>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/taos/</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>514300</t>
+          <t>1222900</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/polo/</t>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/taos/</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>687900</v>
+        <v>1544900</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12309,204 +12311,88 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>519300</v>
+        <v>1283900</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>1283900</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://ac-aquamarine.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="H232" t="n">
-        <v>519300</v>
+        <v>1288900</v>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>519300</v>
+        <v>1288900</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="P232" t="n">
-        <v>1620900</v>
+        <v>3375900</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1222900</v>
+        <v>2199000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>1222900</t>
-        </is>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/taos/</t>
-        </is>
-      </c>
-      <c r="H233" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J233" t="n">
-        <v>1544900</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="N233" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>1283900</v>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>1283900</t>
-        </is>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>https://ac-aquamarine.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="H234" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="J234" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="N234" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="O234" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="P234" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>XCite</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>X-Cross 7</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
+          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
         <v>2199000</v>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>2199000</v>
-      </c>
-      <c r="M235" t="inlineStr">
+      <c r="M233" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q188"/>
+  <dimension ref="A1:Q193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2413000</v>
+        <v>2233000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -5329,7 +5329,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5339,54 +5339,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>257900</v>
+        <v>992000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>257900</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>320000</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>257900</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>678300</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>992000</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5396,54 +5372,54 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>425900</v>
+        <v>257900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>425900</v>
+        <v>257900</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>455900</v>
+        <v>320000</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>425900</v>
+        <v>257900</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>940900</v>
+        <v>678300</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5453,54 +5429,54 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>278900</v>
+        <v>425900</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>278900</v>
+        <v>425900</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="J102" t="n">
-        <v>313900</v>
+        <v>455900</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>278900</v>
+        <v>425900</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>705300</v>
+        <v>940900</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5510,30 +5486,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>446300</v>
+        <v>1104000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
-        <v>446300</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1104000</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5543,46 +5519,54 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Largus CNG</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>764900</v>
+        <v>278900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>764900</v>
+        <v>278900</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>313900</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>764900</v>
+        <v>278900</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>917900</v>
+        <v>705300</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5592,30 +5576,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>611900</v>
+        <v>446300</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>611900</v>
+        <v>446300</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5625,46 +5609,46 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus Cross CNG</t>
+          <t>Largus CNG</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>829900</v>
+        <v>764900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>829900</v>
+        <v>764900</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>829900</v>
+        <v>764900</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>982900</v>
+        <v>917900</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5674,46 +5658,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>384300</v>
+        <v>611900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>384300</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>1443900</v>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>611900</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5723,46 +5691,46 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross CNG</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>348900</v>
+        <v>829900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>348900</v>
+        <v>829900</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>348900</v>
+        <v>829900</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1300900</v>
+        <v>982900</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5772,30 +5740,46 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>468900</v>
+        <v>384300</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>468900</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>384300</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>384300</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>1443900</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5805,46 +5789,54 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus Фургон CNG</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>525900</v>
+        <v>348900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>525900</v>
+        <v>348900</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>525900</v>
+        <v>348900</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>938900</v>
+        <v>1300900</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5854,46 +5846,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>329000</v>
+        <v>468900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>329000</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>329000</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>1301900</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>468900</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5903,54 +5879,46 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон CNG</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>515900</v>
+        <v>525900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>515900</v>
+        <v>525900</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>515900</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>515900</v>
+        <v>525900</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>738000</v>
+        <v>938900</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/niva</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5960,54 +5928,54 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>350300</v>
+        <v>329000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>579900</v>
+        <v>329000</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>350300</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1316500</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>579900</v>
+        <v>329000</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>800900</v>
+        <v>1301900</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6017,54 +5985,62 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>371300</v>
+        <v>515900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>371300</v>
+        <v>515900</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
+          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>371300</v>
+        <v>515900</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1343000</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>398900</v>
+        <v>515900</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>918900</v>
+        <v>738000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
+          <t>https://avto-zlt.ru/catalog/lada/niva</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6074,54 +6050,62 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>569900</v>
+        <v>350300</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>569900</v>
+        <v>579900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>569900</v>
+        <v>350300</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>931000</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-universal/</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>569900</v>
+        <v>579900</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>921900</v>
+        <v>800900</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6131,54 +6115,54 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>360200</v>
+        <v>371300</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>360200</v>
+        <v>371300</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>440200</v>
+        <v>371300</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>360200</v>
+        <v>398900</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>998900</v>
+        <v>918900</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/travel</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6188,54 +6172,54 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>444500</v>
+        <v>569900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>444500</v>
+        <v>569900</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>565900</v>
+        <v>569900</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>444500</v>
+        <v>569900</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1269900</v>
+        <v>921900</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6245,54 +6229,54 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>390000</v>
+        <v>360200</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>390000</v>
+        <v>360200</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
+          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>514900</v>
+        <v>440200</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>390000</v>
+        <v>360200</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1213900</v>
+        <v>998900</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-zlt.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6302,54 +6286,54 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>433000</v>
+        <v>444500</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>433000</v>
+        <v>444500</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>590900</v>
+        <v>565900</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>433000</v>
+        <v>444500</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1328900</v>
+        <v>1269900</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6359,54 +6343,54 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>380900</v>
+        <v>390000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>380900</v>
+        <v>390000</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>445900</v>
+        <v>514900</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>380900</v>
+        <v>390000</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1121900</v>
+        <v>1213900</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6416,54 +6400,54 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>465900</v>
+        <v>433000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>465900</v>
+        <v>433000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>556900</v>
+        <v>590900</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>465900</v>
+        <v>433000</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1316900</v>
+        <v>1328900</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6473,54 +6457,54 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>579900</v>
+        <v>380900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>579900</v>
+        <v>380900</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>740900</v>
+        <v>445900</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>579900</v>
+        <v>380900</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1597900</v>
+        <v>1121900</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6530,54 +6514,54 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>385900</v>
+        <v>465900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>385900</v>
+        <v>465900</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>428900</v>
+        <v>556900</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>385900</v>
+        <v>465900</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1106900</v>
+        <v>1316900</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6587,225 +6571,201 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>384300</v>
+        <v>1642000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>561900</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
-        <v>384300</v>
-      </c>
-      <c r="O124" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="P124" t="n">
-        <v>1249900</v>
-      </c>
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-ng-sedan/</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1642000</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-ng-sedan/</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>649900</v>
+        <v>579900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>649900</v>
+        <v>579900</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>649900</v>
+        <v>740900</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>844900</v>
+        <v>579900</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1019900</v>
+        <v>1597900</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>400900</v>
+        <v>385900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>400900</v>
+        <v>385900</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>400900</v>
+        <v>428900</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>534900</v>
+        <v>385900</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>709900</v>
+        <v>1106900</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>419900</v>
+        <v>384300</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>419900</v>
+        <v>384300</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>419900</v>
+        <v>561900</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>464900</v>
+        <v>384300</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>689900</v>
+        <v>1249900</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6815,54 +6775,54 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>490900</v>
+        <v>649900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>490900</v>
+        <v>649900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>490900</v>
+        <v>649900</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>594900</v>
+        <v>844900</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x60</t>
+          <t>https://avto-mg.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>769900</v>
+        <v>1019900</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
+          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6872,887 +6832,911 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>614000</v>
+        <v>400900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>769900</v>
+        <v>400900</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>769900</v>
+        <v>400900</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>614000</v>
+        <v>534900</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>989000</v>
+        <v>709900</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
+          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1749900</v>
+        <v>419900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>419900</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>1749900</v>
+        <v>419900</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>464900</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>689900</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1579900</v>
+        <v>490900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1579900</v>
+        <v>490900</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>1579900</v>
+        <v>490900</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>1579900</v>
+        <v>594900</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/lifan/x60</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>769900</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1729900</v>
+        <v>614000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>769900</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1729900</v>
+        <v>769900</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>614000</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>989000</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1419000</v>
+        <v>1749900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1444000</v>
+        <v>1749900</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2439000</v>
+        <v>1579900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="H134" t="n">
-        <v>2439000</v>
+        <v>1579900</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1579900</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>2439000</v>
+        <v>1579900</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1750000</v>
+        <v>1729900</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1729900</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>897000</v>
+        <v>1419000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>897000</v>
+        <v>1419000</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="J136" t="n">
-        <v>1050000</v>
+        <v>1444000</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>897000</v>
+        <v>1419000</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>2337000</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>638000</v>
+        <v>2439000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>638000</v>
+        <v>2439000</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="J137" t="n">
-        <v>830000</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>638000</v>
+        <v>2439000</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="P137" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1134000</v>
+        <v>1750000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="J138" t="n">
-        <v>1249000</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="P138" t="n">
-        <v>2762000</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1268900</v>
+        <v>897000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1268900</v>
+        <v>897000</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1779900</v>
+        <v>1050000</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1901900</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>1268900</v>
+        <v>897000</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1613000</v>
+        <v>638000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1613000</v>
+        <v>638000</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1659900</v>
+        <v>830000</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>1613000</v>
+        <v>638000</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>356000</v>
+        <v>1134000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>470000</v>
+        <v>1134000</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>470000</v>
+        <v>1249000</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>356000</v>
+        <v>1134000</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>825000</v>
+        <v>2762000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>346000</v>
+        <v>1268900</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>506000</v>
+        <v>1268900</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>506000</v>
+        <v>1779900</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>346000</v>
+        <v>1268900</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
-      <c r="P142" t="n">
-        <v>883000</v>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>366000</v>
+        <v>1613000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="H143" t="n">
-        <v>559900</v>
+        <v>1613000</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>559900</v>
+        <v>1659900</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>366000</v>
+        <v>1613000</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="P143" t="n">
-        <v>851000</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>858000</v>
+        <v>356000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>858000</v>
+        <v>470000</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>925000</v>
+        <v>470000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>858000</v>
+        <v>356000</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1874000</v>
+        <v>825000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>650000</v>
+        <v>346000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>506000</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>650000</v>
+        <v>506000</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>346000</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>883000</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>475000</v>
+        <v>366000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>475000</v>
+        <v>559900</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>559900</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>475000</v>
+        <v>366000</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1618000</v>
+        <v>851000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7762,54 +7746,54 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>713000</v>
+        <v>858000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>713000</v>
+        <v>858000</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>865000</v>
+        <v>925000</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>713000</v>
+        <v>858000</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1724000</v>
+        <v>1874000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7819,54 +7803,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>395000</v>
+        <v>650000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>395000</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>495000</v>
+        <v>650000</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
-        <v>395000</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
-        </is>
-      </c>
-      <c r="P148" t="n">
-        <v>1124000</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7876,54 +7836,46 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>503990</v>
+        <v>475000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>503990</v>
+        <v>475000</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>605000</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>503990</v>
+        <v>475000</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1301000</v>
+        <v>1618000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7933,54 +7885,54 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>677990</v>
+        <v>713000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>677990</v>
+        <v>713000</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>705000</v>
+        <v>865000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>677990</v>
+        <v>713000</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>958000</v>
+        <v>1724000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7990,7 +7942,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -7998,7 +7950,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -8006,15 +7958,15 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>505000</v>
+        <v>495000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N151" t="n">
@@ -8022,22 +7974,22 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1258000</v>
+        <v>1124000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8047,54 +7999,54 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>399000</v>
+        <v>503990</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>399000</v>
+        <v>503990</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>650000</v>
+        <v>605000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>399000</v>
+        <v>503990</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1373000</v>
+        <v>1301000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8104,217 +8056,225 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>656993</v>
+        <v>677990</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>730000</v>
+        <v>677990</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>730000</v>
+        <v>705000</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>656993</v>
+        <v>677990</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1001000</v>
+        <v>958000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>954000</v>
+        <v>395000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>954000</v>
+        <v>395000</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>1193000</v>
+        <v>505000</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>954000</v>
+        <v>395000</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1955000</v>
+        <v>1258000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1354000</v>
+        <v>399000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1354000</v>
+        <v>399000</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1354000</v>
+        <v>650000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>1354000</v>
+        <v>399000</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1962000</v>
+        <v>1373000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2718000</v>
+        <v>656993</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>2718000</v>
+        <v>730000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>730000</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2718000</v>
+        <v>656993</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3498000</v>
+        <v>1001000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8324,46 +8284,54 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2750000</v>
+        <v>954000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>2750000</v>
+        <v>954000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>1193000</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2750000</v>
+        <v>954000</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3776000</v>
+        <v>1955000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8373,30 +8341,54 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1179000</v>
+        <v>1354000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="J158" t="n">
-        <v>1179000</v>
+        <v>1354000</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>1962000</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8406,46 +8398,46 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1705000</v>
+        <v>2718000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1705000</v>
+        <v>2718000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>1705000</v>
+        <v>2718000</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1985000</v>
+        <v>3498000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8455,46 +8447,46 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>543800</v>
+        <v>2750000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>1129000</v>
+        <v>2750000</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>543800</v>
+        <v>2750000</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1359500</v>
+        <v>3776000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8504,46 +8496,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>844800</v>
+        <v>1179000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>844800</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
-        <v>844800</v>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="P161" t="n">
-        <v>1657000</v>
-      </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1179000</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8553,30 +8529,46 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>589000</v>
+        <v>1705000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="J162" t="n">
-        <v>589000</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>1985000</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8586,46 +8578,46 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>425000</v>
+        <v>543800</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>425000</v>
+        <v>1129000</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>425000</v>
+        <v>543800</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1051000</v>
+        <v>1359500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8635,30 +8627,46 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1713000</v>
+        <v>844800</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
-        </is>
-      </c>
-      <c r="J164" t="n">
-        <v>1713000</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>844800</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>844800</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>1657000</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8668,54 +8676,30 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1752000</v>
+        <v>589000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
       <c r="J165" t="n">
-        <v>2001000</v>
+        <v>589000</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="P165" t="n">
-        <v>2681000</v>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8725,406 +8709,446 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1211000</v>
+        <v>425000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1211000</v>
+        <v>425000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>1211000</v>
+        <v>425000</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2388000</v>
+        <v>1051000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1379000</v>
+        <v>1713000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>1469000</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1469000</v>
+        <v>1713000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
-        <v>1379000</v>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
-        </is>
-      </c>
-      <c r="P167" t="n">
-        <v>2669000</v>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1069000</v>
+        <v>1752000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1119000</v>
+        <v>1752000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>1119000</v>
+        <v>2001000</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>1069000</v>
+        <v>1752000</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2319000</v>
+        <v>2681000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>969000</v>
+        <v>1211000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1219000</v>
+        <v>1211000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
-        </is>
-      </c>
-      <c r="J169" t="n">
-        <v>1219000</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>969000</v>
+        <v>1211000</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2419000</v>
+        <v>2388000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>2848000</v>
+        <v>1379000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>2848000</v>
+        <v>1469000</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>2869300</v>
+        <v>1469000</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/tank/300</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>2848000</v>
+        <v>1379000</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>2669000</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>3898000</v>
+        <v>1069000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>3898000</v>
+        <v>1119000</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3898000</v>
+        <v>1069000</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1285000</v>
+        <v>969000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1219000</v>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1219000</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>969000</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>2419000</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1280000</v>
+        <v>2848000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1280000</v>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>2848000</v>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>2869300</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/tank/300</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2848000</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1235000</v>
+        <v>3898000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1235000</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3898000</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3898000</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9134,30 +9158,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3909 Скорая помощь</t>
+          <t>3909</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1270000</v>
+        <v>1285000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1270000</v>
+        <v>1285000</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9167,30 +9191,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>3909 Бортовой грузовик</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1250000</v>
+        <v>1280000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1250000</v>
+        <v>1280000</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9200,62 +9224,30 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>538000</v>
+        <v>1235000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>538000</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="J177" t="n">
-        <v>555000</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1227000</v>
+        <v>1235000</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-hunter-krossover/</t>
-        </is>
-      </c>
-      <c r="N177" t="n">
-        <v>538000</v>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="P177" t="n">
-        <v>1545000</v>
-      </c>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9265,54 +9257,30 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>3909 Скорая помощь</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>429380</v>
+        <v>1270000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="H178" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="J178" t="n">
-        <v>619000</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="N178" t="n">
-        <v>429380</v>
-      </c>
-      <c r="O178" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="P178" t="n">
-        <v>1745000</v>
-      </c>
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1270000</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9322,30 +9290,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1530000</v>
+        <v>1250000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1530000</v>
+        <v>1250000</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9355,54 +9323,62 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>621000</v>
+        <v>538000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>621000</v>
+        <v>538000</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="J180" t="n">
-        <v>638000</v>
+        <v>555000</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1227000</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-hunter-krossover/</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>621000</v>
+        <v>538000</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>1770000</v>
+        <v>1545000</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9412,210 +9388,218 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1626000</v>
+        <v>429380</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1626000</v>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>429380</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>619000</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>429380</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>4790000</v>
+        <v>1530000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="N182" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1530000</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1013000</v>
+        <v>621000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>1013000</v>
+        <v>621000</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="J183" t="n">
-        <v>1322000</v>
+        <v>638000</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>1013000</v>
+        <v>621000</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1627000</v>
+        <v>1770000</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>687900</v>
+        <v>1572000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="J184" t="n">
-        <v>687900</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1572000</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>519300</v>
+        <v>4790000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>519300</v>
+        <v>4790000</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>519300</v>
+        <v>4790000</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="P185" t="n">
-        <v>1620900</v>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9625,54 +9609,54 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1227900</v>
+        <v>1013000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>1227900</v>
+        <v>1013000</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="J186" t="n">
-        <v>1544900</v>
+        <v>1322000</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>1227900</v>
+        <v>1013000</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>2828900</v>
+        <v>1627000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9682,80 +9666,285 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1288900</v>
+        <v>687900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1329900</v>
+        <v>687900</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="N187" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="P187" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Polo New</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>519300</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>519300</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>519300</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>1620900</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>1544900</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3375900</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>675</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>XCite</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>X-Cross 7</t>
         </is>
       </c>
-      <c r="D188" t="n">
+      <c r="D191" t="n">
         <v>2199000</v>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>
       </c>
-      <c r="L188" t="n">
+      <c r="L191" t="n">
         <v>2199000</v>
       </c>
-      <c r="M188" t="inlineStr">
+      <c r="M191" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>chery</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>tiggo4proкроссовермп</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1505200</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-4-pro-krossover-mp/</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1505200</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-4-pro-krossover-mp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Новая машина, необходимо назначить id</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>lada</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>(ваз)grantaiрестайлингуниверсал</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
         </is>
       </c>
     </row>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q193"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2233000</v>
+        <v>2103000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1104000</v>
+        <v>962000</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1104000</v>
+        <v>962000</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5576,30 +5576,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>446300</v>
+        <v>1090000</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>446300</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1090000</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5609,46 +5609,30 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus CNG</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>764900</v>
+        <v>446300</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>764900</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
-        <v>764900</v>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>917900</v>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>446300</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5658,30 +5642,46 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus CNG</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>611900</v>
+        <v>764900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>611900</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>764900</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>764900</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>917900</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5691,46 +5691,30 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus Cross CNG</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>829900</v>
+        <v>611900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>829900</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>829900</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>982900</v>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>611900</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5740,46 +5724,46 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross CNG</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>384300</v>
+        <v>829900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>384300</v>
+        <v>829900</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>384300</v>
+        <v>829900</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1443900</v>
+        <v>982900</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5789,54 +5773,46 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1610000</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1300900</v>
+        <v>1443900</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5846,30 +5822,54 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>468900</v>
+        <v>348900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>468900</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>348900</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1610000</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>348900</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>1300900</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5879,46 +5879,30 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Largus Фургон CNG</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>525900</v>
+        <v>468900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>525900</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>525900</v>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="P112" t="n">
-        <v>938900</v>
-      </c>
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>468900</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5928,54 +5912,46 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Фургон CNG</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>329000</v>
+        <v>525900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>329000</v>
+        <v>525900</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1316500</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>329000</v>
+        <v>525900</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1301900</v>
+        <v>938900</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5985,62 +5961,54 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>515900</v>
+        <v>329000</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>515900</v>
+        <v>329000</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>515900</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1343000</v>
+        <v>1316500</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>515900</v>
+        <v>329000</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>738000</v>
+        <v>1301900</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/niva</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6050,62 +6018,62 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>350300</v>
+        <v>515900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>579900</v>
+        <v>515900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>350300</v>
+        <v>515900</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>931000</v>
+        <v>1249000</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-universal/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>579900</v>
+        <v>515900</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>800900</v>
+        <v>738000</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
+          <t>https://avto-zlt.ru/catalog/lada/niva</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6115,54 +6083,62 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>371300</v>
+        <v>579900</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>969000</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend/</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>398900</v>
+        <v>579900</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>918900</v>
+        <v>800900</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6172,54 +6148,54 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>569900</v>
+        <v>371300</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>569900</v>
+        <v>371300</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>569900</v>
+        <v>371300</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>569900</v>
+        <v>398900</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>921900</v>
+        <v>918900</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6229,54 +6205,54 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>360200</v>
+        <v>569900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>360200</v>
+        <v>569900</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
+          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>440200</v>
+        <v>569900</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>360200</v>
+        <v>569900</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>998900</v>
+        <v>921900</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/travel</t>
+          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6286,54 +6262,54 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>444500</v>
+        <v>360200</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>444500</v>
+        <v>360200</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>565900</v>
+        <v>440200</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>444500</v>
+        <v>360200</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1269900</v>
+        <v>998900</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6343,54 +6319,54 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>390000</v>
+        <v>444500</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>390000</v>
+        <v>444500</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>514900</v>
+        <v>565900</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>390000</v>
+        <v>444500</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1213900</v>
+        <v>1269900</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6400,54 +6376,54 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>590900</v>
+        <v>514900</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1328900</v>
+        <v>1213900</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6457,54 +6433,54 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>380900</v>
+        <v>433000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>380900</v>
+        <v>433000</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>445900</v>
+        <v>590900</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>380900</v>
+        <v>433000</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1121900</v>
+        <v>1328900</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6514,54 +6490,54 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>556900</v>
+        <v>445900</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1316900</v>
+        <v>1121900</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6571,23 +6547,47 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1642000</v>
+        <v>465900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-ng-sedan/</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1642000</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-vesta-i-restayling-ng-sedan/</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>465900</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>556900</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>465900</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>1316900</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
@@ -7504,6 +7504,14 @@
           <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
+      <c r="L142" t="n">
+        <v>1901900</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
+        </is>
+      </c>
       <c r="N142" t="n">
         <v>1268900</v>
       </c>
@@ -9879,72 +9887,6 @@
       <c r="M191" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Новая машина, необходимо назначить id</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>chery</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>tiggo4proкроссовермп</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>1505200</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/chery-tiggo-4-pro-krossover-mp/</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1505200</v>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/chery-tiggo-4-pro-krossover-mp/</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Новая машина, необходимо назначить id</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>lada</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>(ваз)grantaiрестайлингуниверсал</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1090000</v>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
         </is>
       </c>
     </row>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q183"/>
+  <dimension ref="A1:Q190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2817000</v>
+        <v>2080000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2817000</v>
+        <v>2080000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2586000</v>
+        <v>3225600</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2586000</v>
+        <v>3225600</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1814,6 +1814,14 @@
           <t>https://smolino-motors74.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
+      <c r="J28" t="n">
+        <v>559900</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/chevrolet/cobalt_20</t>
+        </is>
+      </c>
       <c r="N28" t="n">
         <v>542900</v>
       </c>
@@ -1863,6 +1871,14 @@
           <t>https://smolino-motors74.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
+      <c r="J29" t="n">
+        <v>509900</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/chevrolet/nexia</t>
+        </is>
+      </c>
       <c r="N29" t="n">
         <v>492900</v>
       </c>
@@ -1912,6 +1928,14 @@
           <t>https://smolino-motors74.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
+      <c r="J30" t="n">
+        <v>559900</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/chevrolet/spark20</t>
+        </is>
+      </c>
       <c r="N30" t="n">
         <v>542900</v>
       </c>
@@ -1950,7 +1974,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/datsun/mi_do</t>
+          <t>https://che-motors-2024.ru/catalog/datsun/mi_DO</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1961,6 +1985,14 @@
           <t>https://smolino-motors74.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
+      <c r="J31" t="n">
+        <v>319900</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/datsun/mi_DO</t>
+        </is>
+      </c>
       <c r="N31" t="n">
         <v>344000</v>
       </c>
@@ -2010,6 +2042,14 @@
           <t>https://smolino-motors74.ru/catalog/datsun/on_do</t>
         </is>
       </c>
+      <c r="J32" t="n">
+        <v>294000</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/datsun/on_do_2019</t>
+        </is>
+      </c>
       <c r="N32" t="n">
         <v>244000</v>
       </c>
@@ -2059,6 +2099,14 @@
           <t>https://smolino-motors74.ru/catalog/dong-feng/580</t>
         </is>
       </c>
+      <c r="J33" t="n">
+        <v>2079000</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/dongfeng/580</t>
+        </is>
+      </c>
       <c r="N33" t="n">
         <v>759000</v>
       </c>
@@ -2133,6 +2181,14 @@
           <t>https://smolino-motors74.ru/catalog/exeed/lx</t>
         </is>
       </c>
+      <c r="J35" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/exeed/lx</t>
+        </is>
+      </c>
       <c r="N35" t="n">
         <v>2299900</v>
       </c>
@@ -2174,6 +2230,14 @@
           <t>https://smolino-motors74.ru/catalog/chery/txl</t>
         </is>
       </c>
+      <c r="J36" t="n">
+        <v>3269900</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
+        </is>
+      </c>
       <c r="N36" t="n">
         <v>1999900</v>
       </c>
@@ -2223,6 +2287,14 @@
           <t>https://smolino-motors74.ru/catalog/exeed/vx</t>
         </is>
       </c>
+      <c r="J37" t="n">
+        <v>4109900</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/exeed/vx</t>
+        </is>
+      </c>
       <c r="N37" t="n">
         <v>4109900</v>
       </c>
@@ -2264,6 +2336,14 @@
           <t>https://smolino-motors74.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
+      <c r="J38" t="n">
+        <v>1629600</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_b70</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>2401000</v>
       </c>
@@ -2313,6 +2393,14 @@
           <t>https://smolino-motors74.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
+      <c r="J39" t="n">
+        <v>1602300</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t55</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1981000</v>
       </c>
@@ -2354,6 +2442,14 @@
           <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
         </is>
       </c>
+      <c r="J40" t="n">
+        <v>1819000</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1616000</v>
       </c>
@@ -2436,6 +2532,14 @@
           <t>https://smolino-motors74.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
+      <c r="J42" t="n">
+        <v>763900</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/besturn_x40</t>
+        </is>
+      </c>
       <c r="N42" t="n">
         <v>619300</v>
       </c>
@@ -2485,6 +2589,14 @@
           <t>https://smolino-motors74.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
+      <c r="J43" t="n">
+        <v>839000</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/besturn_x80_2018</t>
+        </is>
+      </c>
       <c r="N43" t="n">
         <v>761000</v>
       </c>
@@ -2519,11 +2631,11 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3399000</v>
+        <v>3059000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gn8</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2534,6 +2646,14 @@
           <t>https://smolino-motors74.ru/catalog/gac/gn8</t>
         </is>
       </c>
+      <c r="J44" t="n">
+        <v>3059000</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
+        </is>
+      </c>
       <c r="N44" t="n">
         <v>3399000</v>
       </c>
@@ -2560,11 +2680,11 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2099000</v>
+        <v>1349000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs5</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2575,6 +2695,14 @@
           <t>https://smolino-motors74.ru/catalog/gac/gs5</t>
         </is>
       </c>
+      <c r="J45" t="n">
+        <v>1349000</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
+        </is>
+      </c>
       <c r="N45" t="n">
         <v>2099000</v>
       </c>
@@ -2601,11 +2729,11 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2789000</v>
+        <v>2389000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs8</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2616,6 +2744,14 @@
           <t>https://smolino-motors74.ru/catalog/gac/gs8</t>
         </is>
       </c>
+      <c r="J46" t="n">
+        <v>2389000</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
+        </is>
+      </c>
       <c r="N46" t="n">
         <v>2789000</v>
       </c>
@@ -3132,11 +3268,19 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2099000</v>
+        <v>1099000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
+          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1099000</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -4618,7 +4762,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2599900</v>
+        <v>2889900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4634,7 +4778,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2599900</v>
+        <v>2889900</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -4715,6 +4859,14 @@
           <t>https://smolino-motors74.ru/catalog/jetour/dashing</t>
         </is>
       </c>
+      <c r="J89" t="n">
+        <v>1493940</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jetour/dashing</t>
+        </is>
+      </c>
       <c r="N89" t="n">
         <v>1138900</v>
       </c>
@@ -4727,7 +4879,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4737,79 +4889,79 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1898900</v>
+        <v>1499900</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>1898900</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jetour/x90plus</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
-        <v>1898900</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
+          <t>https://che-motors-2024.ru/catalog/jetour/x70_plus</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>1499900</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jetour/x70_plus</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>973000</v>
+        <v>1898900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/va3</t>
+          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>973000</v>
+        <v>1898900</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/va3</t>
+          <t>https://smolino-motors74.ru/catalog/jetour/x90plus</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>2039940</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>973000</v>
+        <v>1898900</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/va3</t>
+          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4819,38 +4971,38 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1423000</v>
+        <v>973000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
+          <t>https://avto-mg.ru/catalog/jetta/va3</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1423000</v>
+        <v>973000</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/vs5</t>
+          <t>https://smolino-motors74.ru/catalog/jetta/va3</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>1423000</v>
+        <v>973000</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
+          <t>https://avto-mg.ru/catalog/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4860,144 +5012,128 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1732000</v>
+        <v>1423000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1732000</v>
+        <v>1423000</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/vs7</t>
+          <t>https://smolino-motors74.ru/catalog/jetta/vs5</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1732000</v>
+        <v>1423000</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1058000</v>
+        <v>1732000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1058000</v>
+        <v>1732000</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>1371300</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/kaiyi/e5</t>
+          <t>https://smolino-motors74.ru/catalog/jetta/vs7</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>1058000</v>
+        <v>1732000</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>399000</v>
+        <v>1058000</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>425900</v>
+        <v>1058000</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>399000</v>
+        <v>1371300</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://che-motors-2024.ru/catalog/kaiyi/e5</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>425900</v>
+        <v>1058000</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>742300</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_cross</t>
+          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5007,54 +5143,54 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>268500</v>
+        <v>399000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>268500</v>
+        <v>425900</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_hatchback</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_cross</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>310900</v>
+        <v>399000</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>268500</v>
+        <v>425900</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>778500</v>
+        <v>742300</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_hatchback</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5064,54 +5200,54 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>272300</v>
+        <v>268500</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>272300</v>
+        <v>268500</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_liftback</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="J97" t="n">
-        <v>312900</v>
+        <v>310900</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>272300</v>
+        <v>268500</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>698300</v>
+        <v>778500</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5121,30 +5257,54 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>904550</v>
+        <v>272300</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>904550</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>272300</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_liftback</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>312900</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>272300</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>698300</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5154,54 +5314,30 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>257900</v>
+        <v>904550</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>257900</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>320000</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
-        <v>257900</v>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="P99" t="n">
-        <v>678300</v>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>904550</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5211,54 +5347,54 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>425900</v>
+        <v>257900</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>425900</v>
+        <v>257900</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="J100" t="n">
-        <v>455900</v>
+        <v>320000</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>425900</v>
+        <v>257900</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>940900</v>
+        <v>678300</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5268,30 +5404,54 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>892550</v>
+        <v>425900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>892550</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>425900</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>455900</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>425900</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>940900</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5301,54 +5461,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>278900</v>
+        <v>892550</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>278900</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>313900</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
-        <v>278900</v>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="P102" t="n">
-        <v>705300</v>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>892550</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5358,30 +5494,54 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1025150</v>
+        <v>278900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1025150</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>278900</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>313900</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>278900</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>705300</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5391,30 +5551,30 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>446300</v>
+        <v>1040150</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>446300</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1040150</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5424,46 +5584,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Largus CNG</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>764900</v>
+        <v>446300</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>764900</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
-        <v>764900</v>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="P105" t="n">
-        <v>917900</v>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>446300</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5473,30 +5617,46 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus CNG</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>611900</v>
+        <v>764900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>611900</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>764900</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>764900</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>917900</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5506,46 +5666,30 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus Cross CNG</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>829900</v>
+        <v>611900</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>829900</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>829900</v>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>982900</v>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>611900</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5555,46 +5699,46 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Cross CNG</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>384300</v>
+        <v>829900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>384300</v>
+        <v>829900</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>384300</v>
+        <v>829900</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>1443900</v>
+        <v>982900</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5604,54 +5748,46 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1363000</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1300900</v>
+        <v>1443900</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5661,30 +5797,54 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>468900</v>
+        <v>348900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>468900</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>348900</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1363000</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>348900</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>1300900</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5694,46 +5854,30 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Фургон CNG</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>525900</v>
+        <v>468900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>525900</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>525900</v>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="P111" t="n">
-        <v>938900</v>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>468900</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5743,54 +5887,46 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Largus Фургон CNG</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>329000</v>
+        <v>525900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>329000</v>
+        <v>525900</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1316500</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>329000</v>
+        <v>525900</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1301900</v>
+        <v>938900</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5800,62 +5936,54 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>515900</v>
+        <v>329000</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>515900</v>
+        <v>329000</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>515900</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1153950</v>
+        <v>1316500</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>515900</v>
+        <v>329000</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>738000</v>
+        <v>1301900</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/niva</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5865,62 +5993,62 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>350300</v>
+        <v>515900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>579900</v>
+        <v>515900</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>350300</v>
+        <v>515900</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1470000</v>
+        <v>1153950</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-krossover/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>579900</v>
+        <v>515900</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>800900</v>
+        <v>738000</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
+          <t>https://avto-zlt.ru/catalog/lada/niva</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5930,54 +6058,62 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>371300</v>
+        <v>579900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>371300</v>
+        <v>350300</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-krossover/</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>398900</v>
+        <v>579900</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>918900</v>
+        <v>800900</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5987,54 +6123,54 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>569900</v>
+        <v>371300</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>569900</v>
+        <v>371300</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>569900</v>
+        <v>371300</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>569900</v>
+        <v>398900</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>921900</v>
+        <v>918900</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6044,54 +6180,54 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>360200</v>
+        <v>569900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>360200</v>
+        <v>569900</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
+          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>440200</v>
+        <v>569900</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>360200</v>
+        <v>569900</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>998900</v>
+        <v>921900</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/travel</t>
+          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6101,54 +6237,54 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>444500</v>
+        <v>360200</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>444500</v>
+        <v>360200</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>565900</v>
+        <v>440200</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>444500</v>
+        <v>360200</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1269900</v>
+        <v>998900</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6158,54 +6294,54 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>390000</v>
+        <v>444500</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>390000</v>
+        <v>444500</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>514900</v>
+        <v>565900</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>390000</v>
+        <v>444500</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1213900</v>
+        <v>1269900</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6215,54 +6351,54 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>590900</v>
+        <v>514900</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1328900</v>
+        <v>1213900</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6272,54 +6408,54 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>380900</v>
+        <v>433000</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>380900</v>
+        <v>433000</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>445900</v>
+        <v>590900</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>380900</v>
+        <v>433000</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1121900</v>
+        <v>1328900</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6329,54 +6465,54 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>556900</v>
+        <v>445900</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1316900</v>
+        <v>1121900</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6386,54 +6522,54 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>579900</v>
+        <v>465900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>579900</v>
+        <v>465900</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>740900</v>
+        <v>556900</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>579900</v>
+        <v>465900</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1597900</v>
+        <v>1316900</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6443,54 +6579,54 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>385900</v>
+        <v>579900</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>385900</v>
+        <v>579900</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>428900</v>
+        <v>740900</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>385900</v>
+        <v>579900</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1106900</v>
+        <v>1597900</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6500,103 +6636,111 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>384300</v>
+        <v>385900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>384300</v>
+        <v>385900</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>561900</v>
+        <v>428900</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>384300</v>
+        <v>385900</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1249900</v>
+        <v>1106900</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>649900</v>
+        <v>384300</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>649900</v>
+        <v>384300</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>561900</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>844900</v>
+        <v>384300</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1019900</v>
+        <v>1249900</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6606,46 +6750,54 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>400900</v>
+        <v>649900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>400900</v>
+        <v>649900</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>649900</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>534900</v>
+        <v>844900</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>709900</v>
+        <v>1019900</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
+          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6655,46 +6807,54 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>419900</v>
+        <v>400900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>419900</v>
+        <v>400900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>400900</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>464900</v>
+        <v>534900</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>689900</v>
+        <v>709900</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
+          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6704,46 +6864,54 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>490900</v>
+        <v>419900</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>490900</v>
+        <v>419900</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>419900</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>594900</v>
+        <v>464900</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x60</t>
+          <t>https://avto-mg.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>769900</v>
+        <v>689900</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6753,790 +6921,846 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>614000</v>
+        <v>490900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="H130" t="n">
+        <v>490900</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>490900</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>594900</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lifan/x60</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
         <v>769900</v>
       </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
-        <v>614000</v>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="P130" t="n">
-        <v>989000</v>
-      </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1579900</v>
+        <v>614000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>1579900</v>
+        <v>769900</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>769900</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>1579900</v>
+        <v>614000</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>989000</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1366000</v>
+        <v>1749900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1366000</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>1749900</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2439000</v>
+        <v>1579900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>2439000</v>
+        <v>1579900</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+        </is>
+      </c>
+      <c r="J133" t="n">
+        <v>1579900</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>2439000</v>
+        <v>1579900</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1750000</v>
+        <v>1729900</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+        </is>
+      </c>
+      <c r="J134" t="n">
+        <v>1729900</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>897000</v>
+        <v>1366000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>897000</v>
+        <v>1419000</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
+        </is>
+      </c>
+      <c r="J135" t="n">
+        <v>1444000</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1366000</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>897000</v>
+        <v>1419000</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="P135" t="n">
-        <v>2337000</v>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>638000</v>
+        <v>2439000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>638000</v>
+        <v>2439000</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>638000</v>
+        <v>2439000</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="P136" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1134000</v>
+        <v>1750000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="P137" t="n">
-        <v>2762000</v>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1268900</v>
+        <v>897000</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>1268900</v>
+        <v>897000</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1779900</v>
+        <v>1050000</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>2363900</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>1268900</v>
+        <v>897000</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1613000</v>
+        <v>638000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>1613000</v>
+        <v>638000</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>1659900</v>
+        <v>830000</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>1613000</v>
+        <v>638000</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>2119900</v>
+        <v>1134000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>2119900</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1134000</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
+        </is>
+      </c>
+      <c r="J140" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1134000</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>2762000</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>356000</v>
+        <v>1268900</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>470000</v>
+        <v>1268900</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J141" t="n">
+        <v>1779900</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>2363900</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>356000</v>
+        <v>1268900</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="P141" t="n">
-        <v>825000</v>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>346000</v>
+        <v>1613000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>506000</v>
+        <v>1613000</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
+        </is>
+      </c>
+      <c r="J142" t="n">
+        <v>1659900</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>346000</v>
+        <v>1613000</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
-      <c r="P142" t="n">
-        <v>883000</v>
-      </c>
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>366000</v>
+        <v>2119900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>559900</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
-        <v>366000</v>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="P143" t="n">
-        <v>851000</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2119900</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>858000</v>
+        <v>356000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>858000</v>
+        <v>470000</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>925000</v>
+        <v>470000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>858000</v>
+        <v>356000</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1874000</v>
+        <v>825000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>650000</v>
+        <v>346000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>506000</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>650000</v>
+        <v>506000</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>346000</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>883000</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>475000</v>
+        <v>366000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>475000</v>
+        <v>559900</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>559900</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>475000</v>
+        <v>366000</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1618000</v>
+        <v>851000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7546,54 +7770,54 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>713000</v>
+        <v>858000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>713000</v>
+        <v>858000</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>865000</v>
+        <v>925000</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>713000</v>
+        <v>858000</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1724000</v>
+        <v>1874000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7603,54 +7827,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>395000</v>
+        <v>650000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>395000</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>495000</v>
+        <v>650000</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
-        <v>395000</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
-        </is>
-      </c>
-      <c r="P148" t="n">
-        <v>1124000</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7660,54 +7860,46 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>503990</v>
+        <v>475000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>503990</v>
+        <v>475000</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>605000</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>503990</v>
+        <v>475000</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1301000</v>
+        <v>1618000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7717,54 +7909,54 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>677990</v>
+        <v>713000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>677990</v>
+        <v>713000</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>705000</v>
+        <v>865000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>677990</v>
+        <v>713000</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>958000</v>
+        <v>1724000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7774,7 +7966,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -7782,7 +7974,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -7790,15 +7982,15 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>505000</v>
+        <v>495000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N151" t="n">
@@ -7806,22 +7998,22 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1258000</v>
+        <v>1124000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7831,54 +8023,54 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>399000</v>
+        <v>503990</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>399000</v>
+        <v>503990</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>650000</v>
+        <v>605000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>399000</v>
+        <v>503990</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1373000</v>
+        <v>1301000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7888,201 +8080,225 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>656993</v>
+        <v>677990</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>730000</v>
+        <v>677990</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>730000</v>
+        <v>705000</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>656993</v>
+        <v>677990</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1001000</v>
+        <v>958000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>954000</v>
+        <v>395000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>954000</v>
+        <v>395000</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+        </is>
+      </c>
+      <c r="J154" t="n">
+        <v>505000</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>954000</v>
+        <v>395000</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1955000</v>
+        <v>1258000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1354000</v>
+        <v>399000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1354000</v>
+        <v>399000</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+        </is>
+      </c>
+      <c r="J155" t="n">
+        <v>650000</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>1354000</v>
+        <v>399000</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1962000</v>
+        <v>1373000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2718000</v>
+        <v>656993</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>2718000</v>
+        <v>730000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>730000</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2718000</v>
+        <v>656993</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3498000</v>
+        <v>1001000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8092,46 +8308,54 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2750000</v>
+        <v>954000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>2750000</v>
+        <v>954000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="J157" t="n">
+        <v>1193000</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2750000</v>
+        <v>954000</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3776000</v>
+        <v>1955000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8141,46 +8365,54 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1705000</v>
+        <v>1354000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1705000</v>
+        <v>1354000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>1705000</v>
+        <v>1354000</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1985000</v>
+        <v>1962000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8190,46 +8422,46 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>543800</v>
+        <v>2718000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>1129000</v>
+        <v>2718000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>543800</v>
+        <v>2718000</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>1359500</v>
+        <v>3498000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8239,46 +8471,46 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>844800</v>
+        <v>2750000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>844800</v>
+        <v>2750000</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>844800</v>
+        <v>2750000</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>1657000</v>
+        <v>3776000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8288,46 +8520,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>425000</v>
+        <v>1179000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>425000</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
-        <v>425000</v>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="P161" t="n">
-        <v>1051000</v>
-      </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1179000</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8337,46 +8553,46 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1752000</v>
+        <v>1705000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1752000</v>
+        <v>1705000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>1752000</v>
+        <v>1705000</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2681000</v>
+        <v>1985000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8386,505 +8602,577 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1211000</v>
+        <v>543800</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1211000</v>
+        <v>1129000</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>1211000</v>
+        <v>543800</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2388000</v>
+        <v>1359500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1379000</v>
+        <v>844800</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>1469000</v>
+        <v>844800</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>1379000</v>
+        <v>844800</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2669000</v>
+        <v>1657000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1069000</v>
+        <v>589000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>1119000</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
-        <v>1069000</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="P165" t="n">
-        <v>2319000</v>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>589000</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>969000</v>
+        <v>425000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>1219000</v>
+        <v>425000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>969000</v>
+        <v>425000</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>2419000</v>
+        <v>1051000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>2848000</v>
+        <v>1713000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>2848000</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
-        <v>2848000</v>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+        </is>
+      </c>
+      <c r="J167" t="n">
+        <v>1713000</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>3898000</v>
+        <v>1752000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>3898000</v>
+        <v>1752000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>2001000</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3898000</v>
+        <v>1752000</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>2681000</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1280000</v>
+        <v>1211000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1280000</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1211000</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1211000</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>2388000</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1235000</v>
+        <v>1379000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1235000</v>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="J170" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>2669000</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1250000</v>
+        <v>1069000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="J171" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>538000</v>
+        <v>969000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>538000</v>
+        <v>1219000</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
+        </is>
+      </c>
+      <c r="J172" t="n">
+        <v>1219000</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>538000</v>
+        <v>969000</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>1545000</v>
+        <v>2419000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>429380</v>
+        <v>2848000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>429380</v>
+        <v>2848000</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>2869300</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>429380</v>
+        <v>2848000</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>1745000</v>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1547000</v>
+        <v>3898000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1547000</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3898000</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3898000</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8894,46 +9182,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>3909 Бортовой грузовик</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>621000</v>
+        <v>1280000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="H175" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="N175" t="n">
-        <v>621000</v>
-      </c>
-      <c r="O175" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="P175" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8943,30 +9215,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1800000</v>
+        <v>1235000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1800000</v>
+        <v>1235000</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8976,317 +9248,620 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1655000</v>
+        <v>1250000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1655000</v>
+        <v>1250000</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4790000</v>
+        <v>538000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>4790000</v>
+        <v>538000</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="J178" t="n">
+        <v>555000</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>4790000</v>
+        <v>538000</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1013000</v>
+        <v>429380</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>1013000</v>
+        <v>429380</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>1322000</v>
+        <v>619000</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>1013000</v>
+        <v>429380</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1627000</v>
+        <v>1745000</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>687900</v>
+        <v>1547000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="J180" t="n">
-        <v>687900</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>519300</v>
+        <v>621000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>519300</v>
+        <v>621000</v>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>638000</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
       <c r="N181" t="n">
-        <v>519300</v>
+        <v>621000</v>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1620900</v>
+        <v>1770000</v>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1227900</v>
+        <v>1800000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="H182" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J182" t="n">
-        <v>1544900</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="N182" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="O182" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="P182" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>UAZ</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Профи</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1655000</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>665</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>VOYAH</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Jetta</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J185" t="n">
+        <v>1322000</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Polo</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>687900</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>687900</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Polo New</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>519300</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>519300</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>519300</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>1620900</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>1544900</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
           <t>657</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Volkswagen</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Tiguan</t>
         </is>
       </c>
-      <c r="D183" t="n">
+      <c r="D189" t="n">
         <v>1288900</v>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
-      <c r="H183" t="n">
+      <c r="H189" t="n">
         <v>1288900</v>
       </c>
-      <c r="I183" t="inlineStr">
+      <c r="I189" t="inlineStr">
         <is>
           <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
-      <c r="J183" t="n">
+      <c r="J189" t="n">
         <v>1329900</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="K189" t="inlineStr">
         <is>
           <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
-      <c r="N183" t="n">
+      <c r="N189" t="n">
         <v>1288900</v>
       </c>
-      <c r="O183" t="inlineStr">
+      <c r="O189" t="inlineStr">
         <is>
           <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
-      <c r="P183" t="n">
+      <c r="P189" t="n">
         <v>3375900</v>
       </c>
-      <c r="Q183" t="inlineStr">
+      <c r="Q189" t="inlineStr">
         <is>
           <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>XCite</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>X-Cross 7</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>2199000</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>
       </c>
     </row>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q190"/>
+  <dimension ref="A1:Q189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2053000</v>
+        <v>2233000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1615,30 +1615,30 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tiggo 7 Pro Plug-In-Hybrid</t>
+          <t>Tiggo 7 Pro Max New</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2840000</v>
+        <v>2253000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/chery-tiggo-7-pro-plug-in-hybrid-vnedorozhnik-5-dv/</t>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-7-pro-max-i-restayling-krossover/</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2840000</v>
+        <v>2253000</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/chery-tiggo-7-pro-plug-in-hybrid-vnedorozhnik-5-dv/</t>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-7-pro-max-i-restayling-krossover/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>679</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1648,54 +1648,30 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tiggo 8</t>
+          <t>Tiggo 7 Pro Plug-In-Hybrid</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1219900</v>
+        <v>2840000</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>1219900</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>1219900</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>1234900</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>2879900</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/chery/tiggo_8</t>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-7-pro-plug-in-hybrid-vnedorozhnik-5-dv/</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2840000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-7-pro-plug-in-hybrid-vnedorozhnik-5-dv/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>158</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1705,54 +1681,54 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro</t>
+          <t>Tiggo 8</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1528900</v>
+        <v>1219900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://che-motors-2024.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1528900</v>
+        <v>1219900</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1729900</v>
+        <v>1219900</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://che-motors-2024.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1528900</v>
+        <v>1234900</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://avto-mg.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3469900</v>
+        <v>2879900</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://avto-zlt.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1762,87 +1738,87 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tiggo 8 Pro Max</t>
+          <t>Tiggo 8 Pro</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3225600</v>
+        <v>1528900</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/chery-tiggo-8-pro-max-krossover/</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>3225600</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/chery-tiggo-8-pro-max-krossover/</t>
+          <t>https://avto-mg.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1528900</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>1729900</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1528900</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/chery/tiggo_8_pro</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3469900</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/chery/tiggo_8_pro</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chevrolet</t>
+          <t>Chery</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cobalt</t>
+          <t>Tiggo 8 Pro Max</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>542900</v>
+        <v>3225600</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>542900</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>559900</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/chevrolet/cobalt_20</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>542900</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>953900</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/chevrolet/cobalt</t>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-8-pro-max-krossover/</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>3225600</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/chery-tiggo-8-pro-max-krossover/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1852,54 +1828,54 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Nexia</t>
+          <t>Cobalt</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>492900</v>
+        <v>542900</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chevrolet/nexia</t>
+          <t>https://avto-mg.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>492900</v>
+        <v>542900</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chevrolet/nexia</t>
+          <t>https://smolino-motors74.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>509900</v>
+        <v>559900</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/chevrolet/nexia</t>
+          <t>https://che-motors-2024.ru/catalog/chevrolet/cobalt_20</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>492900</v>
+        <v>542900</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chevrolet/nexia</t>
+          <t>https://avto-mg.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>880900</v>
+        <v>953900</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/chevrolet/nexia</t>
+          <t>https://avto-zlt.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1909,111 +1885,111 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Spark</t>
+          <t>Nexia</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>542900</v>
+        <v>492900</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chevrolet/spark</t>
+          <t>https://avto-mg.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>542900</v>
+        <v>492900</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chevrolet/spark</t>
+          <t>https://smolino-motors74.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>559900</v>
+        <v>509900</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/chevrolet/spark20</t>
+          <t>https://che-motors-2024.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>542900</v>
+        <v>492900</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chevrolet/spark</t>
+          <t>https://avto-mg.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>950900</v>
+        <v>880900</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/chevrolet/spark</t>
+          <t>https://avto-zlt.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Datsun</t>
+          <t>Chevrolet</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MI-DO</t>
+          <t>Spark</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>319900</v>
+        <v>542900</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/datsun/mi_DO</t>
+          <t>https://avto-mg.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>319900</v>
+        <v>542900</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/datsun/mi_do</t>
+          <t>https://smolino-motors74.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>319900</v>
+        <v>559900</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/datsun/mi_DO</t>
+          <t>https://che-motors-2024.ru/catalog/chevrolet/spark20</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>344000</v>
+        <v>542900</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/datsun/mi_do</t>
+          <t>https://avto-mg.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>554000</v>
+        <v>950900</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/datsun/mi_do</t>
+          <t>https://avto-zlt.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2023,103 +1999,111 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ON-DO</t>
+          <t>MI-DO</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>244000</v>
+        <v>319900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/datsun/on_do</t>
+          <t>https://che-motors-2024.ru/catalog/datsun/mi_DO</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>294000</v>
+        <v>319900</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/datsun/on_do</t>
+          <t>https://smolino-motors74.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>294000</v>
+        <v>319900</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/datsun/on_do_2019</t>
+          <t>https://che-motors-2024.ru/catalog/datsun/mi_DO</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>244000</v>
+        <v>344000</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/datsun/on_do</t>
+          <t>https://avto-mg.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>531000</v>
+        <v>554000</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/datsun/on_do</t>
+          <t>https://avto-zlt.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>Datsun</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>ON-DO</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>759000</v>
+        <v>244000</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/dong-feng/580</t>
+          <t>https://avto-mg.ru/catalog/datsun/on_do</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>759000</v>
+        <v>294000</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/dong-feng/580</t>
+          <t>https://smolino-motors74.ru/catalog/datsun/on_do</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2079000</v>
+        <v>294000</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/dongfeng/580</t>
+          <t>https://che-motors-2024.ru/catalog/datsun/on_do_2019</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>759000</v>
+        <v>244000</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/dong-feng/580</t>
+          <t>https://avto-mg.ru/catalog/datsun/on_do</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>531000</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/datsun/on_do</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2129,79 +2113,79 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DFM AX7</t>
+          <t>580</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>808000</v>
+        <v>759000</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/dong-feng/dfm_ax7</t>
+          <t>https://avto-mg.ru/catalog/dong-feng/580</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>808000</v>
+        <v>759000</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/dong-feng/dfm_ax7</t>
+          <t>https://smolino-motors74.ru/catalog/dong-feng/580</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>2079000</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/dongfeng/580</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>759000</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/dong-feng/580</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>692</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>Dongfeng</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>DFM AX7</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2299900</v>
+        <v>808000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/lx</t>
+          <t>https://smolino-motors74.ru/catalog/dong-feng/dfm_ax7</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2299900</v>
+        <v>808000</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/exeed/lx</t>
+          <t>https://smolino-motors74.ru/catalog/dong-feng/dfm_ax7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2211,54 +2195,46 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1999900</v>
+        <v>2299900</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chery/txl</t>
+          <t>https://avto-mg.ru/catalog/exeed/lx</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1999900</v>
+        <v>2299900</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chery/txl</t>
+          <t>https://smolino-motors74.ru/catalog/exeed/lx</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>3269900</v>
+        <v>2299900</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
+          <t>https://che-motors-2024.ru/catalog/exeed/lx</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1999900</v>
+        <v>2299900</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chery/txl</t>
-        </is>
-      </c>
-      <c r="P36" t="n">
-        <v>2249900</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/chery/txl</t>
+          <t>https://avto-mg.ru/catalog/exeed/lx</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2268,103 +2244,103 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4109900</v>
+        <v>1999900</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/vx</t>
+          <t>https://avto-mg.ru/catalog/chery/txl</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4109900</v>
+        <v>1999900</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/exeed/vx</t>
+          <t>https://smolino-motors74.ru/catalog/chery/txl</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>4109900</v>
+        <v>3269900</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/vx</t>
+          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>4109900</v>
+        <v>1999900</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/vx</t>
+          <t>https://avto-mg.ru/catalog/chery/txl</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>2249900</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/chery/txl</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1618600</v>
+        <v>4109900</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
+          <t>https://avto-mg.ru/catalog/exeed/vx</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1618600</v>
+        <v>4109900</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/faw/bestune_b70</t>
+          <t>https://smolino-motors74.ru/catalog/exeed/vx</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1629600</v>
+        <v>4109900</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/bestune_b70</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>2401000</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-b70-liftbek/</t>
+          <t>https://che-motors-2024.ru/catalog/exeed/vx</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1618600</v>
+        <v>4109900</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
+          <t>https://avto-mg.ru/catalog/exeed/vx</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2374,54 +2350,46 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1591300</v>
+        <v>1618600</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1591300</v>
+        <v>1618600</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/faw/bestune_t55</t>
+          <t>https://smolino-motors74.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1602300</v>
+        <v>1629600</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/bestune_t55</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1981000</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t55-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1591300</v>
+        <v>1618600</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2431,38 +2399,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1616000</v>
+        <v>1591300</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1591300</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>1819000</v>
+        <v>1602300</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1616000</v>
+        <v>2064000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
+          <t>https://saturn2.ru/available-cars/faw-bestune-t55-krossover/</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1591300</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2472,38 +2456,38 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Besturn T77</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1552000</v>
+        <v>1616000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1552000</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/faw/besturn_t77</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>1552000</v>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
+          <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>1819000</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1616000</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2513,54 +2497,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Besturn X40</t>
+          <t>Besturn T77</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>619300</v>
+        <v>1552000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>619300</v>
+        <v>1552000</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/faw/besturn_x40</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>763900</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/faw/besturn_x40</t>
+          <t>https://smolino-motors74.ru/catalog/faw/besturn_t77</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>619300</v>
+        <v>1552000</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>1602000</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/faw/besturn_x40</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2570,103 +2538,111 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Besturn X80</t>
+          <t>Besturn X40</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>761000</v>
+        <v>619300</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>761000</v>
+        <v>619300</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/faw/besturn_x80_new</t>
+          <t>https://smolino-motors74.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>839000</v>
+        <v>763900</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/besturn_x80_2018</t>
+          <t>https://che-motors-2024.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>761000</v>
+        <v>619300</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>1508000</v>
+        <v>1602000</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/faw/besturn_x80_new</t>
+          <t>https://avto-zlt.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>Besturn X80</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3059000</v>
+        <v>761000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3399000</v>
+        <v>761000</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/gac/gn8</t>
+          <t>https://smolino-motors74.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3059000</v>
+        <v>839000</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
+          <t>https://che-motors-2024.ru/catalog/faw/besturn_x80_2018</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3399000</v>
+        <v>761000</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gn8</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>1508000</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2676,46 +2652,46 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1349000</v>
+        <v>3059000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2099000</v>
+        <v>3399000</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/gac/gs5</t>
+          <t>https://smolino-motors74.ru/catalog/gac/gn8</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1349000</v>
+        <v>3059000</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>2099000</v>
+        <v>3399000</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs5</t>
+          <t>https://avto-mg.ru/catalog/gac/gn8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2725,103 +2701,95 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2389000</v>
+        <v>1349000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2789000</v>
+        <v>2099000</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/gac/gs8</t>
+          <t>https://smolino-motors74.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>2389000</v>
+        <v>1349000</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2789000</v>
+        <v>2099000</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs8</t>
+          <t>https://avto-mg.ru/catalog/gac/gs5</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>869900</v>
+        <v>2389000</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>869900</v>
+        <v>2789000</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas</t>
+          <t>https://smolino-motors74.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1064990</v>
+        <v>2389000</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/atlas</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>869900</v>
+        <v>2789000</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas</t>
-        </is>
-      </c>
-      <c r="P47" t="n">
-        <v>2228990</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/geely/atlas</t>
+          <t>https://avto-mg.ru/catalog/gac/gs8</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2831,38 +2799,54 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2236493</v>
+        <v>869900</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas_new</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2236493</v>
+        <v>869900</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas_new</t>
+          <t>https://smolino-motors74.ru/catalog/geely/atlas</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1064990</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/geely/atlas</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>2536493</v>
+        <v>869900</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas_new</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>2228990</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2872,54 +2856,38 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1087596</v>
+        <v>2236493</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
+          <t>https://smolino-motors74.ru/catalog/geely/atlas_new</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1087596</v>
+        <v>2236493</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>1964990</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/geely/atlas_pro</t>
+          <t>https://smolino-motors74.ru/catalog/geely/atlas_new</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1087596</v>
+        <v>2536493</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="P49" t="n">
-        <v>2758990</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/geely/atlas_pro</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_new</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2929,54 +2897,54 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>647990</v>
+        <v>1087596</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>647990</v>
+        <v>1087596</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/coolray</t>
+          <t>https://smolino-motors74.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>969990</v>
+        <v>1964990</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/coolray</t>
+          <t>https://che-motors-2024.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>647990</v>
+        <v>1087596</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2299990</v>
+        <v>2758990</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/geely/coolray</t>
+          <t>https://avto-zlt.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2986,38 +2954,54 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1826993</v>
+        <v>647990</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1826993</v>
+        <v>647990</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/coolray_new</t>
+          <t>https://smolino-motors74.ru/catalog/geely/coolray</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>969990</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1826993</v>
+        <v>647990</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>2299990</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3027,54 +3011,38 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>864990</v>
+        <v>1826993</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>869990</v>
+        <v>1826993</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/emgrand_x7</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>869990</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://smolino-motors74.ru/catalog/geely/coolray_new</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>864990</v>
+        <v>1826993</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
-        </is>
-      </c>
-      <c r="P52" t="n">
-        <v>1434990</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3084,15 +3052,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>869990</v>
+        <v>864990</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/gs</t>
+          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3100,7 +3068,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/gs</t>
+          <t>https://smolino-motors74.ru/catalog/geely/emgrand_x7</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -3108,30 +3076,30 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/gs</t>
+          <t>https://che-motors-2024.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>994990</v>
+        <v>864990</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/gs</t>
+          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>1319990</v>
+        <v>1434990</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/geely/gs</t>
+          <t>https://avto-zlt.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3141,79 +3109,103 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2694900</v>
+        <v>869990</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
+          <t>https://che-motors-2024.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>2694900</v>
+        <v>869990</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/monjaro</t>
+          <t>https://smolino-motors74.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>3999990</v>
+        <v>869990</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/monjaro</t>
+          <t>https://che-motors-2024.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2694900</v>
+        <v>994990</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
+          <t>https://avto-mg.ru/catalog/geely/gs</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>1319990</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GWM Wingle 7</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1099000</v>
+        <v>2694900</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/great-wall/wingle7</t>
+          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1099000</v>
+        <v>2694900</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/great-wall/wingle7</t>
+          <t>https://smolino-motors74.ru/catalog/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>3999990</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/geely/monjaro</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>2694900</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>691</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3223,38 +3215,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>GWM Wingle 7</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2749000</v>
+        <v>1099000</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
+          <t>https://smolino-motors74.ru/catalog/great-wall/wingle7</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>2749000</v>
+        <v>1099000</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/great-wall/poer</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>2749000</v>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
+          <t>https://smolino-motors74.ru/catalog/great-wall/wingle7</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3264,87 +3248,79 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Wingle 7</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1099000</v>
+        <v>2749000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>1099000</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
+          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2749000</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/great-wall/poer</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>2099000</v>
+        <v>2749000</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
+          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>Wingle 7</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1679000</v>
+        <v>1099000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/dargo</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1679000</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/dargo</t>
+          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1799000</v>
+        <v>1099000</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/dargo</t>
+          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1679000</v>
+        <v>2099000</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/dargo</t>
+          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3354,54 +3330,46 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1149000</v>
+        <v>1679000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/f7</t>
+          <t>https://avto-mg.ru/catalog/haval/dargo</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1149000</v>
+        <v>1679000</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/f7</t>
+          <t>https://smolino-motors74.ru/catalog/haval/dargo</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>1149000</v>
+        <v>1799000</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/f7</t>
+          <t>https://che-motors-2024.ru/catalog/haval/dargo</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1179000</v>
+        <v>1679000</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7</t>
-        </is>
-      </c>
-      <c r="P59" t="n">
-        <v>2639000</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/haval/f7</t>
+          <t>https://avto-mg.ru/catalog/haval/dargo</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3411,38 +3379,54 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1714300</v>
+        <v>1149000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
+          <t>https://che-motors-2024.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1714300</v>
+        <v>1149000</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/F7_new</t>
+          <t>https://smolino-motors74.ru/catalog/haval/f7</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1149000</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>1714300</v>
+        <v>1179000</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
+          <t>https://avto-mg.ru/catalog/haval/f7</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>2639000</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3452,54 +3436,38 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1199000</v>
+        <v>1714300</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/f7x</t>
+          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1199000</v>
+        <v>1714300</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/haval/f7x</t>
+          <t>https://smolino-motors74.ru/catalog/haval/F7_new</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1279000</v>
+        <v>1714300</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>2689000</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/haval/f7x</t>
+          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3509,38 +3477,54 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1749300</v>
+        <v>1199000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
+          <t>https://che-motors-2024.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1749300</v>
+        <v>1199000</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/F7x_new</t>
+          <t>https://smolino-motors74.ru/catalog/haval/f7x</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1199000</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1749300</v>
+        <v>1279000</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2689000</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3550,46 +3534,38 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>869000</v>
+        <v>1749300</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h2</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>869000</v>
+        <v>1749300</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h2</t>
+          <t>https://smolino-motors74.ru/catalog/haval/F7x_new</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>973400</v>
+        <v>1749300</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h2</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
-        <v>1128000</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/haval/h2</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3599,38 +3575,46 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1819300</v>
+        <v>869000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h3</t>
+          <t>https://smolino-motors74.ru/catalog/haval/h2</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1819300</v>
+        <v>869000</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h3</t>
+          <t>https://smolino-motors74.ru/catalog/haval/h2</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1819300</v>
+        <v>973400</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h3</t>
+          <t>https://avto-mg.ru/catalog/haval/h2</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>1128000</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3640,54 +3624,38 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>958000</v>
+        <v>1819300</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h5</t>
+          <t>https://avto-mg.ru/catalog/haval/h3</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>958000</v>
+        <v>1819300</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h5</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>1049000</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h5_2020</t>
+          <t>https://smolino-motors74.ru/catalog/haval/h3</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>958000</v>
+        <v>1819300</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h5</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>1429000</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/haval/h5</t>
+          <t>https://avto-mg.ru/catalog/haval/h3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3697,54 +3665,54 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>919000</v>
+        <v>958000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h6</t>
+          <t>https://avto-mg.ru/catalog/haval/h5</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>919000</v>
+        <v>958000</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h6</t>
+          <t>https://smolino-motors74.ru/catalog/haval/h5</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>919000</v>
+        <v>1049000</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h6</t>
+          <t>https://che-motors-2024.ru/catalog/haval/h5_2020</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1078000</v>
+        <v>958000</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h6</t>
+          <t>https://avto-mg.ru/catalog/haval/h5</t>
         </is>
       </c>
       <c r="P66" t="n">
-        <v>1148000</v>
+        <v>1429000</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/h6</t>
+          <t>https://avto-zlt.ru/catalog/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3754,54 +3722,54 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1909300</v>
+        <v>919000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
+          <t>https://che-motors-2024.ru/catalog/haval/h6</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1909300</v>
+        <v>919000</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h9</t>
+          <t>https://smolino-motors74.ru/catalog/haval/h6</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2195000</v>
+        <v>919000</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h9_2018</t>
+          <t>https://che-motors-2024.ru/catalog/haval/h6</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1909300</v>
+        <v>1078000</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
+          <t>https://avto-mg.ru/catalog/haval/h6</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>4099000</v>
+        <v>1148000</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/h9_2018</t>
+          <t>https://avto-zlt.ru/catalog/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3811,54 +3779,54 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>818000</v>
+        <v>1909300</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion</t>
+          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>818000</v>
+        <v>1909300</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/jolion</t>
+          <t>https://smolino-motors74.ru/catalog/haval/h9</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>989000</v>
+        <v>2195000</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/jolion</t>
+          <t>https://che-motors-2024.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>818000</v>
+        <v>1909300</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion</t>
+          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>1799000</v>
+        <v>4099000</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/jolion</t>
+          <t>https://avto-zlt.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3868,38 +3836,54 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1399300</v>
+        <v>818000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1399300</v>
+        <v>818000</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/jolion_new</t>
+          <t>https://smolino-motors74.ru/catalog/haval/jolion</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>989000</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/haval/jolion</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1399300</v>
+        <v>818000</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3909,71 +3893,79 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>M6 New</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1704000</v>
+        <v>1399300</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1704000</v>
+        <v>1399300</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/m6_II</t>
+          <t>https://smolino-motors74.ru/catalog/haval/jolion_new</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1704000</v>
+        <v>1399300</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>M6 New</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>844900</v>
+        <v>1704000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>844900</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
+          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1704000</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/haval/m6_II</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>1704000</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3983,46 +3975,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>676000</v>
+        <v>844900</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>676000</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/creta_new</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>676000</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
-        </is>
-      </c>
-      <c r="P72" t="n">
-        <v>694000</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/creta_new</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>844900</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4032,54 +4008,46 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>868000</v>
+        <v>676000</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
+          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>868000</v>
+        <v>676000</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/elantra_new</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>999900</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/elantra_20</t>
+          <t>https://smolino-motors74.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>868000</v>
+        <v>676000</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
+          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>884000</v>
+        <v>694000</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/elantra_new</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4089,54 +4057,54 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1869000</v>
+        <v>868000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
+          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1869000</v>
+        <v>868000</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/santa_fe</t>
+          <t>https://smolino-motors74.ru/catalog/hyundai/elantra_new</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1869000</v>
+        <v>999900</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/santa_fe_2021</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/elantra_20</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>1869000</v>
+        <v>868000</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/santa_fe</t>
+          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>1869000</v>
+        <v>884000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/elantra_new</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4146,30 +4114,54 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>605000</v>
+        <v>1869000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1869000</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/hyundai/santa_fe</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>605000</v>
+        <v>1869000</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/santa_fe_2021</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>1869000</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/hyundai/santa_fe</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>1869000</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4179,46 +4171,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Solaris New</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>465000</v>
+        <v>605000</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>465000</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/solaris_2020</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>465000</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>481000</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>605000</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4228,54 +4204,46 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>Solaris New</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1285000</v>
+        <v>465000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/sonata_2019</t>
+          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1937300</v>
+        <v>465000</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/sonata_new</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>1285000</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/sonata_2019</t>
+          <t>https://smolino-motors74.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1937300</v>
+        <v>465000</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/sonata_new</t>
+          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2099000</v>
+        <v>481000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/sonata_new</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4285,119 +4253,111 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1478000</v>
+        <v>1285000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/sonata_2019</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1478000</v>
+        <v>1937300</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/tucson_new</t>
+          <t>https://smolino-motors74.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1499000</v>
+        <v>1285000</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/tucson_21</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/sonata_2019</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1478000</v>
+        <v>1937300</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
+          <t>https://avto-mg.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>1499000</v>
+        <v>2099000</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/tucson_new</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>718000</v>
+        <v>1478000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/j7</t>
+          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>718000</v>
+        <v>1478000</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/j7</t>
+          <t>https://smolino-motors74.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>899000</v>
+        <v>1499000</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/j7</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1559000</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jac-j7-khetchbek/</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/tucson_21</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>718000</v>
+        <v>1478000</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/j7</t>
+          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1899000</v>
+        <v>1499000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/j7</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4407,30 +4367,62 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1599000</v>
+        <v>718000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-js3-krossover/</t>
+          <t>https://avto-mg.ru/catalog/jac/j7</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>718000</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/jac/j7</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>899000</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1599000</v>
+        <v>1559000</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-js3-krossover/</t>
+          <t>https://saturn2.ru/available-cars/jac-j7-khetchbek/</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>718000</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/jac/j7</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>1899000</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/jac/j7</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4440,54 +4432,30 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>JS3</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1819300</v>
+        <v>1599000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/js6</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/js6</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jac/js6</t>
+          <t>https://saturn2.ru/available-cars/jac-js3-krossover/</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2099000</v>
+        <v>1599000</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-js6-krossover/</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/jac/js6</t>
+          <t>https://saturn2.ru/available-cars/jac-js3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4497,54 +4465,54 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>569000</v>
+        <v>1819300</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
+          <t>https://avto-mg.ru/catalog/jac/js6</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>569000</v>
+        <v>1819300</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s3</t>
+          <t>https://smolino-motors74.ru/catalog/jac/js6</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>569000</v>
+        <v>1819300</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
+          <t>https://che-motors-2024.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/jac-js6-krossover/</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>698000</v>
+        <v>1819300</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s3</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>1399000</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/jac/s3</t>
+          <t>https://avto-mg.ru/catalog/jac/js6</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4554,54 +4522,54 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>699000</v>
+        <v>569000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>699000</v>
+        <v>569000</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s5</t>
+          <t>https://smolino-motors74.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>699000</v>
+        <v>569000</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>839000</v>
+        <v>698000</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s5</t>
+          <t>https://avto-mg.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1139000</v>
+        <v>1399000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s5</t>
+          <t>https://avto-zlt.ru/catalog/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4611,54 +4579,54 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1108000</v>
+        <v>699000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s7</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1108000</v>
+        <v>699000</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s7</t>
+          <t>https://smolino-motors74.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>1249000</v>
+        <v>699000</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s7</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1108000</v>
+        <v>839000</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s7</t>
+          <t>https://avto-mg.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1779000</v>
+        <v>1139000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s7</t>
+          <t>https://avto-zlt.ru/catalog/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4668,54 +4636,54 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1949000</v>
+        <v>1108000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
+          <t>https://avto-mg.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2270000</v>
+        <v>1108000</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/t_6</t>
+          <t>https://smolino-motors74.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>2270000</v>
+        <v>1249000</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/t_6</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2270000</v>
+        <v>1108000</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/t_6</t>
+          <t>https://avto-mg.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1949000</v>
+        <v>1779000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
+          <t>https://avto-zlt.ru/catalog/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4725,23 +4693,47 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T8 Pro</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3149000</v>
+        <v>1949000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-jac-t8-pro/</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>3149000</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jac-jac-t8-pro/</t>
+          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/jac/t_6</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jac/t_6</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>2270000</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/jac/t_6</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>1949000</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
         </is>
       </c>
     </row>
@@ -5465,7 +5457,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>892550</v>
+        <v>811550</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5473,7 +5465,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>892550</v>
+        <v>811550</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -5555,7 +5547,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1040150</v>
+        <v>1010150</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5563,7 +5555,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1040150</v>
+        <v>1010150</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -7479,14 +7471,6 @@
           <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
-      <c r="L141" t="n">
-        <v>2363900</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-krossover/</t>
-        </is>
-      </c>
       <c r="N141" t="n">
         <v>1268900</v>
       </c>
@@ -7536,14 +7520,6 @@
           <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
         </is>
       </c>
-      <c r="L142" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
-        </is>
-      </c>
       <c r="N142" t="n">
         <v>1613000</v>
       </c>
@@ -7556,40 +7532,64 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2119900</v>
+        <v>356000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>2119900</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>470000</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>470000</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>356000</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>825000</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7599,54 +7599,54 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>356000</v>
+        <v>346000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>470000</v>
+        <v>506000</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>470000</v>
+        <v>506000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>356000</v>
+        <v>346000</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>825000</v>
+        <v>883000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7656,111 +7656,111 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>346000</v>
+        <v>366000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>506000</v>
+        <v>559900</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>506000</v>
+        <v>559900</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>346000</v>
+        <v>366000</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>883000</v>
+        <v>851000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>366000</v>
+        <v>858000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>559900</v>
+        <v>858000</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>559900</v>
+        <v>925000</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>366000</v>
+        <v>858000</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>851000</v>
+        <v>1874000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7770,54 +7770,30 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>858000</v>
+        <v>650000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>858000</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>925000</v>
+        <v>650000</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
-        <v>858000</v>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
-      <c r="P147" t="n">
-        <v>1874000</v>
-      </c>
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7827,30 +7803,46 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>650000</v>
+        <v>475000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>650000</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>475000</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>475000</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>1618000</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7860,46 +7852,54 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>865000</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1618000</v>
+        <v>1724000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7909,54 +7909,54 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>865000</v>
+        <v>495000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1724000</v>
+        <v>1124000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7966,54 +7966,54 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>395000</v>
+        <v>503990</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>395000</v>
+        <v>503990</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>495000</v>
+        <v>605000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>395000</v>
+        <v>503990</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1124000</v>
+        <v>1301000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8023,54 +8023,54 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>503990</v>
+        <v>677990</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>503990</v>
+        <v>677990</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>605000</v>
+        <v>705000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>503990</v>
+        <v>677990</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1301000</v>
+        <v>958000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8080,54 +8080,54 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>677990</v>
+        <v>395000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>677990</v>
+        <v>395000</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>705000</v>
+        <v>505000</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>677990</v>
+        <v>395000</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>958000</v>
+        <v>1258000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8137,54 +8137,54 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>505000</v>
+        <v>650000</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1258000</v>
+        <v>1373000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8194,111 +8194,111 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>399000</v>
+        <v>656993</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>399000</v>
+        <v>730000</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>650000</v>
+        <v>730000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>399000</v>
+        <v>656993</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1373000</v>
+        <v>1001000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>656993</v>
+        <v>954000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>730000</v>
+        <v>954000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>730000</v>
+        <v>1193000</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>656993</v>
+        <v>954000</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1001000</v>
+        <v>1955000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8308,54 +8308,54 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>954000</v>
+        <v>1354000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>954000</v>
+        <v>1354000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1193000</v>
+        <v>1354000</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>954000</v>
+        <v>1354000</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1955000</v>
+        <v>1962000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8365,54 +8365,46 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1354000</v>
+        <v>2718000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1354000</v>
+        <v>2718000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>1354000</v>
+        <v>2718000</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1962000</v>
+        <v>3498000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8422,46 +8414,46 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2718000</v>
+        <v>2750000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>2718000</v>
+        <v>2750000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>2718000</v>
+        <v>2750000</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3498000</v>
+        <v>3776000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8471,46 +8463,30 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2750000</v>
+        <v>1179000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>2750000</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
-        <v>2750000</v>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
-        </is>
-      </c>
-      <c r="P160" t="n">
-        <v>3776000</v>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>1179000</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8520,30 +8496,46 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1179000</v>
+        <v>1705000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-      <c r="J161" t="n">
-        <v>1179000</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>1985000</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8553,46 +8545,46 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1705000</v>
+        <v>543800</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1705000</v>
+        <v>1129000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>1705000</v>
+        <v>543800</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1985000</v>
+        <v>1359500</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8602,46 +8594,46 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>543800</v>
+        <v>844800</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>1129000</v>
+        <v>844800</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>543800</v>
+        <v>844800</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1359500</v>
+        <v>1657000</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8651,46 +8643,30 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>844800</v>
+        <v>589000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>844800</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="N164" t="n">
-        <v>844800</v>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="P164" t="n">
-        <v>1657000</v>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>589000</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8700,30 +8676,46 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>589000</v>
+        <v>425000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="J165" t="n">
-        <v>589000</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>425000</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>425000</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>1051000</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8733,46 +8725,30 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>425000</v>
+        <v>1713000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>425000</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
-        <v>425000</v>
-      </c>
-      <c r="O166" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="P166" t="n">
-        <v>1051000</v>
-      </c>
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1713000</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8782,30 +8758,54 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1713000</v>
+        <v>1752000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1752000</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1713000</v>
+        <v>2001000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1752000</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>2681000</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8815,103 +8815,103 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1752000</v>
+        <v>1211000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1752000</v>
+        <v>1211000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="J168" t="n">
-        <v>2001000</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>1752000</v>
+        <v>1211000</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2681000</v>
+        <v>2388000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1211000</v>
+        <v>1379000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1211000</v>
+        <v>1469000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>1211000</v>
+        <v>1379000</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2388000</v>
+        <v>2669000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8921,54 +8921,54 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1379000</v>
+        <v>1069000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1469000</v>
+        <v>1119000</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1469000</v>
+        <v>1119000</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>1379000</v>
+        <v>1069000</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2669000</v>
+        <v>2319000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8978,111 +8978,103 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1069000</v>
+        <v>969000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1119000</v>
+        <v>1219000</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1119000</v>
+        <v>1219000</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>1069000</v>
+        <v>969000</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2319000</v>
+        <v>2419000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>969000</v>
+        <v>2848000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>1219000</v>
+        <v>2848000</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1219000</v>
+        <v>2869300</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://che-motors-2024.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>969000</v>
+        <v>2848000</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
-        </is>
-      </c>
-      <c r="P172" t="n">
-        <v>2419000</v>
-      </c>
-      <c r="Q172" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9092,87 +9084,71 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2848000</v>
+        <v>3898000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>2848000</v>
+        <v>3898000</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="J173" t="n">
-        <v>2869300</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/tank/300</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2848000</v>
+        <v>3898000</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3909 Бортовой грузовик</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3898000</v>
+        <v>1280000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="H174" t="n">
-        <v>3898000</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="N174" t="n">
-        <v>3898000</v>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1280000</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9182,30 +9158,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1280000</v>
+        <v>1235000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1280000</v>
+        <v>1235000</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9215,30 +9191,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1235000</v>
+        <v>1250000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1235000</v>
+        <v>1250000</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9248,30 +9224,54 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1250000</v>
+        <v>538000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>538000</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="J177" t="n">
+        <v>555000</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>538000</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9281,54 +9281,54 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>555000</v>
+        <v>619000</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1545000</v>
+        <v>1745000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9338,54 +9338,30 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>429380</v>
+        <v>1547000</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="H179" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I179" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="J179" t="n">
-        <v>619000</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="N179" t="n">
-        <v>429380</v>
-      </c>
-      <c r="O179" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="P179" t="n">
-        <v>1745000</v>
-      </c>
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9395,30 +9371,54 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1547000</v>
+        <v>621000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1547000</v>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>621000</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="J180" t="n">
+        <v>638000</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>621000</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9428,54 +9428,30 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>621000</v>
+        <v>1555000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="J181" t="n">
-        <v>638000</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="N181" t="n">
-        <v>621000</v>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="P181" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1555000</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9485,104 +9461,128 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Профи</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1800000</v>
+        <v>1655000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1800000</v>
+        <v>1655000</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1655000</v>
+        <v>4790000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1655000</v>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>4790000</v>
+        <v>1013000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>4790000</v>
+        <v>1013000</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J184" t="n">
+        <v>1322000</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>4790000</v>
+        <v>1013000</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9592,54 +9592,30 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1013000</v>
+        <v>687900</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
       <c r="J185" t="n">
-        <v>1322000</v>
+        <v>687900</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
-        </is>
-      </c>
-      <c r="N185" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="P185" t="n">
-        <v>1627000</v>
-      </c>
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9649,30 +9625,46 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>687900</v>
+        <v>519300</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="J186" t="n">
-        <v>687900</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>519300</v>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>519300</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>1620900</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9682,46 +9674,54 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J187" t="n">
+        <v>1544900</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="N187" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="P187" t="n">
-        <v>1620900</v>
+        <v>2828900</v>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9731,135 +9731,78 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="J188" t="n">
-        <v>1544900</v>
+        <v>1329900</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>2828900</v>
+        <v>3375900</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1288900</v>
+        <v>2199000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="J189" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="N189" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="P189" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="Q189" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>XCite</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>X-Cross 7</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
+          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
         <v>2199000</v>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>2199000</v>
-      </c>
-      <c r="M190" t="inlineStr">
+      <c r="M189" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q189"/>
+  <dimension ref="A1:Q191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2080000</v>
+        <v>2100000</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2080000</v>
+        <v>2100000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -4754,11 +4754,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2889900</v>
+        <v>2944900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j7-krossover/</t>
+          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2889900</v>
+        <v>2999900</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1316500</v>
+        <v>1320000</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -7146,11 +7146,11 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1366000</v>
+        <v>1419000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -7169,14 +7169,6 @@
           <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1366000</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
-        </is>
-      </c>
       <c r="N135" t="n">
         <v>1419000</v>
       </c>
@@ -7471,6 +7463,14 @@
           <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
+      <c r="L141" t="n">
+        <v>2363900</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-c5-i-krossover/</t>
+        </is>
+      </c>
       <c r="N141" t="n">
         <v>1268900</v>
       </c>
@@ -7520,6 +7520,14 @@
           <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
         </is>
       </c>
+      <c r="L142" t="n">
+        <v>1799000</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
+        </is>
+      </c>
       <c r="N142" t="n">
         <v>1613000</v>
       </c>
@@ -7532,64 +7540,40 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>356000</v>
+        <v>2119900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>470000</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="J143" t="n">
-        <v>470000</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
-        <v>356000</v>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="P143" t="n">
-        <v>825000</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2119900</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7599,54 +7583,54 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>346000</v>
+        <v>356000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>506000</v>
+        <v>470000</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>506000</v>
+        <v>470000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>346000</v>
+        <v>356000</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>883000</v>
+        <v>825000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7656,111 +7640,111 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>366000</v>
+        <v>346000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>559900</v>
+        <v>506000</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>559900</v>
+        <v>506000</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>366000</v>
+        <v>346000</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>851000</v>
+        <v>883000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>858000</v>
+        <v>366000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>858000</v>
+        <v>559900</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>925000</v>
+        <v>559900</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>858000</v>
+        <v>366000</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>1874000</v>
+        <v>851000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7770,30 +7754,54 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>650000</v>
+        <v>858000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>858000</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>650000</v>
+        <v>925000</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>858000</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>1874000</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7803,46 +7811,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>475000</v>
+        <v>650000</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>475000</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
-        <v>475000</v>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
-      <c r="P148" t="n">
-        <v>1618000</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>650000</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7852,54 +7844,46 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>713000</v>
+        <v>475000</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>713000</v>
+        <v>475000</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>865000</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>713000</v>
+        <v>475000</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1724000</v>
+        <v>1618000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7909,54 +7893,54 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>395000</v>
+        <v>713000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>395000</v>
+        <v>713000</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>495000</v>
+        <v>865000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>395000</v>
+        <v>713000</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1124000</v>
+        <v>1724000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7966,54 +7950,54 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>605000</v>
+        <v>495000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1301000</v>
+        <v>1124000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8023,54 +8007,54 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>677990</v>
+        <v>503990</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>677990</v>
+        <v>503990</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>705000</v>
+        <v>605000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>677990</v>
+        <v>503990</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>958000</v>
+        <v>1301000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8080,54 +8064,54 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>505000</v>
+        <v>705000</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1258000</v>
+        <v>958000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8137,54 +8121,54 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>399000</v>
+        <v>395000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>399000</v>
+        <v>395000</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>650000</v>
+        <v>505000</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>399000</v>
+        <v>395000</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1373000</v>
+        <v>1258000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8194,111 +8178,111 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>656993</v>
+        <v>399000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>730000</v>
+        <v>399000</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>730000</v>
+        <v>650000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>656993</v>
+        <v>399000</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1001000</v>
+        <v>1373000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>954000</v>
+        <v>656993</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>954000</v>
+        <v>730000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="J156" t="n">
-        <v>1193000</v>
+        <v>730000</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>954000</v>
+        <v>656993</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1955000</v>
+        <v>1001000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8308,54 +8292,54 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1354000</v>
+        <v>954000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1354000</v>
+        <v>954000</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1354000</v>
+        <v>1193000</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>1354000</v>
+        <v>954000</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>1962000</v>
+        <v>1955000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8365,46 +8349,54 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2718000</v>
+        <v>1354000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>2718000</v>
+        <v>1354000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
+        </is>
+      </c>
+      <c r="J158" t="n">
+        <v>1354000</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>2718000</v>
+        <v>1354000</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3498000</v>
+        <v>1962000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8414,46 +8406,46 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2750000</v>
+        <v>2718000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>2750000</v>
+        <v>2718000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>2750000</v>
+        <v>2718000</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3776000</v>
+        <v>3498000</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8463,30 +8455,46 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1179000</v>
+        <v>2750000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-      <c r="J160" t="n">
-        <v>1179000</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>2750000</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3776000</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8496,46 +8504,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1705000</v>
+        <v>1179000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>1705000</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
-        <v>1705000</v>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
-        </is>
-      </c>
-      <c r="P161" t="n">
-        <v>1985000</v>
-      </c>
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>1179000</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8545,46 +8537,46 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>543800</v>
+        <v>1705000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1129000</v>
+        <v>1705000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>543800</v>
+        <v>1705000</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1359500</v>
+        <v>1985000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8594,46 +8586,46 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>844800</v>
+        <v>543800</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>844800</v>
+        <v>1129000</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>844800</v>
+        <v>543800</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>1657000</v>
+        <v>1359500</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8643,30 +8635,46 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>589000</v>
+        <v>844800</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="J164" t="n">
-        <v>589000</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>844800</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>844800</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>1657000</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8676,46 +8684,30 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>425000</v>
+        <v>589000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>425000</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
-        <v>425000</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="P165" t="n">
-        <v>1051000</v>
-      </c>
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>589000</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8725,30 +8717,46 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1713000</v>
+        <v>425000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
-        </is>
-      </c>
-      <c r="J166" t="n">
-        <v>1713000</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>425000</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>425000</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>1051000</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8758,54 +8766,30 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1752000</v>
+        <v>1713000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>2001000</v>
+        <v>1713000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="P167" t="n">
-        <v>2681000</v>
-      </c>
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8815,103 +8799,103 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1211000</v>
+        <v>1752000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1211000</v>
+        <v>1752000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>2001000</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>1211000</v>
+        <v>1752000</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2388000</v>
+        <v>2681000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1379000</v>
+        <v>1211000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1469000</v>
+        <v>1211000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
-        </is>
-      </c>
-      <c r="J169" t="n">
-        <v>1469000</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>1379000</v>
+        <v>1211000</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2669000</v>
+        <v>2388000</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8921,54 +8905,54 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1069000</v>
+        <v>1379000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1119000</v>
+        <v>1469000</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="J170" t="n">
-        <v>1119000</v>
+        <v>1469000</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>1069000</v>
+        <v>1379000</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2319000</v>
+        <v>2669000</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8978,103 +8962,111 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>969000</v>
+        <v>1069000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1219000</v>
+        <v>1119000</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1219000</v>
+        <v>1119000</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>969000</v>
+        <v>1069000</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2419000</v>
+        <v>2319000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2848000</v>
+        <v>969000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>2848000</v>
+        <v>1219000</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>2869300</v>
+        <v>1219000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/tank/300</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>2848000</v>
+        <v>969000</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>2419000</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9084,71 +9076,87 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>3898000</v>
+        <v>2848000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>3898000</v>
+        <v>2848000</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="J173" t="n">
+        <v>2869300</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3898000</v>
+        <v>2848000</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1280000</v>
+        <v>3898000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1280000</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>3898000</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3898000</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9158,30 +9166,30 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Бортовой грузовик</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1235000</v>
+        <v>1280000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1235000</v>
+        <v>1280000</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9191,30 +9199,30 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1250000</v>
+        <v>1235000</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1250000</v>
+        <v>1235000</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9224,54 +9232,30 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>538000</v>
+        <v>1250000</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="H177" t="n">
-        <v>538000</v>
-      </c>
-      <c r="I177" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="J177" t="n">
-        <v>555000</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="N177" t="n">
-        <v>538000</v>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="P177" t="n">
-        <v>1545000</v>
-      </c>
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9281,54 +9265,54 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>429380</v>
+        <v>538000</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>429380</v>
+        <v>538000</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>619000</v>
+        <v>555000</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>429380</v>
+        <v>538000</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1745000</v>
+        <v>1545000</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9338,30 +9322,54 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1547000</v>
+        <v>429380</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1547000</v>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>429380</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="J179" t="n">
+        <v>619000</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>429380</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9371,54 +9379,30 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>621000</v>
+        <v>1547000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="H180" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="J180" t="n">
-        <v>638000</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="N180" t="n">
-        <v>621000</v>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="P180" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1547000</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9428,30 +9412,54 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1555000</v>
+        <v>621000</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1555000</v>
-      </c>
-      <c r="M181" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>621000</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>638000</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>621000</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9461,161 +9469,137 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Профи</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1655000</v>
+        <v>1572000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1655000</v>
+        <v>1572000</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Профи</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>4790000</v>
+        <v>1585000</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="H183" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="N183" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="O183" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1585000</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>702</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Профи Изотермический кузов</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1013000</v>
+        <v>1630000</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H184" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J184" t="n">
-        <v>1322000</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
-        </is>
-      </c>
-      <c r="N184" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="O184" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="P184" t="n">
-        <v>1627000</v>
-      </c>
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi-izotermicheskiy-kuzov/</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1630000</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi-izotermicheskiy-kuzov/</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>687900</v>
+        <v>4790000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="J185" t="n">
-        <v>687900</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>4790000</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9625,46 +9609,54 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>519300</v>
+        <v>1013000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>519300</v>
+        <v>1013000</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J186" t="n">
+        <v>1322000</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>519300</v>
+        <v>1013000</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1620900</v>
+        <v>1627000</v>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9674,54 +9666,30 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1227900</v>
+        <v>687900</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>1544900</v>
+        <v>687900</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="N187" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="P187" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9731,78 +9699,184 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1288900</v>
+        <v>519300</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>1288900</v>
+        <v>519300</v>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="J188" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>1288900</v>
+        <v>519300</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3375900</v>
+        <v>1620900</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
+          <t>653</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Taos</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="J189" t="n">
+        <v>1544900</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3375900</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>675</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>XCite</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>X-Cross 7</t>
         </is>
       </c>
-      <c r="D189" t="n">
+      <c r="D191" t="n">
         <v>2199000</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>
       </c>
-      <c r="L189" t="n">
+      <c r="L191" t="n">
         <v>2199000</v>
       </c>
-      <c r="M189" t="inlineStr">
+      <c r="M191" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q191"/>
+  <dimension ref="A1:Q192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,7 +1203,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2100000</v>
+        <v>2037700</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2100000</v>
+        <v>2037700</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1576200</v>
+        <v>1613800</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2233000</v>
+        <v>2113000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2253000</v>
+        <v>2333000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2253000</v>
+        <v>2333000</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3225600</v>
+        <v>2596000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3225600</v>
+        <v>2596000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -4754,11 +4754,11 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2944900</v>
+        <v>2649900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
+          <t>https://saturn2.ru/available-cars/jaecoo-j7-krossover/</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2999900</v>
+        <v>2649900</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3939000</v>
+        <v>3929000</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3939000</v>
+        <v>3929000</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="L141" t="n">
-        <v>2363900</v>
+        <v>2251900</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2119900</v>
+        <v>2149900</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2119900</v>
+        <v>2149900</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1547000</v>
+        <v>1530000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1547000</v>
+        <v>1530000</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1572000</v>
+        <v>1800000</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1572000</v>
+        <v>1800000</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
@@ -9558,105 +9558,81 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Профи Фургон</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>4790000</v>
+        <v>1650000</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="H185" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="I185" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="N185" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="O185" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi-furgon/</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1650000</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi-furgon/</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1013000</v>
+        <v>4790000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>1013000</v>
+        <v>4790000</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J186" t="n">
-        <v>1322000</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="N186" t="n">
-        <v>1013000</v>
+        <v>4790000</v>
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="P186" t="n">
-        <v>1627000</v>
-      </c>
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9666,30 +9642,54 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>687900</v>
+        <v>1013000</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="J187" t="n">
-        <v>687900</v>
+        <v>1322000</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9699,46 +9699,30 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>519300</v>
+        <v>687900</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="H188" t="n">
-        <v>519300</v>
-      </c>
-      <c r="I188" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="N188" t="n">
-        <v>519300</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="P188" t="n">
-        <v>1620900</v>
-      </c>
-      <c r="Q188" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="J188" t="n">
+        <v>687900</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9748,54 +9732,46 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1227900</v>
+        <v>519300</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>1227900</v>
+        <v>519300</v>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J189" t="n">
-        <v>1544900</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>1227900</v>
+        <v>519300</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>2828900</v>
+        <v>1620900</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9805,78 +9781,135 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1288900</v>
+        <v>1227900</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>1288900</v>
+        <v>1227900</v>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="J190" t="n">
-        <v>1329900</v>
+        <v>1544900</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>1288900</v>
+        <v>1227900</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3375900</v>
+        <v>2828900</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Tiguan</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="J191" t="n">
+        <v>1329900</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>3375900</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
           <t>675</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>XCite</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>X-Cross 7</t>
         </is>
       </c>
-      <c r="D191" t="n">
+      <c r="D192" t="n">
         <v>2199000</v>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>
       </c>
-      <c r="L191" t="n">
+      <c r="L192" t="n">
         <v>2199000</v>
       </c>
-      <c r="M191" t="inlineStr">
+      <c r="M192" t="inlineStr">
         <is>
           <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q192"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,14 +2426,6 @@
           <t>https://che-motors-2024.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>2064000</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t55-krossover/</t>
-        </is>
-      </c>
       <c r="N40" t="n">
         <v>1591300</v>
       </c>
@@ -2460,11 +2452,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1616000</v>
+        <v>1819000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -2475,14 +2467,6 @@
           <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1616000</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t77-krossover/</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4394,14 +4378,6 @@
           <t>https://che-motors-2024.ru/catalog/jac/j7</t>
         </is>
       </c>
-      <c r="L80" t="n">
-        <v>1559000</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jac-j7-khetchbek/</t>
-        </is>
-      </c>
       <c r="N80" t="n">
         <v>718000</v>
       </c>
@@ -4422,7 +4398,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4432,30 +4408,46 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>JS3</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1599000</v>
+        <v>1819300</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-js3-krossover/</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1599000</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jac-js3-krossover/</t>
+          <t>https://avto-mg.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1819300</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>1819300</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jac/js6</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>1819300</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/jac/js6</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4465,54 +4457,54 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1819300</v>
+        <v>569000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/js6</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1819300</v>
+        <v>569000</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/js6</t>
+          <t>https://smolino-motors74.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1819300</v>
+        <v>569000</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/js6</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jac-js6-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>1819300</v>
+        <v>698000</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/js6</t>
+          <t>https://avto-mg.ru/catalog/jac/s3</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>1399000</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4522,54 +4514,54 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>569000</v>
+        <v>699000</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>569000</v>
+        <v>699000</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s3</t>
+          <t>https://smolino-motors74.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>569000</v>
+        <v>699000</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>698000</v>
+        <v>839000</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s3</t>
+          <t>https://avto-mg.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>1399000</v>
+        <v>1139000</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s3</t>
+          <t>https://avto-zlt.ru/catalog/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4579,54 +4571,54 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>699000</v>
+        <v>1108000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
+          <t>https://avto-mg.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>699000</v>
+        <v>1108000</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s5</t>
+          <t>https://smolino-motors74.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="J84" t="n">
-        <v>699000</v>
+        <v>1249000</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>839000</v>
+        <v>1108000</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s5</t>
+          <t>https://avto-mg.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1139000</v>
+        <v>1779000</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s5</t>
+          <t>https://avto-zlt.ru/catalog/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4636,193 +4628,177 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1108000</v>
+        <v>1949000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s7</t>
+          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1108000</v>
+        <v>2270000</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s7</t>
+          <t>https://smolino-motors74.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="J85" t="n">
-        <v>1249000</v>
+        <v>2270000</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s7</t>
+          <t>https://che-motors-2024.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>1108000</v>
+        <v>2270000</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s7</t>
+          <t>https://avto-mg.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1779000</v>
+        <v>1949000</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s7</t>
+          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1949000</v>
+        <v>2944900</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
+          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>2270000</v>
+        <v>2944900</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jac/t_6</t>
+          <t>https://smolino-motors74.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>2270000</v>
+        <v>2944900</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>1949000</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
+          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2649900</v>
+        <v>1138900</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j7-krossover/</t>
+          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2944900</v>
+        <v>1138900</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jaecoo/j7</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>2649900</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j7-krossover/</t>
+          <t>https://smolino-motors74.ru/catalog/jetour/dashing</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>1493940</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jetour/dashing</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>2944900</v>
+        <v>1138900</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
+          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>3929000</v>
+        <v>1499900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j8-krossover/</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>3929000</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j8-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/jetour/x70_plus</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>1499900</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jetour/x70_plus</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4832,128 +4808,128 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1138900</v>
+        <v>1898900</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
+          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1138900</v>
+        <v>1898900</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetour/dashing</t>
+          <t>https://smolino-motors74.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="J89" t="n">
-        <v>1493940</v>
+        <v>2039940</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jetour/dashing</t>
+          <t>https://che-motors-2024.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1138900</v>
+        <v>1898900</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
+          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1499900</v>
+        <v>973000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jetour/x70_plus</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>1499900</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jetour/x70_plus</t>
+          <t>https://avto-mg.ru/catalog/jetta/va3</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>973000</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/jetta/va3</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>973000</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1898900</v>
+        <v>1423000</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1898900</v>
+        <v>1423000</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetour/x90plus</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>2039940</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jetour/x90plus</t>
+          <t>https://smolino-motors74.ru/catalog/jetta/vs5</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1898900</v>
+        <v>1423000</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4963,169 +4939,201 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>973000</v>
+        <v>1732000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/va3</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>973000</v>
+        <v>1732000</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/va3</t>
+          <t>https://smolino-motors74.ru/catalog/jetta/vs7</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>973000</v>
+        <v>1732000</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/va3</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1423000</v>
+        <v>1058000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
+          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1423000</v>
+        <v>1058000</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/vs5</t>
+          <t>https://smolino-motors74.ru/catalog/kaiyi/kaiyi_e5</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1371300</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/kaiyi/e5</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1423000</v>
+        <v>1058000</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
+          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1732000</v>
+        <v>399000</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1732000</v>
+        <v>425900</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/vs7</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_cross</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>399000</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>1732000</v>
+        <v>425900</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>742300</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1058000</v>
+        <v>268500</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1058000</v>
+        <v>268500</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1371300</v>
+        <v>310900</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/kaiyi/e5</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>1058000</v>
+        <v>268500</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>778500</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5135,54 +5143,54 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>399000</v>
+        <v>272300</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>425900</v>
+        <v>272300</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>399000</v>
+        <v>312900</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>425900</v>
+        <v>272300</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>742300</v>
+        <v>698300</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5192,54 +5200,30 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>268500</v>
+        <v>904550</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>268500</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_hatchback</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>310900</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
-        <v>268500</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>778500</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_hatchback</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>904550</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5249,54 +5233,54 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>272300</v>
+        <v>257900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>272300</v>
+        <v>257900</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_liftback</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="J98" t="n">
-        <v>312900</v>
+        <v>320000</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>272300</v>
+        <v>257900</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>698300</v>
+        <v>678300</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5306,30 +5290,54 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>904550</v>
+        <v>425900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>904550</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>425900</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>455900</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>425900</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>940900</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5339,54 +5347,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>257900</v>
+        <v>811550</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>257900</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>320000</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>257900</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>678300</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>811550</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5396,54 +5380,54 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>425900</v>
+        <v>278900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>425900</v>
+        <v>278900</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="J101" t="n">
-        <v>455900</v>
+        <v>313900</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>425900</v>
+        <v>278900</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>940900</v>
+        <v>705300</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5453,30 +5437,30 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Universal New</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>811550</v>
+        <v>1010150</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>811550</v>
+        <v>1010150</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5486,54 +5470,30 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>278900</v>
+        <v>446300</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>278900</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
       <c r="J103" t="n">
-        <v>313900</v>
+        <v>446300</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
-        <v>278900</v>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="P103" t="n">
-        <v>705300</v>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5543,30 +5503,46 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Granta Universal New</t>
+          <t>Largus CNG</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1010150</v>
+        <v>764900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1010150</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-universal/</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>764900</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>764900</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>917900</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5576,30 +5552,30 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>446300</v>
+        <v>611900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>446300</v>
+        <v>611900</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5609,46 +5585,46 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Largus CNG</t>
+          <t>Largus Cross CNG</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>917900</v>
+        <v>982900</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5658,30 +5634,46 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>611900</v>
+        <v>384300</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>611900</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>384300</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>384300</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>1443900</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5691,46 +5683,54 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Largus Cross CNG</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1278250</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>982900</v>
+        <v>1300900</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5740,46 +5740,30 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>384300</v>
+        <v>468900</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>384300</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="P109" t="n">
-        <v>1443900</v>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>468900</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5789,54 +5773,46 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон CNG</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1363000</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1300900</v>
+        <v>938900</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5846,30 +5822,54 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>468900</v>
+        <v>329000</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>468900</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>329000</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1284750</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>329000</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>1301900</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5879,46 +5879,62 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Largus Фургон CNG</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>515900</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1153950</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>938900</v>
+        <v>738000</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/niva</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5928,54 +5944,62 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>329000</v>
+        <v>350300</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>329000</v>
+        <v>579900</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>350300</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1320000</v>
+        <v>1470000</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-furgon/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-krossover/</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>329000</v>
+        <v>579900</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1301900</v>
+        <v>800900</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5985,62 +6009,54 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>515900</v>
+        <v>371300</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>515900</v>
+        <v>371300</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
+          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>515900</v>
+        <v>371300</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1153950</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-vnedorozhnik/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>515900</v>
+        <v>398900</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>738000</v>
+        <v>918900</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/niva</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6050,62 +6066,54 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>350300</v>
+        <v>569900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>350300</v>
+        <v>569900</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1470000</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-niva-legend-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>800900</v>
+        <v>921900</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
+          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6115,54 +6123,54 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>371300</v>
+        <v>360200</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>371300</v>
+        <v>360200</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
+          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>371300</v>
+        <v>440200</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>398900</v>
+        <v>360200</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>918900</v>
+        <v>998900</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
+          <t>https://avto-zlt.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6172,54 +6180,54 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>569900</v>
+        <v>565900</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>921900</v>
+        <v>1269900</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6229,54 +6237,54 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>360200</v>
+        <v>390000</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>360200</v>
+        <v>390000</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>440200</v>
+        <v>514900</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>360200</v>
+        <v>390000</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>998900</v>
+        <v>1213900</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/travel</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6286,54 +6294,54 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>444500</v>
+        <v>433000</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>444500</v>
+        <v>433000</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>565900</v>
+        <v>590900</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>444500</v>
+        <v>433000</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>1269900</v>
+        <v>1328900</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6343,54 +6351,54 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>390000</v>
+        <v>380900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>390000</v>
+        <v>380900</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>514900</v>
+        <v>445900</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>390000</v>
+        <v>380900</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>1213900</v>
+        <v>1121900</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6400,54 +6408,54 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>433000</v>
+        <v>465900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>433000</v>
+        <v>465900</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="J121" t="n">
-        <v>590900</v>
+        <v>556900</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>433000</v>
+        <v>465900</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>1328900</v>
+        <v>1316900</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6457,54 +6465,54 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="H122" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
+          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="J122" t="n">
-        <v>445900</v>
+        <v>740900</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_2023</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1121900</v>
+        <v>1597900</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6514,54 +6522,54 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>465900</v>
+        <v>385900</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>465900</v>
+        <v>385900</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="J123" t="n">
-        <v>556900</v>
+        <v>428900</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>465900</v>
+        <v>385900</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1316900</v>
+        <v>1106900</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6571,168 +6579,168 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
+          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="J124" t="n">
-        <v>740900</v>
+        <v>561900</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1597900</v>
+        <v>1249900</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>385900</v>
+        <v>649900</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>385900</v>
+        <v>649900</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="J125" t="n">
-        <v>428900</v>
+        <v>649900</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>385900</v>
+        <v>844900</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1106900</v>
+        <v>1019900</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray</t>
+          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>384300</v>
+        <v>400900</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>384300</v>
+        <v>400900</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>561900</v>
+        <v>400900</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>384300</v>
+        <v>534900</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1249900</v>
+        <v>709900</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6742,54 +6750,54 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>649900</v>
+        <v>419900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>649900</v>
+        <v>419900</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>649900</v>
+        <v>419900</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>844900</v>
+        <v>464900</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>1019900</v>
+        <v>689900</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6799,54 +6807,54 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>400900</v>
+        <v>490900</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>400900</v>
+        <v>490900</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="J128" t="n">
-        <v>400900</v>
+        <v>490900</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>534900</v>
+        <v>594900</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>709900</v>
+        <v>769900</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6856,168 +6864,136 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>419900</v>
+        <v>614000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="H129" t="n">
-        <v>419900</v>
+        <v>769900</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>419900</v>
+        <v>769900</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>464900</v>
+        <v>614000</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>689900</v>
+        <v>989000</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>490900</v>
+        <v>1749900</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>490900</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
         </is>
       </c>
       <c r="J130" t="n">
-        <v>490900</v>
+        <v>1749900</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
-        <v>594900</v>
-      </c>
-      <c r="O130" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
-      <c r="P130" t="n">
-        <v>769900</v>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
+          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>614000</v>
+        <v>1579900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="H131" t="n">
-        <v>769900</v>
+        <v>1579900</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
+          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>769900</v>
+        <v>1579900</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>614000</v>
+        <v>1579900</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="P131" t="n">
-        <v>989000</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7027,724 +7003,756 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1749900</v>
+        <v>1729900</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>1749900</v>
+        <v>1729900</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/s6_pro</t>
+          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1579900</v>
+        <v>1419000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="H133" t="n">
-        <v>1579900</v>
+        <v>1419000</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>1579900</v>
+        <v>1444000</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x3_pro</t>
+          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>1579900</v>
+        <v>1419000</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1729900</v>
+        <v>2439000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>1729900</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/livan/x6_pro</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2439000</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>2439000</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1419000</v>
+        <v>897000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="H135" t="n">
-        <v>1419000</v>
+        <v>897000</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>1444000</v>
+        <v>1050000</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/moskvich/mos_3</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>1419000</v>
+        <v>897000</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2439000</v>
+        <v>638000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>2439000</v>
+        <v>638000</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>830000</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>2439000</v>
+        <v>638000</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1750000</v>
+        <v>1134000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1750000</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>1134000</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
+        </is>
+      </c>
+      <c r="J137" t="n">
+        <v>1249000</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1134000</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>2762000</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>897000</v>
+        <v>1268900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="H138" t="n">
-        <v>897000</v>
+        <v>1268900</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>1050000</v>
+        <v>1779900</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>897000</v>
+        <v>1268900</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="P138" t="n">
-        <v>2337000</v>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>638000</v>
+        <v>1613000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="H139" t="n">
-        <v>638000</v>
+        <v>1613000</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
+          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>830000</v>
+        <v>1659900</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>638000</v>
+        <v>1613000</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="P139" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1134000</v>
+        <v>356000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="H140" t="n">
-        <v>1134000</v>
+        <v>470000</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>1249000</v>
+        <v>470000</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>1134000</v>
+        <v>356000</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2762000</v>
+        <v>825000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1268900</v>
+        <v>346000</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="H141" t="n">
-        <v>1268900</v>
+        <v>506000</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>1779900</v>
+        <v>506000</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>2251900</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-i-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>1268900</v>
+        <v>346000</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>883000</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1613000</v>
+        <v>366000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>1613000</v>
+        <v>559900</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
+          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>1659900</v>
+        <v>559900</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>1613000</v>
+        <v>366000</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>851000</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2149900</v>
+        <v>858000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>2149900</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>858000</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="J143" t="n">
+        <v>925000</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>858000</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>1874000</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>356000</v>
+        <v>650000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>470000</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="J144" t="n">
-        <v>470000</v>
+        <v>650000</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
-        <v>356000</v>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="P144" t="n">
-        <v>825000</v>
-      </c>
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>346000</v>
+        <v>475000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>506000</v>
+        <v>475000</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>506000</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>346000</v>
+        <v>475000</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>883000</v>
+        <v>1618000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>366000</v>
+        <v>713000</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>559900</v>
+        <v>713000</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J146" t="n">
-        <v>559900</v>
+        <v>865000</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>366000</v>
+        <v>713000</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>851000</v>
+        <v>1724000</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7754,54 +7762,54 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>858000</v>
+        <v>395000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>858000</v>
+        <v>395000</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="J147" t="n">
-        <v>925000</v>
+        <v>495000</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>858000</v>
+        <v>395000</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1874000</v>
+        <v>1124000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7811,30 +7819,54 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>650000</v>
+        <v>503990</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>503990</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J148" t="n">
-        <v>650000</v>
+        <v>605000</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>503990</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>1301000</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7844,46 +7876,54 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>475000</v>
+        <v>677990</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>475000</v>
+        <v>677990</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+        </is>
+      </c>
+      <c r="J149" t="n">
+        <v>705000</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>475000</v>
+        <v>677990</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1618000</v>
+        <v>958000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7893,54 +7933,54 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J150" t="n">
-        <v>865000</v>
+        <v>505000</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>1724000</v>
+        <v>1258000</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7950,54 +7990,54 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="J151" t="n">
-        <v>495000</v>
+        <v>650000</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1124000</v>
+        <v>1373000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8007,282 +8047,266 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>503990</v>
+        <v>656993</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>503990</v>
+        <v>730000</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
+          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>605000</v>
+        <v>730000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>503990</v>
+        <v>656993</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>1301000</v>
+        <v>1001000</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>677990</v>
+        <v>954000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>677990</v>
+        <v>954000</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="J153" t="n">
-        <v>705000</v>
+        <v>1193000</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>677990</v>
+        <v>954000</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>958000</v>
+        <v>1955000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>395000</v>
+        <v>1354000</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>395000</v>
+        <v>1354000</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="J154" t="n">
-        <v>505000</v>
+        <v>1354000</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N154" t="n">
-        <v>395000</v>
+        <v>1354000</v>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>1258000</v>
+        <v>1962000</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>399000</v>
+        <v>2718000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>399000</v>
+        <v>2718000</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
-        </is>
-      </c>
-      <c r="J155" t="n">
-        <v>650000</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>399000</v>
+        <v>2718000</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>1373000</v>
+        <v>3498000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>656993</v>
+        <v>2750000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>730000</v>
+        <v>2750000</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
-        </is>
-      </c>
-      <c r="J156" t="n">
-        <v>730000</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>656993</v>
+        <v>2750000</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1001000</v>
+        <v>3776000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8292,54 +8316,30 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>954000</v>
+        <v>1179000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>954000</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1193000</v>
+        <v>1179000</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
-        <v>954000</v>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="P157" t="n">
-        <v>1955000</v>
-      </c>
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8349,54 +8349,46 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1354000</v>
+        <v>1705000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>1354000</v>
+        <v>1705000</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>1354000</v>
+        <v>1705000</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>1962000</v>
+        <v>1985000</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8406,46 +8398,46 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2718000</v>
+        <v>543800</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>2718000</v>
+        <v>1129000</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>2718000</v>
+        <v>543800</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3498000</v>
+        <v>1359500</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8455,46 +8447,46 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2750000</v>
+        <v>844800</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>2750000</v>
+        <v>844800</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>2750000</v>
+        <v>844800</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3776000</v>
+        <v>1657000</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8504,30 +8496,30 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1179000</v>
+        <v>589000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
       <c r="J161" t="n">
-        <v>1179000</v>
+        <v>589000</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8537,46 +8529,46 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1705000</v>
+        <v>425000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>1705000</v>
+        <v>425000</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>1705000</v>
+        <v>425000</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1985000</v>
+        <v>1051000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8586,46 +8578,30 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>543800</v>
+        <v>1713000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>1129000</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
-        <v>543800</v>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="P163" t="n">
-        <v>1359500</v>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+        </is>
+      </c>
+      <c r="J163" t="n">
+        <v>1713000</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8635,46 +8611,54 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>844800</v>
+        <v>1752000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>844800</v>
+        <v>1752000</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="J164" t="n">
+        <v>2001000</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>844800</v>
+        <v>1752000</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1657000</v>
+        <v>2681000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8684,1234 +8668,765 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>589000</v>
+        <v>1211000</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="J165" t="n">
-        <v>589000</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>1211000</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1211000</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>2388000</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>425000</v>
+        <v>1379000</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>425000</v>
+        <v>1469000</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+        </is>
+      </c>
+      <c r="J166" t="n">
+        <v>1469000</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>425000</v>
+        <v>1379000</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1051000</v>
+        <v>2669000</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1713000</v>
+        <v>1069000</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1119000</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>1713000</v>
+        <v>1119000</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>2319000</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1752000</v>
+        <v>969000</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>1752000</v>
+        <v>1219000</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
         </is>
       </c>
       <c r="J168" t="n">
-        <v>2001000</v>
+        <v>1219000</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>1752000</v>
+        <v>969000</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>2681000</v>
+        <v>2419000</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1211000</v>
+        <v>2848000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>1211000</v>
+        <v>2848000</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+        </is>
+      </c>
+      <c r="J169" t="n">
+        <v>2869300</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/tank/300</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>1211000</v>
+        <v>2848000</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
-        </is>
-      </c>
-      <c r="P169" t="n">
-        <v>2388000</v>
-      </c>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1379000</v>
+        <v>3898000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>1469000</v>
+        <v>3898000</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
-        </is>
-      </c>
-      <c r="J170" t="n">
-        <v>1469000</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>1379000</v>
+        <v>3898000</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
-        </is>
-      </c>
-      <c r="P170" t="n">
-        <v>2669000</v>
-      </c>
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1069000</v>
+        <v>538000</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>1119000</v>
+        <v>538000</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="J171" t="n">
-        <v>1119000</v>
+        <v>555000</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>1069000</v>
+        <v>538000</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="P171" t="n">
-        <v>2319000</v>
+        <v>1545000</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>969000</v>
+        <v>429380</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>1219000</v>
+        <v>429380</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="J172" t="n">
-        <v>1219000</v>
+        <v>619000</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>969000</v>
+        <v>429380</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2419000</v>
+        <v>1745000</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2848000</v>
+        <v>621000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>2848000</v>
+        <v>621000</v>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="J173" t="n">
-        <v>2869300</v>
+        <v>638000</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/tank/300</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2848000</v>
+        <v>621000</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>1770000</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>3898000</v>
+        <v>4790000</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>3898000</v>
+        <v>4790000</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3898000</v>
+        <v>4790000</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1280000</v>
+        <v>1013000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1280000</v>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-bortovoy-gruzovik/</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="J175" t="n">
+        <v>1322000</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>1627000</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1235000</v>
+        <v>687900</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1235000</v>
-      </c>
-      <c r="M176" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="J176" t="n">
+        <v>687900</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1250000</v>
+        <v>519300</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>519300</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>519300</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>1620900</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>538000</v>
+        <v>1227900</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>538000</v>
+        <v>1227900</v>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="J178" t="n">
-        <v>555000</v>
+        <v>1544900</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>538000</v>
+        <v>1227900</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>1545000</v>
+        <v>2828900</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>429380</v>
+        <v>1288900</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>429380</v>
+        <v>1288900</v>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
+          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="J179" t="n">
-        <v>619000</v>
+        <v>1329900</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>429380</v>
+        <v>1288900</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1745000</v>
+        <v>3375900</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>635</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Patriot New</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1530000</v>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>637</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Pickup</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>621000</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="J181" t="n">
-        <v>638000</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="N181" t="n">
-        <v>621000</v>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="P181" t="n">
-        <v>1770000</v>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>638</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Pickup New</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2-furgon/</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>699</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Профи</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>1585000</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1585000</v>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>702</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Профи Изотермический кузов</t>
-        </is>
-      </c>
-      <c r="D184" t="n">
-        <v>1630000</v>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi-izotermicheskiy-kuzov/</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1630000</v>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi-izotermicheskiy-kuzov/</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>UAZ</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Профи Фургон</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>1650000</v>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi-furgon/</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1650000</v>
-      </c>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-profi-furgon/</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>665</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>VOYAH</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="H186" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="I186" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="N186" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="O186" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>645</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Jetta</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J187" t="n">
-        <v>1322000</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
-        </is>
-      </c>
-      <c r="N187" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="O187" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="P187" t="n">
-        <v>1627000</v>
-      </c>
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>652</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Polo</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>687900</v>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="J188" t="n">
-        <v>687900</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>648</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Polo New</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>519300</v>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="H189" t="n">
-        <v>519300</v>
-      </c>
-      <c r="I189" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="N189" t="n">
-        <v>519300</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="P189" t="n">
-        <v>1620900</v>
-      </c>
-      <c r="Q189" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>653</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Taos</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="H190" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="I190" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J190" t="n">
-        <v>1544900</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="N190" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="P190" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H191" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I191" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="J191" t="n">
-        <v>1329900</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="N191" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="O191" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="P191" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="Q191" t="inlineStr">
-        <is>
           <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>XCite</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>X-Cross 7</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>2199000</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>2199000</v>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>
       </c>
     </row>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -6915,14 +6915,6 @@
           <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1749900</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-i-krossover/</t>
-        </is>
-      </c>
       <c r="N129" t="n">
         <v>1268900</v>
       </c>
@@ -6949,11 +6941,11 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1579000</v>
+        <v>1613000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -6962,14 +6954,6 @@
       <c r="I130" t="inlineStr">
         <is>
           <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1579000</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
         </is>
       </c>
       <c r="N130" t="n">

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,14 +532,6 @@
           <t>https://avto-mg.ru/catalog/baic/bj40_I_restailing</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>3118000</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/baic/bj40_I_restailing</t>
-        </is>
-      </c>
       <c r="N2" t="n">
         <v>3118000</v>
       </c>
@@ -573,14 +565,6 @@
           <t>https://avto-mg.ru/catalog/baic/u5_plus</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1138000</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/baic/u5_plus</t>
-        </is>
-      </c>
       <c r="N3" t="n">
         <v>1138000</v>
       </c>
@@ -614,14 +598,6 @@
           <t>https://avto-mg.ru/catalog/baic/x35</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>1018000</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/baic/x35</t>
-        </is>
-      </c>
       <c r="N4" t="n">
         <v>1018000</v>
       </c>
@@ -655,14 +631,6 @@
           <t>https://avto-mg.ru/catalog/changan/alsvin</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>579000</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/alsvin</t>
-        </is>
-      </c>
       <c r="N5" t="n">
         <v>579000</v>
       </c>
@@ -689,19 +657,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>619900</v>
+        <v>728900</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs35</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>619900</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs35</t>
+          <t>https://avto-mg.ru/catalog/changan/cs35</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -753,14 +713,6 @@
           <t>https://che-motors-2024.ru/catalog/changan/cs35plus_2023</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>939900</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs35plus</t>
-        </is>
-      </c>
       <c r="J7" t="n">
         <v>878900</v>
       </c>
@@ -810,14 +762,6 @@
           <t>https://avto-mg.ru/catalog/changan/cs35plus_2023MY</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>878900</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs35plus_2023MY</t>
-        </is>
-      </c>
       <c r="N8" t="n">
         <v>878900</v>
       </c>
@@ -851,14 +795,6 @@
           <t>https://avto-mg.ru/catalog/changan/cs55</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>999000</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs55</t>
-        </is>
-      </c>
       <c r="J9" t="n">
         <v>999000</v>
       </c>
@@ -908,14 +844,6 @@
           <t>https://avto-mg.ru/catalog/changan/cs55_plus_2023MY</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>1238900</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs55_plus_2023MY</t>
-        </is>
-      </c>
       <c r="J10" t="n">
         <v>1238900</v>
       </c>
@@ -957,14 +885,6 @@
           <t>https://avto-mg.ru/catalog/changan/cs75</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>839920</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs75</t>
-        </is>
-      </c>
       <c r="N11" t="n">
         <v>839920</v>
       </c>
@@ -998,14 +918,6 @@
           <t>https://avto-mg.ru/catalog/changan/cs75fl</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>1089300</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/cs75fl</t>
-        </is>
-      </c>
       <c r="J12" t="n">
         <v>1089300</v>
       </c>
@@ -1055,14 +967,6 @@
           <t>https://avto-mg.ru/catalog/changan/uni-k</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>2068900</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/uni-k</t>
-        </is>
-      </c>
       <c r="J13" t="n">
         <v>2068900</v>
       </c>
@@ -1104,14 +1008,6 @@
           <t>https://avto-mg.ru/catalog/changan/uni-t</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>2029930</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/uni-t</t>
-        </is>
-      </c>
       <c r="J14" t="n">
         <v>2029930</v>
       </c>
@@ -1153,14 +1049,6 @@
           <t>https://avto-mg.ru/catalog/changan/uni-v</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>1628900</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/changan/uni-v</t>
-        </is>
-      </c>
       <c r="J15" t="n">
         <v>1628900</v>
       </c>
@@ -1202,14 +1090,6 @@
           <t>https://avto-mg.ru/catalog/chery/tiggo2</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>699900</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo2</t>
-        </is>
-      </c>
       <c r="N16" t="n">
         <v>699900</v>
       </c>
@@ -1243,14 +1123,6 @@
           <t>https://avto-mg.ru/catalog/chery/tiggo_4</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>565900</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_4</t>
-        </is>
-      </c>
       <c r="J17" t="n">
         <v>565900</v>
       </c>
@@ -1300,14 +1172,6 @@
           <t>https://avto-mg.ru/catalog/chery/tiggo_4_pro</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>993900</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_4_pro</t>
-        </is>
-      </c>
       <c r="J18" t="n">
         <v>993900</v>
       </c>
@@ -1342,19 +1206,11 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>739900</v>
+        <v>826900</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_5</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>739900</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_5</t>
+          <t>https://avto-mg.ru/catalog/chery/tiggo_5</t>
         </is>
       </c>
       <c r="J19" t="n">
@@ -1399,19 +1255,11 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>679900</v>
+        <v>926900</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_7</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>679900</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_7</t>
+          <t>https://avto-mg.ru/catalog/chery/tiggo_7</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1463,14 +1311,6 @@
           <t>https://avto-mg.ru/catalog/chery/tiggo7pro</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>1108900</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo7pro</t>
-        </is>
-      </c>
       <c r="J21" t="n">
         <v>1108900</v>
       </c>
@@ -1520,14 +1360,6 @@
           <t>https://avto-mg.ru/catalog/chery/tiggo_7_pro_max</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>1304000</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_7_pro_max</t>
-        </is>
-      </c>
       <c r="J22" t="n">
         <v>1304000</v>
       </c>
@@ -1562,19 +1394,11 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1219900</v>
+        <v>1234900</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1219900</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8</t>
+          <t>https://avto-mg.ru/catalog/chery/tiggo_8</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -1626,14 +1450,6 @@
           <t>https://avto-mg.ru/catalog/chery/tiggo_8_pro</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>1528900</v>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/tiggo_8_pro</t>
-        </is>
-      </c>
       <c r="J24" t="n">
         <v>1778900</v>
       </c>
@@ -1683,14 +1499,6 @@
           <t>https://avto-mg.ru/catalog/chevrolet/cobalt</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>542900</v>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chevrolet/cobalt</t>
-        </is>
-      </c>
       <c r="J25" t="n">
         <v>542900</v>
       </c>
@@ -1740,14 +1548,6 @@
           <t>https://avto-mg.ru/catalog/chevrolet/nexia</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>492900</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chevrolet/nexia</t>
-        </is>
-      </c>
       <c r="J26" t="n">
         <v>492900</v>
       </c>
@@ -1797,14 +1597,6 @@
           <t>https://avto-mg.ru/catalog/chevrolet/spark</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>542900</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chevrolet/spark</t>
-        </is>
-      </c>
       <c r="J27" t="n">
         <v>542900</v>
       </c>
@@ -1847,19 +1639,11 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>319900</v>
+        <v>344000</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/datsun/mi_do</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>319900</v>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/datsun/mi_do</t>
+          <t>https://avto-mg.ru/catalog/datsun/mi_do</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -1911,14 +1695,6 @@
           <t>https://avto-mg.ru/catalog/datsun/on_do</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>294000</v>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/datsun/on_do</t>
-        </is>
-      </c>
       <c r="J29" t="n">
         <v>244000</v>
       </c>
@@ -1968,14 +1744,6 @@
           <t>https://avto-mg.ru/catalog/dong-feng/580</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>759000</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/dong-feng/580</t>
-        </is>
-      </c>
       <c r="J30" t="n">
         <v>759000</v>
       </c>
@@ -2029,40 +1797,48 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dongfeng</t>
+          <t>EXEED</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DFM AX7</t>
+          <t>LX</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>808000</v>
+        <v>2299900</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/dong-feng/dfm_ax7</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>808000</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/dong-feng/dfm_ax7</t>
+          <t>https://avto-mg.ru/catalog/exeed/lx</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/exeed/lx</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>2299900</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/exeed/lx</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2072,46 +1848,46 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LX</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2299900</v>
+        <v>1832900</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/lx</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2299900</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/exeed/lx</t>
+          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2299900</v>
+        <v>1832900</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/lx</t>
+          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>2299900</v>
+        <v>1999900</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/lx</t>
+          <t>https://avto-mg.ru/catalog/chery/txl</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>2249900</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/chery/txl</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2121,103 +1897,71 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>VX</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1832900</v>
+        <v>4109900</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>1999900</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/chery/txl</t>
+          <t>https://avto-mg.ru/catalog/exeed/vx</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1832900</v>
+        <v>4109900</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/txl</t>
+          <t>https://che-motors-2024.ru/catalog/exeed/vx</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1999900</v>
+        <v>4109900</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/chery/txl</t>
-        </is>
-      </c>
-      <c r="P34" t="n">
-        <v>2249900</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/chery/txl</t>
+          <t>https://avto-mg.ru/catalog/exeed/vx</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EXEED</t>
+          <t>FAW</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VX</t>
+          <t>Bestune B70</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4109900</v>
+        <v>1618600</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/vx</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4109900</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/exeed/vx</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>4109900</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/exeed/vx</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>4109900</v>
+        <v>1618600</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/exeed/vx</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2227,38 +1971,30 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bestune B70</t>
+          <t>Bestune T55</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1618600</v>
+        <v>1591300</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>1618600</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/faw/bestune_b70</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1618600</v>
+        <v>1591300</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_b70</t>
+          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2268,38 +2004,30 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bestune T55</t>
+          <t>Bestune T77</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1591300</v>
+        <v>1552000</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>1591300</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/faw/bestune_t55</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>1591300</v>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/faw/bestune_t55</t>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1552000</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2309,7 +2037,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bestune T77</t>
+          <t>Besturn T77</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -2317,22 +2045,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
+          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1552000</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2342,38 +2070,46 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Besturn T77</t>
+          <t>Besturn X40</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1552000</v>
+        <v>619300</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1552000</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/faw/besturn_t77</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>619300</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1552000</v>
+        <v>619300</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_t77</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>1602000</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/faw/besturn_x40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2383,111 +2119,87 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Besturn X40</t>
+          <t>Besturn X80</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>619300</v>
+        <v>761000</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>619300</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/faw/besturn_x40</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>619300</v>
+        <v>761000</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/besturn_x40</t>
+          <t>https://che-motors-2024.ru/catalog/faw/besturn_x80_2018</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>619300</v>
+        <v>761000</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x40</t>
+          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>1602000</v>
+        <v>1508000</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/faw/besturn_x40</t>
+          <t>https://avto-zlt.ru/catalog/faw/besturn_x80_new</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FAW</t>
+          <t>Gac</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Besturn X80</t>
+          <t>GN8</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>761000</v>
+        <v>3399000</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>761000</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/faw/besturn_x80_new</t>
+          <t>https://avto-mg.ru/catalog/gac/gn8</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>761000</v>
+        <v>3399000</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/besturn_x80_2018</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>761000</v>
+        <v>3399000</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/faw/besturn_x80_new</t>
-        </is>
-      </c>
-      <c r="P41" t="n">
-        <v>1508000</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/faw/besturn_x80_new</t>
+          <t>https://avto-mg.ru/catalog/gac/gn8</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2497,46 +2209,38 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GN8</t>
+          <t>GS5</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3399000</v>
+        <v>2099000</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gn8</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3399000</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/gac/gn8</t>
+          <t>https://avto-mg.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3399000</v>
+        <v>2099000</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gn8</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3399000</v>
+        <v>2099000</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gn8</t>
+          <t>https://avto-mg.ru/catalog/gac/gs5</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2546,95 +2250,87 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GS5</t>
+          <t>GS8</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2099000</v>
+        <v>2789000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs5</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2099000</v>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/gac/gs5</t>
+          <t>https://avto-mg.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2099000</v>
+        <v>2789000</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gs5</t>
+          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>2099000</v>
+        <v>2789000</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs5</t>
+          <t>https://avto-mg.ru/catalog/gac/gs8</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gac</t>
+          <t>Geely</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GS8</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2789000</v>
+        <v>869900</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs8</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2789000</v>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/gac/gs8</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>2789000</v>
+        <v>869900</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/gac/gs8</t>
+          <t>https://che-motors-2024.ru/catalog/geely/atlas</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>2789000</v>
+        <v>869900</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/gac/gs8</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>2228990</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/geely/atlas</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2644,54 +2340,30 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Atlas New</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>869900</v>
+        <v>2536493</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>869900</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>869900</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/geely/atlas</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_new</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>869900</v>
+        <v>2536493</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>2228990</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/geely/atlas</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_new</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2701,38 +2373,46 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Atlas New</t>
+          <t>Atlas Pro</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2236493</v>
+        <v>1087596</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas_new</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2236493</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas_new</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>1087596</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>2536493</v>
+        <v>1087596</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas_new</t>
+          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>2758990</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/geely/atlas_pro</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2742,54 +2422,46 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Atlas Pro</t>
+          <t>Coolray</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1087596</v>
+        <v>647990</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1087596</v>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/atlas_pro</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>1087596</v>
+        <v>1826993</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/atlas_pro</t>
+          <t>https://che-motors-2024.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>1087596</v>
+        <v>647990</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/atlas_pro</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>2758990</v>
+        <v>2299990</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/geely/atlas_pro</t>
+          <t>https://avto-zlt.ru/catalog/geely/coolray</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2799,54 +2471,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coolray</t>
+          <t>Coolray New</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>647990</v>
+        <v>1826993</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>647990</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/coolray</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
+          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1826993</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/geely/coolray</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>647990</v>
-      </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray</t>
-        </is>
-      </c>
-      <c r="P48" t="n">
-        <v>2299990</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/geely/coolray</t>
+          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2856,38 +2504,46 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Coolray New</t>
+          <t>Emgrand X7</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1826993</v>
+        <v>864990</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1826993</v>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/coolray_new</t>
+          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>864990</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1826993</v>
+        <v>864990</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/coolray_new</t>
+          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>1434990</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/geely/emgrand_x7_2019</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2897,54 +2553,46 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Emgrand X7</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>864990</v>
+        <v>994990</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>869990</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/emgrand_x7</t>
+          <t>https://avto-mg.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>864990</v>
+        <v>994990</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://che-motors-2024.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>864990</v>
+        <v>994990</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://avto-mg.ru/catalog/geely/gs</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>1434990</v>
+        <v>1319990</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/geely/emgrand_x7_2019</t>
+          <t>https://avto-zlt.ru/catalog/geely/gs</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2954,103 +2602,71 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>Monjaro</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>869990</v>
+        <v>2694900</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/geely/gs</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>869990</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/gs</t>
+          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>994990</v>
+        <v>2694900</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/gs</t>
+          <t>https://che-motors-2024.ru/catalog/geely/monjaro</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>994990</v>
+        <v>2694900</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/gs</t>
-        </is>
-      </c>
-      <c r="P51" t="n">
-        <v>1319990</v>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/geely/gs</t>
+          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Geely</t>
+          <t>Great Wall</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Monjaro</t>
+          <t>POER</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2694900</v>
+        <v>2749000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>2694900</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/geely/monjaro</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>2694900</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/geely/monjaro</t>
+          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>2694900</v>
+        <v>2749000</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/geely/monjaro</t>
+          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3060,112 +2676,128 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GWM Wingle 7</t>
+          <t>Wingle 7</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1099000</v>
+        <v>2099000</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/great-wall/wingle7</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>1099000</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/great-wall/wingle7</t>
+          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>POER</t>
+          <t>Dargo</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2749000</v>
+        <v>1679000</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>2749000</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/great-wall/poer</t>
+          <t>https://avto-mg.ru/catalog/haval/dargo</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1679000</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/haval/dargo</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>2749000</v>
+        <v>1679000</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/poer</t>
+          <t>https://avto-mg.ru/catalog/haval/dargo</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Great Wall</t>
+          <t>Haval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Wingle 7</t>
+          <t>F7</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2099000</v>
+        <v>1179000</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
+          <t>https://avto-mg.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>2099000</v>
+        <v>1714300</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/greatwall/wingle7</t>
+          <t>https://che-motors-2024.ru/catalog/haval/f7</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>2099000</v>
+        <v>1179000</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/great-wall/wingle7</t>
+          <t>https://avto-mg.ru/catalog/haval/f7</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>2639000</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/haval/f7</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3175,46 +2807,30 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dargo</t>
+          <t>F7 New</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1679000</v>
+        <v>1714300</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/dargo</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>1679000</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/dargo</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>1679000</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/haval/dargo</t>
+          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>1679000</v>
+        <v>1714300</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/dargo</t>
+          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3224,54 +2840,46 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>F7</t>
+          <t>F7x</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1149000</v>
+        <v>1279000</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/f7</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>1149000</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/f7</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1714300</v>
+        <v>1749300</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/f7</t>
+          <t>https://che-motors-2024.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1179000</v>
+        <v>1279000</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>2639000</v>
+        <v>2689000</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/f7</t>
+          <t>https://avto-zlt.ru/catalog/haval/f7x</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3281,38 +2889,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>F7 New</t>
+          <t>F7x New</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1714300</v>
+        <v>1749300</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>1714300</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/F7_new</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>1714300</v>
+        <v>1749300</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7_new</t>
+          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3322,54 +2922,38 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>F7x</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1199000</v>
+        <v>973400</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>1199000</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/f7x</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>1749300</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/haval/f7x</t>
+          <t>https://avto-mg.ru/catalog/haval/h2</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1279000</v>
+        <v>973400</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7x</t>
+          <t>https://avto-mg.ru/catalog/haval/h2</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2689000</v>
+        <v>1128000</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/f7x</t>
+          <t>https://avto-zlt.ru/catalog/haval/h2</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3379,38 +2963,30 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>F7x New</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1749300</v>
+        <v>1819300</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>1749300</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/F7x_new</t>
+          <t>https://avto-mg.ru/catalog/haval/h3</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>1749300</v>
+        <v>1819300</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/f7x_new</t>
+          <t>https://avto-mg.ru/catalog/haval/h3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3420,46 +2996,46 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H5</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>869000</v>
+        <v>958000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h2</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>869000</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h2</t>
+          <t>https://avto-mg.ru/catalog/haval/h5</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>958000</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/haval/h5_2020</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>973400</v>
+        <v>958000</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h2</t>
+          <t>https://avto-mg.ru/catalog/haval/h5</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1128000</v>
+        <v>1429000</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/h2</t>
+          <t>https://avto-zlt.ru/catalog/haval/h5</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3469,38 +3045,46 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H6</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1819300</v>
+        <v>1078000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h3</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h3</t>
+          <t>https://avto-mg.ru/catalog/haval/h6</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1078000</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/haval/h6</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1819300</v>
+        <v>1078000</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h3</t>
+          <t>https://avto-mg.ru/catalog/haval/h6</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>1148000</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/haval/h6</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3510,54 +3094,46 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>H5</t>
+          <t>H9</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>958000</v>
+        <v>1909300</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h5</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>958000</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h5</t>
+          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>958000</v>
+        <v>1909300</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h5_2020</t>
+          <t>https://che-motors-2024.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>958000</v>
+        <v>1909300</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h5</t>
+          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>1429000</v>
+        <v>4099000</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/h5</t>
+          <t>https://avto-zlt.ru/catalog/haval/h9_2018</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3567,54 +3143,46 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>H6</t>
+          <t>Jolion</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>919000</v>
+        <v>818000</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h6</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>919000</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h6</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1078000</v>
+        <v>1399300</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h6</t>
+          <t>https://che-motors-2024.ru/catalog/haval/jolion</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1078000</v>
+        <v>818000</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h6</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>1148000</v>
+        <v>1799000</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/haval/h6</t>
+          <t>https://avto-zlt.ru/catalog/haval/jolion</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3624,54 +3192,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>H9</t>
+          <t>Jolion New</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1909300</v>
+        <v>1399300</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>1909300</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/h9</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>1909300</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/haval/h9_2018</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>1909300</v>
+        <v>1399300</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/h9_2018</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>4099000</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/haval/h9_2018</t>
+          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>689</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3681,136 +3225,104 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Jolion</t>
+          <t>M6 New</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>818000</v>
+        <v>1704000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>818000</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/jolion</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>1399300</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/haval/jolion</t>
+          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>818000</v>
+        <v>1704000</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion</t>
-        </is>
-      </c>
-      <c r="P66" t="n">
-        <v>1799000</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/haval/jolion</t>
+          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Jolion New</t>
+          <t>Creta</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1399300</v>
+        <v>676000</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>1399300</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/jolion_new</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>1399300</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/haval/jolion_new</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>676000</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Haval</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>M6 New</t>
+          <t>Creta New</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1704000</v>
+        <v>676000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>1704000</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/haval/m6_II</t>
+          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1704000</v>
+        <v>676000</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/haval/m6_II</t>
+          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>694000</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/hyundai/creta_new</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>319</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3820,30 +3332,46 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Creta</t>
+          <t>Elantra</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>676000</v>
+        <v>868000</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
+          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>676000</v>
+        <v>868000</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/elantra_20</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>868000</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>884000</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/hyundai/elantra_new</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3853,46 +3381,46 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Creta New</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>676000</v>
+        <v>1869000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>676000</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/creta_new</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>1869000</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/hyundai/santa_fe_2021</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>676000</v>
+        <v>1869000</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/creta_new</t>
+          <t>https://avto-mg.ru/catalog/hyundai/santa_fe</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>694000</v>
+        <v>1869000</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/creta_new</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3902,54 +3430,30 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Elantra</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>868000</v>
+        <v>465000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>868000</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/elantra_new</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>868000</v>
+        <v>465000</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/elantra_20</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>868000</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/hyundai/elantra_new</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>884000</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/elantra_new</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>321</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3959,54 +3463,38 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Solaris New</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1869000</v>
+        <v>465000</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>1869000</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/santa_fe</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>1869000</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/santa_fe_2021</t>
+          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1869000</v>
+        <v>465000</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/santa_fe</t>
+          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>1869000</v>
+        <v>481000</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/santa_fe</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/solaris_2020</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4016,30 +3504,46 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Sonata</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>465000</v>
+        <v>1937300</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://avto-mg.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>465000</v>
+        <v>1937300</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://che-motors-2024.ru/catalog/hyundai/sonata_2019</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1937300</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/hyundai/sonata_new</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>2099000</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/hyundai/sonata_new</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4049,160 +3553,128 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Solaris New</t>
+          <t>Tucson</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>465000</v>
+        <v>1478000</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>465000</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1478000</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/hyundai/tucson_21</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>465000</v>
+        <v>1478000</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>481000</v>
+        <v>1499000</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://avto-zlt.ru/catalog/hyundai/tucson_new</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sonata</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1937300</v>
+        <v>718000</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/sonata_new</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>1937300</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/sonata_new</t>
+          <t>https://avto-mg.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1937300</v>
+        <v>718000</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/sonata_2019</t>
+          <t>https://che-motors-2024.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>1937300</v>
+        <v>718000</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/sonata_new</t>
+          <t>https://avto-mg.ru/catalog/jac/j7</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2099000</v>
+        <v>1899000</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/sonata_new</t>
+          <t>https://avto-zlt.ru/catalog/jac/j7</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Tucson</t>
+          <t>JS6</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1478000</v>
+        <v>1819300</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>1478000</v>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/hyundai/tucson_new</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>1478000</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/tucson_21</t>
+          <t>https://avto-mg.ru/catalog/jac/js6</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>1478000</v>
+        <v>1819300</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/hyundai/tucson_new</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>1499000</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/hyundai/tucson_new</t>
+          <t>https://avto-mg.ru/catalog/jac/js6</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>341</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4212,54 +3684,46 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>S3</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>718000</v>
+        <v>698000</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/j7</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>718000</v>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/j7</t>
+          <t>https://avto-mg.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>718000</v>
+        <v>698000</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/j7</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>718000</v>
+        <v>698000</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/j7</t>
+          <t>https://avto-mg.ru/catalog/jac/s3</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1899000</v>
+        <v>1399000</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/j7</t>
+          <t>https://avto-zlt.ru/catalog/jac/s3</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>342</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4269,38 +3733,46 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>JS6</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1819300</v>
+        <v>839000</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/js6</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>1819300</v>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/js6</t>
+          <t>https://avto-mg.ru/catalog/jac/s5</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>954000</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1819300</v>
+        <v>839000</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/js6</t>
+          <t>https://avto-mg.ru/catalog/jac/s5</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>1139000</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/jac/s5</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4310,54 +3782,46 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S3</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>569000</v>
+        <v>1108000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s3</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>569000</v>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s3</t>
+          <t>https://avto-mg.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>698000</v>
+        <v>1108000</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s3</t>
+          <t>https://che-motors-2024.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>698000</v>
+        <v>1108000</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s3</t>
+          <t>https://avto-mg.ru/catalog/jac/s7</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>1399000</v>
+        <v>1779000</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s3</t>
+          <t>https://avto-zlt.ru/catalog/jac/s7</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>342</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4367,299 +3831,219 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>699000</v>
+        <v>1949000</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s5</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>699000</v>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s5</t>
+          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>954000</v>
+        <v>2270000</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s5</t>
+          <t>https://che-motors-2024.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>839000</v>
+        <v>2270000</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s5</t>
+          <t>https://avto-mg.ru/catalog/jac/t_6</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>1139000</v>
+        <v>1949000</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/s5</t>
+          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>S7</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1108000</v>
+        <v>2944900</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s7</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>1108000</v>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/s7</t>
+          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>1108000</v>
+        <v>2944900</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/s7</t>
+          <t>https://che-motors-2024.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1108000</v>
+        <v>2944900</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/s7</t>
-        </is>
-      </c>
-      <c r="P81" t="n">
-        <v>1779000</v>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/jac/s7</t>
+          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1949000</v>
+        <v>1138900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>2270000</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jac/t_6</t>
+          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2270000</v>
+        <v>1138900</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jac/t_6</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>1949000</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/jac/t_6</t>
+          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2944900</v>
+        <v>1898900</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>2944900</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jaecoo/j7</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>2944900</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jaecoo/j7</t>
+          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2944900</v>
+        <v>1898900</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jaecoo/j7</t>
+          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1138900</v>
+        <v>973000</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>1138900</v>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jetour/dashing</t>
+          <t>https://avto-mg.ru/catalog/jetta/va3</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1138900</v>
+        <v>973000</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/dashing</t>
+          <t>https://avto-mg.ru/catalog/jetta/va3</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1898900</v>
+        <v>1423000</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
-        </is>
-      </c>
-      <c r="H85" t="n">
-        <v>1898900</v>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jetour/x90plus</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>1898900</v>
+        <v>1423000</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetour/x90plus</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4669,161 +4053,161 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>973000</v>
+        <v>1732000</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/va3</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>973000</v>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/va3</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>973000</v>
+        <v>1732000</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/va3</t>
+          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1423000</v>
+        <v>1058000</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
-        </is>
-      </c>
-      <c r="H87" t="n">
-        <v>1423000</v>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/vs5</t>
+          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>1423000</v>
+        <v>1058000</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs5</t>
+          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1732000</v>
+        <v>425900</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
-        </is>
-      </c>
-      <c r="H88" t="n">
-        <v>1732000</v>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/jetta/vs7</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>425900</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>1732000</v>
+        <v>425900</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/jetta/vs7</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>742300</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_cross</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1058000</v>
+        <v>268500</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
-        </is>
-      </c>
-      <c r="H89" t="n">
-        <v>1058000</v>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>268500</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1058000</v>
+        <v>268500</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/kaiyi/kaiyi_e5</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>778500</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/granta_hatchback</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4833,54 +4217,46 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>425900</v>
+        <v>272300</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
-        </is>
-      </c>
-      <c r="H90" t="n">
-        <v>425900</v>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
       <c r="J90" t="n">
-        <v>425900</v>
+        <v>272300</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>425900</v>
+        <v>272300</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>742300</v>
+        <v>698300</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_liftback</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4890,54 +4266,46 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>268500</v>
+        <v>257900</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
-        </is>
-      </c>
-      <c r="H91" t="n">
-        <v>268500</v>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_hatchback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="J91" t="n">
-        <v>268500</v>
+        <v>257900</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>268500</v>
+        <v>257900</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_hatchback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>778500</v>
+        <v>678300</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_hatchback</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4947,54 +4315,46 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>272300</v>
+        <v>425900</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
-        </is>
-      </c>
-      <c r="H92" t="n">
-        <v>272300</v>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>272300</v>
+        <v>425900</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>272300</v>
+        <v>425900</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>698300</v>
+        <v>940900</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_liftback</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5004,54 +4364,46 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>257900</v>
+        <v>278900</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
-        </is>
-      </c>
-      <c r="H93" t="n">
-        <v>257900</v>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_sedan</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>257900</v>
+        <v>278900</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>257900</v>
+        <v>278900</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_sedan</t>
+          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>678300</v>
+        <v>705300</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_sedan</t>
+          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5061,54 +4413,30 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>425900</v>
+        <v>348900</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
-        </is>
-      </c>
-      <c r="H94" t="n">
-        <v>425900</v>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_da</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
       <c r="J94" t="n">
-        <v>425900</v>
+        <v>348900</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
-        <v>425900</v>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_da</t>
-        </is>
-      </c>
-      <c r="P94" t="n">
-        <v>940900</v>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_da</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>686</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5118,54 +4446,38 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus CNG</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>278900</v>
+        <v>764900</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>278900</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/granta_universal</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>278900</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>278900</v>
+        <v>764900</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>705300</v>
+        <v>917900</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/granta_universal</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5175,30 +4487,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
       <c r="J96" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>687</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5208,46 +4520,38 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Largus CNG</t>
+          <t>Largus Cross CNG</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>764900</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>764900</v>
+        <v>829900</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>917900</v>
+        <v>982900</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5257,7 +4561,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -5265,22 +4569,30 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>384300</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>1443900</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5290,46 +4602,38 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Largus Cross CNG</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>829900</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>829900</v>
+        <v>348900</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>982900</v>
+        <v>1300900</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5339,46 +4643,30 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>384300</v>
+        <v>329000</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>384300</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_cross_new</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>1443900</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_cross_new</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>329000</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>688</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5388,46 +4676,38 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон CNG</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>348900</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>348900</v>
+        <v>525900</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_new</t>
+          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>1300900</v>
+        <v>938900</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5437,7 +4717,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Largus Фургон New</t>
         </is>
       </c>
       <c r="D102" t="n">
@@ -5445,22 +4725,30 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>329000</v>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>1301900</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5470,46 +4758,46 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Largus Фургон CNG</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>525900</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>515900</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>525900</v>
+        <v>515900</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/niva</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>938900</v>
+        <v>738000</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_fourgon_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/niva</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5519,46 +4807,46 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Largus Фургон New</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>329000</v>
+        <v>579900</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>329000</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>579900</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>329000</v>
+        <v>579900</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
         </is>
       </c>
       <c r="P104" t="n">
-        <v>1301900</v>
+        <v>800900</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/largus_furgon_new</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5568,54 +4856,46 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>515900</v>
+        <v>398900</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>515900</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="J105" t="n">
-        <v>515900</v>
+        <v>398900</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>515900</v>
+        <v>398900</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/niva</t>
+          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>738000</v>
+        <v>918900</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/niva</t>
+          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5625,54 +4905,46 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>579900</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="J106" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>579900</v>
+        <v>569900</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_3</t>
+          <t>https://avto-mg.ru/catalog/lada/off-road</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>800900</v>
+        <v>921900</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_3</t>
+          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5682,54 +4954,46 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>371300</v>
+        <v>360200</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>371300</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="J107" t="n">
-        <v>398900</v>
+        <v>360200</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>398900</v>
+        <v>360200</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/legend_5</t>
+          <t>https://avto-mg.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>918900</v>
+        <v>998900</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/legend_5</t>
+          <t>https://avto-zlt.ru/catalog/lada/travel</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5739,54 +5003,46 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>569900</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="J108" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>569900</v>
+        <v>444500</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/off-road</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>921900</v>
+        <v>1269900</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/off-road</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5796,54 +5052,46 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>360200</v>
+        <v>390000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>360200</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="J109" t="n">
-        <v>360200</v>
+        <v>390000</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>360200</v>
+        <v>390000</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/travel</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>998900</v>
+        <v>1213900</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/travel</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5853,54 +5101,46 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>444500</v>
+        <v>433000</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>444500</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="J110" t="n">
-        <v>444500</v>
+        <v>433000</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>444500</v>
+        <v>433000</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>1269900</v>
+        <v>1328900</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5910,54 +5150,46 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>390000</v>
+        <v>380900</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>390000</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="J111" t="n">
-        <v>390000</v>
+        <v>380900</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>390000</v>
+        <v>380900</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>1213900</v>
+        <v>1121900</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5967,54 +5199,46 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>433000</v>
+        <v>465900</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>433000</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="J112" t="n">
-        <v>433000</v>
+        <v>465900</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>433000</v>
+        <v>465900</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1328900</v>
+        <v>1316900</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sw_cross</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6024,54 +5248,46 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>380900</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="J113" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta</t>
+          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>1121900</v>
+        <v>1597900</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta</t>
+          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6081,54 +5297,46 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>465900</v>
+        <v>385900</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>465900</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="J114" t="n">
-        <v>465900</v>
+        <v>385900</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>465900</v>
+        <v>385900</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-mg.ru/catalog/lada/xray</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>1316900</v>
+        <v>1106900</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_cng</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6138,168 +5346,144 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>579900</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="J115" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>579900</v>
+        <v>384300</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>1597900</v>
+        <v>1249900</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/vesta_sport</t>
+          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>385900</v>
+        <v>844900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>385900</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="J116" t="n">
-        <v>385900</v>
+        <v>844900</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>385900</v>
+        <v>844900</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray</t>
+          <t>https://avto-mg.ru/catalog/lifan/murman</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>1106900</v>
+        <v>1019900</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray</t>
+          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>384300</v>
+        <v>534900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="J117" t="n">
-        <v>384300</v>
+        <v>534900</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>384300</v>
+        <v>534900</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>1249900</v>
+        <v>709900</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lada/xray_cross</t>
+          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6309,54 +5493,46 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>649900</v>
+        <v>464900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>649900</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="J118" t="n">
-        <v>844900</v>
+        <v>464900</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>844900</v>
+        <v>464900</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/murman</t>
+          <t>https://avto-mg.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>1019900</v>
+        <v>689900</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/murman</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6366,54 +5542,46 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>400900</v>
+        <v>594900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>400900</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>534900</v>
+        <v>594900</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>534900</v>
+        <v>594900</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/solano2</t>
+          <t>https://avto-mg.ru/catalog/lifan/x60</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>709900</v>
+        <v>769900</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/solano2</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6423,291 +5591,243 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>419900</v>
+        <v>614000</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>419900</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>464900</v>
+        <v>614000</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>464900</v>
+        <v>614000</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x50</t>
+          <t>https://avto-mg.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>689900</v>
+        <v>989000</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x50</t>
+          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>490900</v>
+        <v>1579900</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>490900</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>594900</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>594900</v>
+        <v>1579900</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x60</t>
-        </is>
-      </c>
-      <c r="P121" t="n">
-        <v>769900</v>
-      </c>
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x60</t>
+          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>614000</v>
+        <v>1419000</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>769900</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>614000</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>614000</v>
+        <v>1419000</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="P122" t="n">
-        <v>989000</v>
-      </c>
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/lifan/x70</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>3e</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1579900</v>
+        <v>2439000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>1579900</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>1579900</v>
+        <v>2439000</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/livan/x3pro</t>
+          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1419000</v>
+        <v>897000</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>1419000</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>897000</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>1419000</v>
+        <v>897000</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3</t>
+          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>2337000</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>3e</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2439000</v>
+        <v>638000</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>2439000</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>638000</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2439000</v>
+        <v>638000</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/moskvich/moskvish_3e</t>
+          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>1690000</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6717,258 +5837,218 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>897000</v>
+        <v>1134000</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>897000</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="J126" t="n">
-        <v>897000</v>
+        <v>1134000</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>897000</v>
+        <v>1134000</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>2337000</v>
+        <v>2762000</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/nissan/qashqai_new</t>
+          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>638000</v>
+        <v>1268900</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>638000</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="J127" t="n">
-        <v>638000</v>
+        <v>1268900</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>638000</v>
+        <v>1268900</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/terrano</t>
-        </is>
-      </c>
-      <c r="P127" t="n">
-        <v>1690000</v>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/terrano</t>
+          <t>https://avto-mg.ru/catalog/omoda/c5</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>1134000</v>
+        <v>1613000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>1134000</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>1134000</v>
+        <v>1613000</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/nissan/x-trail_new</t>
-        </is>
-      </c>
-      <c r="P128" t="n">
-        <v>2762000</v>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/nissan/x-trail_new</t>
+          <t>https://avto-mg.ru/catalog/omoda/s5</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1268900</v>
+        <v>356000</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>1268900</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="J129" t="n">
-        <v>1268900</v>
+        <v>356000</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>1268900</v>
+        <v>356000</v>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/c5</t>
+          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>825000</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1613000</v>
+        <v>346000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>1613000</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>346000</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>1613000</v>
+        <v>346000</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/omoda/s5</t>
+          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>883000</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6978,168 +6058,128 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>470000</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="J131" t="n">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>356000</v>
+        <v>366000</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-mg.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>825000</v>
+        <v>851000</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>346000</v>
+        <v>858000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>506000</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="J132" t="n">
-        <v>346000</v>
+        <v>858000</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>346000</v>
+        <v>858000</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r2</t>
+          <t>https://avto-mg.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>883000</v>
+        <v>1874000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r2</t>
+          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>366000</v>
+        <v>475000</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>559900</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="J133" t="n">
-        <v>366000</v>
+        <v>475000</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
-        <v>366000</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/ravon/r4</t>
-        </is>
-      </c>
-      <c r="P133" t="n">
-        <v>851000</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>555</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7149,54 +6189,38 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster New</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>858000</v>
+        <v>475000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>858000</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/arkana</t>
-        </is>
-      </c>
-      <c r="J134" t="n">
-        <v>858000</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>858000</v>
+        <v>475000</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/arkana</t>
+          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1874000</v>
+        <v>1618000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/arkana</t>
+          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7206,30 +6230,46 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
         </is>
       </c>
       <c r="J135" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>713000</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>1724000</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7239,46 +6279,46 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Duster New</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>475000</v>
+        <v>395000</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>475000</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+        </is>
+      </c>
+      <c r="J136" t="n">
+        <v>395000</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>475000</v>
+        <v>395000</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/duster_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1618000</v>
+        <v>1124000</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/duster_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7288,54 +6328,46 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>713000</v>
+        <v>503990</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>713000</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="J137" t="n">
-        <v>713000</v>
+        <v>503990</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>713000</v>
+        <v>503990</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/kaptur</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>1724000</v>
+        <v>1301000</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/kaptur</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7345,54 +6377,46 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>395000</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="J138" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>395000</v>
+        <v>677990</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_new</t>
+          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1124000</v>
+        <v>958000</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7402,54 +6426,46 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>503990</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="J139" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>503990</v>
+        <v>395000</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>1301000</v>
+        <v>1258000</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7459,54 +6475,46 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>677990</v>
+        <v>399000</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>677990</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/logan_stepway_city</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="J140" t="n">
-        <v>677990</v>
+        <v>399000</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>677990</v>
+        <v>399000</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>958000</v>
+        <v>1373000</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7516,168 +6524,144 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Stepway City</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>395000</v>
+        <v>656993</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>395000</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="J141" t="n">
-        <v>395000</v>
+        <v>656993</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>395000</v>
+        <v>656993</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1258000</v>
+        <v>1001000</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_new</t>
+          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>399000</v>
+        <v>954000</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>399000</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="J142" t="n">
-        <v>399000</v>
+        <v>954000</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>399000</v>
+        <v>954000</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>1373000</v>
+        <v>1955000</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway</t>
+          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>656993</v>
+        <v>1354000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>730000</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/renault/sandero_stepway_city</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="J143" t="n">
-        <v>656993</v>
+        <v>1354000</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>656993</v>
+        <v>1354000</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>1001000</v>
+        <v>1962000</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>591</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7687,54 +6671,38 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq Scout</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>954000</v>
+        <v>2718000</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>954000</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="J144" t="n">
-        <v>954000</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>954000</v>
+        <v>2718000</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/karoq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>1955000</v>
+        <v>3498000</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/karoq</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>592</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7744,54 +6712,38 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Kodiaq Sportline</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1354000</v>
+        <v>2750000</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq</t>
-        </is>
-      </c>
-      <c r="J145" t="n">
-        <v>1354000</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>1354000</v>
+        <v>2750000</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1962000</v>
+        <v>3776000</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>591</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7801,46 +6753,30 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Kodiaq Scout</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>2718000</v>
+        <v>844800</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>2718000</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_scout</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
-        <v>2718000</v>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_scout</t>
-        </is>
-      </c>
-      <c r="P146" t="n">
-        <v>3498000</v>
-      </c>
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_scout</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="J146" t="n">
+        <v>844800</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>583</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7850,46 +6786,38 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Kodiaq Sportline</t>
+          <t>Octavia Combi</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>2750000</v>
+        <v>1705000</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>2750000</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>2750000</v>
+        <v>1705000</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3776000</v>
+        <v>1985000</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/kodiaq_sportline</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>589</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7899,30 +6827,38 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Octavia Hockey Edition</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>844800</v>
+        <v>543800</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-      <c r="J148" t="n">
-        <v>844800</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>543800</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>1359500</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7932,46 +6868,38 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Octavia Combi</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1705000</v>
+        <v>844800</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>1705000</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_combi</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>1705000</v>
+        <v>844800</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>1985000</v>
+        <v>1657000</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_combi_2017</t>
+          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7981,46 +6909,30 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Octavia Hockey Edition</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>543800</v>
+        <v>425000</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>1129000</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
-        <v>543800</v>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_hockey_edition</t>
-        </is>
-      </c>
-      <c r="P150" t="n">
-        <v>1359500</v>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_hockey_edition</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="J150" t="n">
+        <v>425000</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>584</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8030,46 +6942,38 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid New</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>844800</v>
+        <v>425000</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>844800</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>844800</v>
+        <v>425000</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>1657000</v>
+        <v>1051000</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/octavia_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8079,30 +6983,30 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>425000</v>
+        <v>1211000</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
       <c r="J152" t="n">
-        <v>425000</v>
+        <v>1211000</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8112,46 +7016,46 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Rapid New</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>425000</v>
+        <v>1752000</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>425000</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+        </is>
+      </c>
+      <c r="J153" t="n">
+        <v>1752000</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>425000</v>
+        <v>1752000</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>1051000</v>
+        <v>2681000</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/rapid_new</t>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>588</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8161,7 +7065,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb New</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -8169,128 +7073,128 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
-        </is>
-      </c>
-      <c r="J154" t="n">
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1211000</v>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>2388000</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1752000</v>
+        <v>1379000</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="J155" t="n">
-        <v>1752000</v>
+        <v>1379000</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>1752000</v>
+        <v>1379000</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2681000</v>
+        <v>2669000</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_combi</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Superb New</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1211000</v>
+        <v>1069000</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>1211000</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
+        </is>
+      </c>
+      <c r="J156" t="n">
+        <v>1069000</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>1211000</v>
+        <v>1069000</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>2388000</v>
+        <v>2319000</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/skoda/superb_new</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8300,250 +7204,210 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1379000</v>
+        <v>969000</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>1469000</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="J157" t="n">
-        <v>1379000</v>
+        <v>969000</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>1379000</v>
+        <v>969000</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2669000</v>
+        <v>2419000</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/jimny</t>
+          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1069000</v>
+        <v>2848000</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>1119000</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="J158" t="n">
-        <v>1069000</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>1069000</v>
+        <v>2848000</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/sx4</t>
-        </is>
-      </c>
-      <c r="P158" t="n">
-        <v>2319000</v>
-      </c>
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/sx4</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>969000</v>
+        <v>3898000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>1219000</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/suzuki/vitara</t>
-        </is>
-      </c>
-      <c r="J159" t="n">
-        <v>969000</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>969000</v>
+        <v>3898000</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/suzuki/vitara_2021</t>
-        </is>
-      </c>
-      <c r="P159" t="n">
-        <v>2419000</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/suzuki/vitara_2021</t>
+          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2848000</v>
+        <v>538000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>2848000</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="J160" t="n">
+        <v>538000</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>2848000</v>
+        <v>538000</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_300</t>
+          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>1545000</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>3898000</v>
+        <v>429380</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>3898000</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="J161" t="n">
+        <v>429380</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="N161" t="n">
-        <v>3898000</v>
+        <v>429380</v>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/tank/tank_500</t>
+          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>1745000</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8553,209 +7417,161 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>538000</v>
+        <v>621000</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="H162" t="n">
-        <v>538000</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="J162" t="n">
-        <v>538000</v>
+        <v>621000</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>538000</v>
+        <v>621000</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/hunter</t>
+          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
         </is>
       </c>
       <c r="P162" t="n">
-        <v>1545000</v>
+        <v>1770000</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/hunter</t>
+          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>665</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>VOYAH</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>429380</v>
+        <v>4790000</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="J163" t="n">
-        <v>429380</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>429380</v>
+        <v>4790000</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/Patriot</t>
-        </is>
-      </c>
-      <c r="P163" t="n">
-        <v>1745000</v>
-      </c>
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/uaz/Patriot</t>
+          <t>https://avto-mg.ru/catalog/voyah/free</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>621000</v>
+        <v>1013000</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/uaz/pickup</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="J164" t="n">
-        <v>621000</v>
+        <v>1013000</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>621000</v>
+        <v>1013000</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/uaz/pickup</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>1770000</v>
+        <v>1627000</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/uaz/pickup</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>VOYAH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4790000</v>
+        <v>519300</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/voyah/free</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
-        <v>4790000</v>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/voyah/free</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="J165" t="n">
+        <v>519300</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>648</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8765,54 +7581,38 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Polo New</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/jetta</t>
-        </is>
-      </c>
-      <c r="J166" t="n">
-        <v>1013000</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>1627000</v>
+        <v>1620900</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/jetta</t>
+          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8822,30 +7622,46 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="J167" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1227900</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>2828900</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>648</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8855,151 +7671,37 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Polo New</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>519300</v>
+        <v>1288900</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>519300</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
+        </is>
+      </c>
+      <c r="J168" t="n">
+        <v>1288900</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>519300</v>
+        <v>1288900</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/polo_new</t>
+          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>1620900</v>
+        <v>3375900</v>
       </c>
       <c r="Q168" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/polo_new</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>653</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Taos</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="H169" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="J169" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
-        <v>1227900</v>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-      <c r="P169" t="n">
-        <v>2828900</v>
-      </c>
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>https://avto-zlt.ru/catalog/volkswagen/taos</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>657</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Tiguan</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="H170" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>https://smolino-motors74.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="J170" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="N170" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>https://avto-mg.ru/catalog/volkswagen/tiguan_new</t>
-        </is>
-      </c>
-      <c r="P170" t="n">
-        <v>3375900</v>
-      </c>
-      <c r="Q170" t="inlineStr">
         <is>
           <t>https://avto-zlt.ru/catalog/volkswagen/tiguan_new</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1248000</v>
+        <v>1133000</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1335000</v>
+        <v>1013000</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1782000</v>
+        <v>1770000</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1383594</v>
+        <v>805900</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1383594</v>
+        <v>805900</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1098000</v>
+        <v>574000</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/changan/cs55/</t>
+          <t>https://carsklad-174.ru/auto/changan/cs55/i/suv-5d</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>999000</v>
+        <v>759900</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1238900</v>
+        <v>1233900</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1089300</v>
+        <v>1084300</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1479,7 +1479,7 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2225940</v>
+        <v>2079900</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>1451940</v>
+        <v>1319900</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/changan/uni-k/</t>
+          <t>https://carsklad-174.ru/auto/changan/uni-k/i/suv-5d</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2068900</v>
+        <v>2039900</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>1628900</v>
+        <v>1623900</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         </is>
       </c>
       <c r="V30" t="n">
-        <v>565900</v>
+        <v>560900</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/chery/tiggo7pro</t>
+          <t>https://carsklad-174.ru/auto/chery/tiggo-7-pro/i/suv-5d</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2490,7 +2490,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>1108900</v>
+        <v>1087900</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         </is>
       </c>
       <c r="V36" t="n">
-        <v>1304000</v>
+        <v>1299000</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/chery/tiggo_8_pro</t>
+          <t>https://carsklad-174.ru/auto/chery/tiggo-8-pro/i/suv-5d</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2795,7 +2795,7 @@
         </is>
       </c>
       <c r="V40" t="n">
-        <v>1778900</v>
+        <v>1179900</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1980000</v>
+        <v>1549900</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="V42" t="n">
-        <v>1980000</v>
+        <v>1549900</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="V45" t="n">
-        <v>542900</v>
+        <v>537900</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="V46" t="n">
-        <v>492900</v>
+        <v>487900</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="V47" t="n">
-        <v>542900</v>
+        <v>537900</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -3463,11 +3463,11 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>759000</v>
+        <v>754000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/dongfeng/580</t>
+          <t>https://carsklad-174.ru/auto/dfm/580/ii/suv-5d</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="V52" t="n">
-        <v>1499400</v>
+        <v>754000</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/exeed/txl</t>
+          <t>https://carsklad-174.ru/auto/exeed/txl/i/suv-5d</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>1832900</v>
+        <v>1399900</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="V64" t="n">
-        <v>961200</v>
+        <v>614300</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="V65" t="n">
-        <v>904800</v>
+        <v>756000</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="V71" t="n">
-        <v>869900</v>
+        <v>864900</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -4669,31 +4669,31 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>https://carsklad-174.ru/auto/geely/atlas/ii/suv-5d</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>2236493</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>https://ac-174auto.ru/auto/geely/atlas/</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>1529000</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
           <t>https://kc-klassavto.ru/auto/geely/atlas/</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>2236493</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>https://ac-174auto.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>1529000</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/geely/atlas/</t>
-        </is>
-      </c>
       <c r="V72" t="n">
-        <v>2054514</v>
+        <v>1529000</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="V73" t="n">
-        <v>1087596</v>
+        <v>1082596</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/geely/coolray_1/</t>
+          <t>https://carsklad-174.ru/auto/geely/coolray/i/suv-5d</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="V75" t="n">
-        <v>1196994</v>
+        <v>619990</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -4945,31 +4945,31 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>https://carsklad-174.ru/auto/geely/coolray/i-restyling/suv-5d</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>1244900</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>https://ac-174auto.ru/auto/geely/coolray/</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>1219990</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>https://kc-klassavto.ru/auto/geely/coolray/</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>1244900</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>https://ac-174auto.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>1219990</t>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/geely/coolray/</t>
-        </is>
-      </c>
       <c r="V76" t="n">
-        <v>1627914</v>
+        <v>1219990</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -5238,7 +5238,7 @@
         </is>
       </c>
       <c r="V81" t="n">
-        <v>2694114</v>
+        <v>2689900</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/geely/tugella</t>
+          <t>https://carsklad-174.ru/auto/geely/tugella/i-restyling/suv-5d</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -5357,7 +5357,7 @@
         </is>
       </c>
       <c r="V84" t="n">
-        <v>2375994</v>
+        <v>1859990</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="V89" t="n">
-        <v>1679000</v>
+        <v>1674000</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/haval/dargo_x/</t>
+          <t>https://carsklad-174.ru/auto/haval/dargo/i/x</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -5641,7 +5641,7 @@
         </is>
       </c>
       <c r="V90" t="n">
-        <v>2009400</v>
+        <v>1959000</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/haval/f7</t>
+          <t>https://carsklad-174.ru/auto/haval/f_7/i/suv-5d</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="V91" t="n">
-        <v>1469400</v>
+        <v>1119000</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/haval/f7x</t>
+          <t>https://carsklad-174.ru/auto/haval/f_7_x/i/suv-5d</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="V93" t="n">
-        <v>1499400</v>
+        <v>1199000</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/haval/h9_2018</t>
+          <t>https://carsklad-174.ru/auto/haval/h9/i/suv-5d</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="V99" t="n">
-        <v>1909300</v>
+        <v>1803000</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/haval/jolion_1/</t>
+          <t>https://carsklad-174.ru/auto/haval/jolion/i/suv-5d</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="V101" t="n">
-        <v>1169400</v>
+        <v>689900</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -6269,31 +6269,31 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>https://carsklad-174.ru/auto/haval/jolion/i-rest/suv-5d</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>1399300</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>https://ac-174auto.ru/auto/haval/jolion/</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>1199000</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
           <t>https://kc-klassavto.ru/auto/haval/jolion/</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>1399300</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>https://ac-174auto.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>1199000</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/haval/jolion/</t>
-        </is>
-      </c>
       <c r="V102" t="n">
-        <v>1199400</v>
+        <v>1199000</v>
       </c>
       <c r="W102" t="inlineStr">
         <is>
@@ -6425,7 +6425,7 @@
         </is>
       </c>
       <c r="V104" t="n">
-        <v>676000</v>
+        <v>671000</v>
       </c>
       <c r="W104" t="inlineStr">
         <is>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="V106" t="n">
-        <v>868000</v>
+        <v>863000</v>
       </c>
       <c r="W106" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="V110" t="n">
-        <v>465000</v>
+        <v>460000</v>
       </c>
       <c r="W110" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/hyundai/sonata_2019</t>
+          <t>https://carsklad-174.ru/auto/hyundai/sonata/viii/sedan</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="V111" t="n">
-        <v>1661400</v>
+        <v>1432000</v>
       </c>
       <c r="W111" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/hyundai/tucson_21</t>
+          <t>https://carsklad-174.ru/auto/hyundai/tucson/iv/suv-5d</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -6898,7 +6898,7 @@
         </is>
       </c>
       <c r="V113" t="n">
-        <v>1478000</v>
+        <v>1429000</v>
       </c>
       <c r="W113" t="inlineStr">
         <is>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/jac/j7</t>
+          <t>https://carsklad-174.ru/auto/jac/j7/i/liftback</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -7045,7 +7045,7 @@
         </is>
       </c>
       <c r="V116" t="n">
-        <v>718000</v>
+        <v>709000</v>
       </c>
       <c r="W116" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/jetta/va3</t>
+          <t>https://carsklad-174.ru/auto/jetta/va3/i/sedan</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="V133" t="n">
-        <v>1014000</v>
+        <v>840000</v>
       </c>
       <c r="W133" t="inlineStr">
         <is>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/jetta/vs5</t>
+          <t>https://carsklad-174.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -7993,7 +7993,7 @@
         </is>
       </c>
       <c r="V134" t="n">
-        <v>1194000</v>
+        <v>1140000</v>
       </c>
       <c r="W134" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="V136" t="n">
-        <v>1269000</v>
+        <v>1053000</v>
       </c>
       <c r="W136" t="inlineStr">
         <is>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="V137" t="n">
-        <v>1342800</v>
+        <v>1317900</v>
       </c>
       <c r="W137" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="V138" t="n">
-        <v>1508940</v>
+        <v>1350000</v>
       </c>
       <c r="W138" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         </is>
       </c>
       <c r="V141" t="n">
-        <v>1346940</v>
+        <v>859900</v>
       </c>
       <c r="W141" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="V142" t="n">
-        <v>1388940</v>
+        <v>969900</v>
       </c>
       <c r="W142" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="V143" t="n">
-        <v>1295940</v>
+        <v>943990</v>
       </c>
       <c r="W143" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         </is>
       </c>
       <c r="V144" t="n">
-        <v>1640940</v>
+        <v>1065300</v>
       </c>
       <c r="W144" t="inlineStr">
         <is>
@@ -8738,7 +8738,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/picanto/</t>
+          <t>https://carsklad-174.ru/auto/kia/picanto/iii-restyling/hatchback-5d</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -8770,7 +8770,7 @@
         </is>
       </c>
       <c r="V147" t="n">
-        <v>800940</v>
+        <v>619900</v>
       </c>
       <c r="W147" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         </is>
       </c>
       <c r="V149" t="n">
-        <v>860940</v>
+        <v>460900</v>
       </c>
       <c r="W149" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         </is>
       </c>
       <c r="V150" t="n">
-        <v>944940</v>
+        <v>590900</v>
       </c>
       <c r="W150" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         </is>
       </c>
       <c r="V152" t="n">
-        <v>1238940</v>
+        <v>920300</v>
       </c>
       <c r="W152" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         </is>
       </c>
       <c r="V154" t="n">
-        <v>1160940</v>
+        <v>571200</v>
       </c>
       <c r="W154" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/cross</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="V158" t="n">
-        <v>425900</v>
+        <v>304400</v>
       </c>
       <c r="W158" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         </is>
       </c>
       <c r="V159" t="n">
-        <v>268500</v>
+        <v>263500</v>
       </c>
       <c r="W159" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         </is>
       </c>
       <c r="V160" t="n">
-        <v>272300</v>
+        <v>267300</v>
       </c>
       <c r="W160" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         </is>
       </c>
       <c r="V161" t="n">
-        <v>257900</v>
+        <v>252900</v>
       </c>
       <c r="W161" t="inlineStr">
         <is>
@@ -9707,7 +9707,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_da</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/drive-active</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -9747,7 +9747,7 @@
         </is>
       </c>
       <c r="V162" t="n">
-        <v>425900</v>
+        <v>412500</v>
       </c>
       <c r="W162" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         </is>
       </c>
       <c r="V167" t="n">
-        <v>278900</v>
+        <v>273900</v>
       </c>
       <c r="W167" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         </is>
       </c>
       <c r="V168" t="n">
-        <v>348900</v>
+        <v>343900</v>
       </c>
       <c r="W168" t="inlineStr">
         <is>
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="V169" t="n">
-        <v>384300</v>
+        <v>379300</v>
       </c>
       <c r="W169" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         </is>
       </c>
       <c r="V179" t="n">
-        <v>360200</v>
+        <v>355200</v>
       </c>
       <c r="W179" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         </is>
       </c>
       <c r="V180" t="n">
-        <v>444500</v>
+        <v>439500</v>
       </c>
       <c r="W180" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
         </is>
       </c>
       <c r="V182" t="n">
-        <v>433000</v>
+        <v>428000</v>
       </c>
       <c r="W182" t="inlineStr">
         <is>
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="V183" t="n">
-        <v>1127400</v>
+        <v>585900</v>
       </c>
       <c r="W183" t="inlineStr">
         <is>
@@ -11068,7 +11068,7 @@
         </is>
       </c>
       <c r="V187" t="n">
-        <v>380900</v>
+        <v>375900</v>
       </c>
       <c r="W187" t="inlineStr">
         <is>
@@ -11147,7 +11147,7 @@
         </is>
       </c>
       <c r="V188" t="n">
-        <v>465900</v>
+        <v>460900</v>
       </c>
       <c r="W188" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="V192" t="n">
-        <v>385900</v>
+        <v>380900</v>
       </c>
       <c r="W192" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="V193" t="n">
-        <v>384300</v>
+        <v>379300</v>
       </c>
       <c r="W193" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="V207" t="n">
-        <v>2460000</v>
+        <v>2434000</v>
       </c>
       <c r="W207" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/qashqai/</t>
+          <t>https://carsklad-174.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -12282,7 +12282,7 @@
         </is>
       </c>
       <c r="V209" t="n">
-        <v>897000</v>
+        <v>880000</v>
       </c>
       <c r="W209" t="inlineStr">
         <is>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/terrano/</t>
+          <t>https://carsklad-174.ru/auto/nissan/terrano/iii/suv-5d</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -12361,7 +12361,7 @@
         </is>
       </c>
       <c r="V210" t="n">
-        <v>638000</v>
+        <v>619000</v>
       </c>
       <c r="W210" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         </is>
       </c>
       <c r="V211" t="n">
-        <v>1134000</v>
+        <v>1129000</v>
       </c>
       <c r="W211" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="V212" t="n">
-        <v>1268900</v>
+        <v>1263900</v>
       </c>
       <c r="W212" t="inlineStr">
         <is>
@@ -12822,7 +12822,7 @@
         </is>
       </c>
       <c r="V217" t="n">
-        <v>858000</v>
+        <v>853000</v>
       </c>
       <c r="W217" t="inlineStr">
         <is>
@@ -12891,7 +12891,7 @@
         </is>
       </c>
       <c r="V218" t="n">
-        <v>475000</v>
+        <v>470000</v>
       </c>
       <c r="W218" t="inlineStr">
         <is>
@@ -12965,7 +12965,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/kaptur_2020</t>
+          <t>https://carsklad-174.ru/auto/renault/kaptur/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -13005,7 +13005,7 @@
         </is>
       </c>
       <c r="V220" t="n">
-        <v>713000</v>
+        <v>614000</v>
       </c>
       <c r="W220" t="inlineStr">
         <is>
@@ -13119,7 +13119,7 @@
         </is>
       </c>
       <c r="V222" t="n">
-        <v>395000</v>
+        <v>390000</v>
       </c>
       <c r="W222" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         </is>
       </c>
       <c r="V223" t="n">
-        <v>503990</v>
+        <v>498990</v>
       </c>
       <c r="W223" t="inlineStr">
         <is>
@@ -13348,7 +13348,7 @@
         </is>
       </c>
       <c r="V225" t="n">
-        <v>395000</v>
+        <v>390000</v>
       </c>
       <c r="W225" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         </is>
       </c>
       <c r="V226" t="n">
-        <v>399000</v>
+        <v>394000</v>
       </c>
       <c r="W226" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         </is>
       </c>
       <c r="V228" t="n">
-        <v>954000</v>
+        <v>949000</v>
       </c>
       <c r="W228" t="inlineStr">
         <is>
@@ -13708,31 +13708,31 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
+          <t>https://carsklad-174.ru/auto/skoda/kodiaq/i-rest/laurin</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>3483600</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>https://ac-174auto.ru/auto/skoda/kodiaq_laurin__klement/</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>3058000</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
           <t>https://kc-klassavto.ru/auto/skoda/kodiaq_laurin__klement/</t>
         </is>
       </c>
-      <c r="R231" t="inlineStr">
-        <is>
-          <t>3483600</t>
-        </is>
-      </c>
-      <c r="S231" t="inlineStr">
-        <is>
-          <t>https://ac-174auto.ru/auto/skoda/kodiaq_laurin__klement/</t>
-        </is>
-      </c>
-      <c r="T231" t="inlineStr">
-        <is>
-          <t>3058000</t>
-        </is>
-      </c>
-      <c r="U231" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/skoda/kodiaq_laurin__klement/</t>
-        </is>
-      </c>
       <c r="V231" t="n">
-        <v>3483600</v>
+        <v>3058000</v>
       </c>
       <c r="W231" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         </is>
       </c>
       <c r="V234" t="n">
-        <v>3226800</v>
+        <v>2745000</v>
       </c>
       <c r="W234" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         </is>
       </c>
       <c r="V235" t="n">
-        <v>844800</v>
+        <v>839800</v>
       </c>
       <c r="W235" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         </is>
       </c>
       <c r="V238" t="n">
-        <v>425000</v>
+        <v>420000</v>
       </c>
       <c r="W238" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="V239" t="n">
-        <v>1211000</v>
+        <v>1206000</v>
       </c>
       <c r="W239" t="inlineStr">
         <is>
@@ -14762,7 +14762,7 @@
         </is>
       </c>
       <c r="V249" t="n">
-        <v>3959400</v>
+        <v>3893000</v>
       </c>
       <c r="W249" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         </is>
       </c>
       <c r="V260" t="n">
-        <v>519300</v>
+        <v>514300</v>
       </c>
       <c r="W260" t="inlineStr">
         <is>
@@ -15406,7 +15406,7 @@
         </is>
       </c>
       <c r="V261" t="n">
-        <v>1227900</v>
+        <v>1222900</v>
       </c>
       <c r="W261" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="V263" t="n">
-        <v>2025540</v>
+        <v>1283900</v>
       </c>
       <c r="W263" t="inlineStr">
         <is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1933000</v>
+        <v>2003000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1901700</v>
+        <v>1951700</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>801050</v>
+        <v>816050</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>801050</v>
+        <v>816050</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -3374,14 +3374,6 @@
           <t>https://kc-klassavto.ru/auto/faw/bestune_t55/</t>
         </is>
       </c>
-      <c r="J60" t="n">
-        <v>2064000</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t55-krossover/</t>
-        </is>
-      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>1546600</t>
@@ -3451,14 +3443,6 @@
           <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
         </is>
       </c>
-      <c r="J61" t="n">
-        <v>2864000</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/faw-bestune-t77-i-krossover/</t>
-        </is>
-      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>1918400</t>
@@ -11469,7 +11453,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>695</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11479,30 +11463,30 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>3909 Бортовой грузовик</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1440000</v>
+        <v>1470000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
+          <t>https://saturn2.ru/available-cars/uaz-39094-bortovoy-gruzovik/</t>
         </is>
       </c>
       <c r="J224" t="n">
-        <v>1440000</v>
+        <v>1470000</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909/</t>
+          <t>https://saturn2.ru/available-cars/uaz-39094-bortovoy-gruzovik/</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -11512,30 +11496,30 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1470000</v>
+        <v>1510000</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-39094-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="J225" t="n">
-        <v>1470000</v>
+        <v>1510000</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-39094-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11545,30 +11529,30 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Скорая помощь</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1510000</v>
+        <v>1475000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
       <c r="J226" t="n">
-        <v>1510000</v>
+        <v>1475000</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -11578,30 +11562,30 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>3909 Скорая помощь</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1475000</v>
+        <v>1350000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="J227" t="n">
-        <v>1475000</v>
+        <v>1350000</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11611,30 +11595,38 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1350000</v>
+        <v>538000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="J228" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>538000</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="H228" t="n">
+        <v>538000</v>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11644,38 +11636,56 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/hunter</t>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="H229" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>1108000</t>
+        </is>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>1108000</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11685,56 +11695,30 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>429380</v>
+        <v>1517000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="F230" t="n">
-        <v>429380</v>
-      </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="H230" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I230" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>1108000</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="P230" t="n">
-        <v>1108000</v>
-      </c>
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="J230" t="n">
+        <v>1517000</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11744,30 +11728,40 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1517000</v>
+        <v>1223000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="J231" t="n">
-        <v>1517000</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>1223000</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>1223000</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11777,40 +11771,38 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1223000</v>
+        <v>621000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
-        </is>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>1223000</t>
-        </is>
-      </c>
-      <c r="M232" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="P232" t="n">
-        <v>1223000</v>
-      </c>
-      <c r="Q232" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>621000</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>621000</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11820,31 +11812,23 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>621000</v>
+        <v>1722000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>621000</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="H233" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+        </is>
+      </c>
+      <c r="J233" t="n">
+        <v>1722000</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
         </is>
       </c>
     </row>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1383594</v>
+        <v>1380990</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1383594</t>
+          <t>1380990</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1128,11 +1128,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1238900</v>
+        <v>857000</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/changan/cs55plus</t>
+          <t>https://kc-klassavto.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1609900</t>
+          <t>1238900</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>1721940</t>
+          <t>857000</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1465,11 +1465,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2068900</v>
+        <v>2039900</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/changan/unik</t>
+          <t>https://kc-klassavto.ru/auto/changan/uni-k/</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2279900</t>
+          <t>2068900</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2217900</t>
+          <t>2039900</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1567,11 +1567,11 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1841940</v>
+        <v>1769900</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/changan/uni-t/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/changan/uni-t/</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2039900</t>
+          <t>1769900</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/changan/uni_v</t>
+          <t>https://kcelitauto.ru/auto/changan/uni-v/</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1721940</t>
+          <t>1628900</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2039900</t>
+          <t>1726900</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2155017</v>
+        <v>2279033</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>1428000</t>
+          <t>1389000</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1620983</v>
+        <v>1652967</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1620983</v>
+        <v>1652967</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/chery/tiggo7pro</t>
+          <t>https://kcelitauto.ru/auto/chery/tiggo_7_pro/</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1108900</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/chery/tiggo_7_promax</t>
+          <t>https://kcelitauto.ru/auto/chery/tiggo_7_pro_max_1/</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1428000</t>
+          <t>1304000</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1873217</v>
+        <v>1913433</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2238571</v>
+        <v>2287892</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2238571</v>
+        <v>2287892</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3376250</v>
+        <v>3447500</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1219900</v>
+        <v>759000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1219900</t>
+          <t>759000</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1479400</t>
+          <t>919900</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3421,11 +3421,11 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1552000</v>
+        <v>1539000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/faw/bestune_t77</t>
+          <t>https://kc-klassavto.ru/auto/faw/besturn_t77/</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>1918400</t>
+          <t>1552000</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
@@ -3456,7 +3456,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1718400</t>
+          <t>1539000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>856000</v>
+        <v>619300</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/faw/x40/i/suv-5d</t>
+          <t>https://kcelitauto.ru/auto/faw/x40/</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>856000</t>
+          <t>619300</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -3699,11 +3699,11 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1439400</v>
+        <v>1299000</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/gac/gs3/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/gac/gs3/</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -3718,7 +3718,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1439400</t>
+          <t>1299000</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>2015514</t>
+          <t>1999990</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/geely/atlas_pro</t>
+          <t>https://kcelitauto.ru/auto/geely/atlas_pro/</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>1382596</t>
+          <t>1087596</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4373,11 +4373,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2689900</v>
+        <v>2599000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/geely/monjaro/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/geely/monjaro/</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2731314</t>
+          <t>2599000</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4809,11 +4809,11 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1649000</v>
+        <v>1519000</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/haval/h3/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/haval/h3/</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>1679400</t>
+          <t>1519000</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -5043,11 +5043,11 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>989900</v>
+        <v>689900</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/haval/jolion/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/haval/jolion_1/</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>989900</t>
+          <t>689900</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -5212,7 +5212,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/creta_21_new</t>
+          <t>https://kcelitauto.ru/auto/hyundai/creta/</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>771000</t>
+          <t>676000</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/hyundai/solaris_2020</t>
+          <t>https://kcelitauto.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>664000</t>
+          <t>465000</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1649400</t>
+          <t>1492000</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/jac/j7</t>
+          <t>https://kcelitauto.ru/auto/jac/j7/</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>1133400</t>
+          <t>718000</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>1067400</t>
+          <t>899000</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>2210301</v>
+        <v>2329900</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>479300</t>
+          <t>425900</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
@@ -7452,7 +7452,7 @@
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>499000</t>
+          <t>462010</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>367300</t>
+          <t>272300</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
@@ -7559,7 +7559,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_liftback_2018</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7580,7 +7580,7 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>455200</t>
+          <t>268500</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>419000</t>
+          <t>375610</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_sedan/</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>363500</t>
+          <t>257900</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>375610</t>
+          <t>358510</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>429000</t>
+          <t>425900</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>352900</t>
+          <t>278900</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://kcelitauto.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -8054,7 +8054,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>904600</t>
+          <t>348900</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
+          <t>https://kcelitauto.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -8113,7 +8113,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>1019800</t>
+          <t>384300</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -8147,7 +8147,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>895800</v>
+        <v>699310</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>895800</t>
+          <t>699310</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>619000</v>
+        <v>540310</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>540310</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>380200</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
@@ -8566,16 +8566,16 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>669000</v>
+        <v>444500</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta_cross/</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>992200</t>
+          <t>444500</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
@@ -8709,16 +8709,16 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>727000</v>
+        <v>433000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>995800</t>
+          <t>433000</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
@@ -8754,16 +8754,16 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>591900</v>
+        <v>390000</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta_sw/</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>769000</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>479300</v>
+        <v>380900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>479300</t>
+          <t>380900</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>475900</t>
+          <t>385900</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
@@ -9617,11 +9617,11 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1320000</v>
+        <v>1249000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/moskvich/6/i/liftback</t>
+          <t>https://kc-klassavto.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="J192" t="n">
@@ -9634,7 +9634,7 @@
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>1320000</t>
+          <t>1249000</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>1085000</t>
+          <t>897000</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -9792,7 +9792,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://kcelitauto.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1629000</t>
+          <t>1134000</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="N196" t="inlineStr">
         <is>
-          <t>1319000</t>
+          <t>1318100</t>
         </is>
       </c>
       <c r="O196" t="inlineStr">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>970800</t>
+          <t>938000</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://kcelitauto.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>772000</t>
+          <t>475000</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>814000</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>490000</t>
+          <t>395000</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>598990</t>
+          <t>503990</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>520000</t>
+          <t>395000</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -10651,7 +10651,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://kcelitauto.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -10672,7 +10672,7 @@
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>604000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Stepway City</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1039800</t>
+          <t>844800</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>720000</t>
+          <t>425000</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -11118,11 +11118,11 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1590000</v>
+        <v>1499000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/hc/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>1590000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
@@ -11179,11 +11179,11 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1212000</v>
+        <v>1199000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/hs/i/sedan</t>
+          <t>https://kc-klassavto.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>1212000</t>
+          <t>1199000</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
@@ -11240,11 +11240,11 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1236000</v>
+        <v>1209000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/krs/i/sedan</t>
+          <t>https://kc-klassavto.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -11267,7 +11267,7 @@
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>1236000</t>
+          <t>1209000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1344600</v>
+        <v>1239000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/krx/i/hatchback-5d</t>
+          <t>https://kc-klassavto.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="N222" t="inlineStr">
         <is>
-          <t>1344600</t>
+          <t>1239000</t>
         </is>
       </c>
       <c r="O222" t="inlineStr">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>1108000</t>
+          <t>429380</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -11889,16 +11889,16 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>1223000</v>
+        <v>621000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>1223000</t>
+          <t>621000</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -12102,7 +12102,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>714300</t>
+          <t>519300</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -12212,7 +12212,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>1983900</t>
+          <t>1288900</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -12285,7 +12285,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>1993560</v>
+        <v>2130560</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1366000</v>
+        <v>1310000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -8795,7 +8795,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D174" t="n">

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q245"/>
+  <dimension ref="A1:Q244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8189,14 +8189,6 @@
           <t>https://kc-klassavto.ru/auto/lada/largus/</t>
         </is>
       </c>
-      <c r="J161" t="n">
-        <v>1598500</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-largus-i-restayling-universal/</t>
-        </is>
-      </c>
       <c r="N161" t="inlineStr">
         <is>
           <t>540310</t>
@@ -11610,7 +11602,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11620,30 +11612,30 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3909 Бортовой грузовик</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1470000</v>
+        <v>1510000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-39094-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1470000</v>
+        <v>1510000</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-39094-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11653,30 +11645,30 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Скорая помощь</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1510000</v>
+        <v>1475000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
       <c r="J230" t="n">
-        <v>1510000</v>
+        <v>1475000</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11686,30 +11678,30 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3909 Скорая помощь</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1475000</v>
+        <v>1350000</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="J231" t="n">
-        <v>1475000</v>
+        <v>1350000</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11719,30 +11711,38 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1350000</v>
+        <v>538000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="J232" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>538000</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="H232" t="n">
+        <v>538000</v>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11752,38 +11752,56 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/hunter</t>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/Patriot_2019</t>
         </is>
       </c>
       <c r="H233" t="n">
-        <v>538000</v>
+        <v>429380</v>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>429380</t>
+        </is>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>1108000</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11793,56 +11811,30 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>429380</v>
+        <v>1517000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="F234" t="n">
-        <v>429380</v>
-      </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="H234" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I234" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>429380</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="P234" t="n">
-        <v>1108000</v>
-      </c>
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="J234" t="n">
+        <v>1517000</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11852,30 +11844,40 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>1517000</v>
+        <v>621000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="J235" t="n">
-        <v>1517000</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>621000</t>
+        </is>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>1223000</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -11885,7 +11887,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -11893,32 +11895,30 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>621000</t>
-        </is>
-      </c>
-      <c r="M236" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="P236" t="n">
-        <v>1223000</v>
-      </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>621000</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="H236" t="n">
+        <v>621000</v>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11928,38 +11928,30 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>621000</v>
+        <v>1722000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="F237" t="n">
-        <v>621000</v>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="H237" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I237" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+        </is>
+      </c>
+      <c r="J237" t="n">
+        <v>1722000</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -11969,63 +11961,89 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Профи Фургон</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1722000</v>
+        <v>1445000</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
         </is>
       </c>
       <c r="J238" t="n">
-        <v>1722000</v>
+        <v>1445000</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Профи Фургон</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1445000</v>
+        <v>910800</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
-        </is>
-      </c>
-      <c r="J239" t="n">
-        <v>1445000</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
+          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="H239" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>910800</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>910800</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12035,56 +12053,66 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>910800</v>
+        <v>519300</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
+          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>519300</t>
+        </is>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="N240" t="inlineStr">
         <is>
-          <t>910800</t>
+          <t>730900</t>
         </is>
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/volkswagen/jetta/</t>
+          <t>https://kc-klassavto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="P240" t="n">
-        <v>910800</v>
+        <v>714300</v>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
+          <t>https://carsklad-174.ru/auto/volkswagen/polo/vi/liftback</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12094,66 +12122,38 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>519300</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="N241" t="inlineStr">
-        <is>
-          <t>730900</t>
-        </is>
-      </c>
-      <c r="O241" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="P241" t="n">
-        <v>714300</v>
-      </c>
-      <c r="Q241" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/polo/vi/liftback</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -12163,107 +12163,107 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
       <c r="H242" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>1288900</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>1597000</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="P242" t="n">
+        <v>1983900</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1288900</v>
+        <v>1499400</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F243" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="H243" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I243" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>1288900</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="N243" t="inlineStr">
-        <is>
-          <t>1597000</t>
-        </is>
-      </c>
-      <c r="O243" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/volkswagen/tiguan/</t>
+          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="J243" t="n">
+        <v>2130560</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1983900</v>
+        <v>1499400</v>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -12273,70 +12273,21 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1499400</v>
+        <v>1799400</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J244" t="n">
-        <v>2130560</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
+          <t>https://carsklad-174.ru/auto/xcite/x-cross-8/i/suv-5d</t>
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1499400</v>
+        <v>1799400</v>
       </c>
       <c r="Q244" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>787</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>XCite</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>X-Cross 8</t>
-        </is>
-      </c>
-      <c r="D245" t="n">
-        <v>1799400</v>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/xcite/x-cross-8/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="J245" t="n">
-        <v>2763040</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-8-universal/</t>
-        </is>
-      </c>
-      <c r="P245" t="n">
-        <v>1799400</v>
-      </c>
-      <c r="Q245" t="inlineStr">
         <is>
           <t>https://carsklad-174.ru/auto/xcite/x-cross-8/i/suv-5d</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q244"/>
+  <dimension ref="A1:Q243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,7 +544,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2610000</t>
+          <t>3013000</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1380990</v>
+        <v>1051000</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -822,7 +822,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1380990</t>
+          <t>1051000</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>810000</t>
+          <t>990000</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1439900</t>
+          <t>1499900</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1128,11 +1128,11 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>857000</v>
+        <v>1238900</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/changan/cs55_plus/</t>
+          <t>https://kcelitauto.ru/auto/changan/cs55_plus/</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>857000</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2179900</t>
+          <t>2399900</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1739940</t>
+          <t>1790000</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1695,11 +1695,11 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1668000</v>
+        <v>1439900</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/chery/arrizo-8/i/sedan</t>
+          <t>https://kc-klassavto.ru/auto/chery/arrizo_8/</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1668000</t>
+          <t>1439900</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1040000</t>
+          <t>1076000</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>1390000</t>
+          <t>1529900</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2154,7 +2154,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1549900</v>
+        <v>1627000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>1549900</t>
+          <t>1627000</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2338,26 +2338,26 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1849900</v>
+        <v>1649900</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
+          <t>https://kc-klassavto.ru/auto/chery/tiggo_8_pro_max_1/</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1849900</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
           <t>https://kcelitauto.ru/auto/chery/tiggo_8_pro_max_1/</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1849900</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/chery/tiggo_8_pro_max_1/</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1950000</t>
+          <t>1649900</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1714000</v>
+        <v>1649900</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1714000</t>
+          <t>1649900</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>572340</t>
+          <t>597900</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>528540</t>
+          <t>547900</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -2693,7 +2693,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>570540</t>
+          <t>567900</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>2850000</t>
+          <t>3299000</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1424400</t>
+          <t>1525000</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1446600</v>
+        <v>1499000</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1446600</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1539000</v>
+        <v>1439000</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>1539000</t>
+          <t>1439000</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>2399400</t>
+          <t>2669000</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1219990</t>
+          <t>1406990</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -4091,11 +4091,11 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>919900</v>
+        <v>616990</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/geely/coolray/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/geely/coolray_1/</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>919900</t>
+          <t>616990</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>1199990</t>
+          <t>1219990</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1090000</v>
+        <v>1199990</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>1090000</t>
+          <t>1199990</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -4373,11 +4373,11 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2599000</v>
+        <v>2689900</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/geely/monjaro/</t>
+          <t>https://carsklad-174.ru/auto/geely/monjaro/i/suv-5d</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>2599000</t>
+          <t>2739990</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -4560,7 +4560,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>2199990</t>
+          <t>2629990</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -4750,7 +4750,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1299000</v>
+        <v>1267300</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>1299000</t>
+          <t>1267300</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -5131,7 +5131,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>1201400</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>962000</v>
+        <v>956000</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>962000</t>
+          <t>956000</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -5361,7 +5361,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1006000</v>
+        <v>1066000</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5370,7 +5370,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>1006000</t>
+          <t>1066000</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -5445,11 +5445,11 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>465000</v>
+        <v>421000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/hyundai/solaris/</t>
+          <t>https://kc-klassavto.ru/auto/hyundai/solaris/</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>421000</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>1492000</t>
+          <t>1481000</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1481000</v>
+        <v>1499000</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>1481000</t>
+          <t>1499000</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>899000</t>
+          <t>746000</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>879000</t>
+          <t>1156000</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -6080,40 +6080,84 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>JAECOO</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>3599000</v>
+        <v>1775940</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-jac-t9/</t>
+          <t>https://carsklad-174.ru/auto/jaecoo/j7/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>2694900</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/jaecoo/j7</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2944900</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/jaecoo/j7</t>
         </is>
       </c>
       <c r="J119" t="n">
-        <v>3599000</v>
+        <v>2210301</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jac-jac-t9/</t>
+          <t>https://saturn2.ru/available-cars/jaecoo-j7-krossover/</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>1775940</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>1775940</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/jaecoo/j7/</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>1775940</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/jaecoo/j7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6123,117 +6167,93 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>1775940</v>
+        <v>2759400</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jaecoo/j7/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>2694900</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/jaecoo/j7</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>2944900</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/jaecoo/j7</t>
+          <t>https://kc-klassavto.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
       <c r="J120" t="n">
-        <v>2329900</v>
+        <v>3633010</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j7-krossover/</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>1775940</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/jaecoo/j7/</t>
+          <t>https://saturn2.ru/available-cars/jaecoo-j8-krossover/</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1775940</t>
+          <t>2759400</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jaecoo/j7/</t>
-        </is>
-      </c>
-      <c r="P120" t="n">
-        <v>1775940</v>
-      </c>
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/jaecoo/j7/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/jaecoo/j8/</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>JAECOO</t>
+          <t>Jetour</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>Dashing</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2759400</v>
+        <v>1493940</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jaecoo/j8/</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>3633010</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/jaecoo-j8-krossover/</t>
+          <t>https://carsklad-174.ru/auto/jetour/dashing/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1493940</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/jetour/dashing/</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2759400</t>
+          <t>1495940</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jaecoo/j8/</t>
+          <t>https://kc-klassavto.ru/auto/jetour/dashing/</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>1493940</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/jetour/dashing/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6243,50 +6263,50 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Dashing</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1493940</v>
+        <v>2375400</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/dashing/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/t2/i/suv-5d</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>1493940</t>
+          <t>2375400</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/jetour/dashing/</t>
+          <t>https://kcelitauto.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1493940</t>
+          <t>2479000</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jetour/dashing/</t>
+          <t>https://kc-klassavto.ru/auto/jetour/t2/</t>
         </is>
       </c>
       <c r="P122" t="n">
-        <v>1493940</v>
+        <v>2375400</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/dashing/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/t2/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6296,50 +6316,30 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>2375400</v>
+        <v>1194000</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/t2/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>2375400</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/jetour/t2/</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>2375400</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/jetour/t2/</t>
+          <t>https://carsklad-174.ru/auto/jetour/x50/i/suv-5d</t>
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2375400</v>
+        <v>1194000</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/t2/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/x50/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6349,30 +6349,30 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1194000</v>
+        <v>1589400</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x50/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/x70/i-rest-2/suv-5d</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1194000</v>
+        <v>1589400</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x50/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/x70/i-rest-2/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6382,30 +6382,50 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>X70 Plus</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1589400</v>
+        <v>1799940</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x70/i-rest-2/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/x70-plus/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>1799940</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/jetour/x70_plus/</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>1801940</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/jetour/x70_plus/</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>1589400</v>
+        <v>1799940</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x70/i-rest-2/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/x70-plus/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6415,103 +6435,103 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>X70 Plus</t>
+          <t>X90 Plus</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1799940</v>
+        <v>2041940</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x70-plus/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>1799940</t>
+          <t>2087940</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/jetour/x70_plus/</t>
+          <t>https://kcelitauto.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>1799940</t>
+          <t>2041940</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jetour/x70_plus/</t>
+          <t>https://kc-klassavto.ru/auto/jetour/x90_plus/</t>
         </is>
       </c>
       <c r="P126" t="n">
-        <v>1799940</v>
+        <v>2087940</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x70-plus/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetour/x90-plus/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jetour</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>X90 Plus</t>
+          <t>VA3</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2087940</v>
+        <v>840000</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x90-plus/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetta/va3/i/sedan</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>2087940</t>
+          <t>840000</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/jetour/x90_plus/</t>
+          <t>https://kcelitauto.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>2087940</t>
+          <t>1090000</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jetour/x90_plus/</t>
+          <t>https://kc-klassavto.ru/auto/jetta/va3/</t>
         </is>
       </c>
       <c r="P127" t="n">
-        <v>2087940</v>
+        <v>840000</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetour/x90-plus/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetta/va3/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6521,50 +6541,50 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>VA3</t>
+          <t>VS5</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>840000</v>
+        <v>1140000</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetta/va3/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>840000</t>
+          <t>1140000</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/jetta/va3/</t>
+          <t>https://kcelitauto.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>890000</t>
+          <t>1390000</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jetta/va3/</t>
+          <t>https://kc-klassavto.ru/auto/jetta/vs5/</t>
         </is>
       </c>
       <c r="P128" t="n">
-        <v>840000</v>
+        <v>1140000</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetta/va3/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/jetta/vs5/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6574,103 +6594,103 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>VS5</t>
+          <t>VS7</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>1140000</v>
+        <v>1289400</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetta/vs5/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetta/vs7/i/suv-5d</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>1140000</t>
+          <t>1289400</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/jetta/vs5/</t>
+          <t>https://kcelitauto.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>1190000</t>
+          <t>1539000</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jetta/vs5/</t>
+          <t>https://kc-klassavto.ru/auto/jetta/vs7/</t>
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1140000</v>
+        <v>1289400</v>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetta/vs5/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/jetta/vs7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>KAIYI</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>VS7</t>
+          <t>E5</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1289400</v>
+        <v>1039000</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetta/vs7/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>1289400</t>
+          <t>1053000</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/jetta/vs7/</t>
+          <t>https://kcelitauto.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>1289400</t>
+          <t>1039000</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/jetta/vs7/</t>
+          <t>https://kc-klassavto.ru/auto/kaiyi/e5/</t>
         </is>
       </c>
       <c r="P130" t="n">
-        <v>1289400</v>
+        <v>1053000</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/jetta/vs7/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kaiyi/e5/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6680,50 +6700,50 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>E5</t>
+          <t>X3</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1039000</v>
+        <v>1317900</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kaiyi/e5/</t>
+          <t>https://carsklad-174.ru/auto/kaiyi/x3/i/suv-5d</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>1053000</t>
+          <t>1317900</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kaiyi/e5/</t>
+          <t>https://kcelitauto.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>1039000</t>
+          <t>1399000</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kaiyi/e5/</t>
+          <t>https://kc-klassavto.ru/auto/kaiyi/x3/</t>
         </is>
       </c>
       <c r="P131" t="n">
-        <v>1053000</v>
+        <v>1317900</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/e5/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/kaiyi/x3/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6733,50 +6753,50 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>X3</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1317900</v>
+        <v>1350000</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/x3/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>1317900</t>
+          <t>1350000</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kaiyi/x3/</t>
+          <t>https://kcelitauto.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>1342800</t>
+          <t>1599000</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kaiyi/x3/</t>
+          <t>https://kc-klassavto.ru/auto/kaiyi/x3_pro/</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>1317900</v>
+        <v>1350000</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/x3/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6786,103 +6806,103 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X7 Kunlun</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>1350000</v>
+        <v>1711900</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>1350000</t>
+          <t>1798740</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://kcelitauto.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>1508940</t>
+          <t>1711900</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kaiyi/x3_pro/</t>
+          <t>https://kc-klassavto.ru/auto/kaiyi/x7_kunlun/</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>1350000</v>
+        <v>1798740</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/x3-pro/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>KAIYI</t>
+          <t>KIA</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>X7 Kunlun</t>
+          <t>Ceed</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1798740</v>
+        <v>1023000</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1798740</t>
+          <t>1059900</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://kcelitauto.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>1798740</t>
+          <t>1239900</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kaiyi/x7_kunlun/</t>
+          <t>https://kc-klassavto.ru/auto/kia/ceed/</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>1798740</v>
+        <v>1023000</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kaiyi/x7-kunlun/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6892,50 +6912,50 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Ceed</t>
+          <t>Ceed SW</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1013000</v>
+        <v>1295940</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/ceed/</t>
+          <t>https://kc-klassavto.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>1059900</t>
+          <t>1369900</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kia/ceed/</t>
+          <t>https://kcelitauto.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>1013000</t>
+          <t>1295940</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/ceed/</t>
+          <t>https://kc-klassavto.ru/auto/kia/ceed_sw/</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1023000</v>
+        <v>1340940</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/seed/iii-restyling/hatchback-5d</t>
+          <t>https://carsklad-174.ru/auto/kia/seed/iii-restyling/sw</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6945,50 +6965,50 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Ceed SW</t>
+          <t>Cerato</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1023000</v>
+        <v>943990</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/ceed_sw/</t>
+          <t>https://carsklad-174.ru/auto/kia/cerato/iv-restyling/sedan</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1369900</t>
+          <t>943990</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kia/ceed_sw/</t>
+          <t>https://kcelitauto.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>1023000</t>
+          <t>1129900</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/ceed_sw/</t>
+          <t>https://kc-klassavto.ru/auto/kia/cerato/</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1340940</v>
+        <v>943990</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/seed/iii-restyling/sw</t>
+          <t>https://carsklad-174.ru/auto/kia/cerato/iv-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6998,50 +7018,30 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cerato</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>943990</v>
+        <v>1640940</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/cerato/iv-restyling/sedan</t>
-        </is>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>943990</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/kia/cerato/</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>995900</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/kia/cerato/</t>
+          <t>https://carsklad-174.ru/auto/kia/k5/iii/sedan</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>943990</v>
+        <v>1640940</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/cerato/iv-restyling/sedan</t>
+          <t>https://carsklad-174.ru/auto/kia/k5/iii/sedan</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7051,30 +7051,50 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>K5</t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1640940</v>
+        <v>759900</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/k5/iii/sedan</t>
+          <t>https://carsklad-174.ru/auto/kia/rio/iv-restyling/sedan</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>760900</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/kia/rio/</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>807900</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/kia/rio/</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>1640940</v>
+        <v>759900</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/k5/iii/sedan</t>
+          <t>https://carsklad-174.ru/auto/kia/rio/iv-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7084,50 +7104,50 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Rio X</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>623900</v>
+        <v>790900</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/rio/</t>
+          <t>https://kcelitauto.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>760900</t>
+          <t>790900</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kia/rio/</t>
+          <t>https://kcelitauto.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>623900</t>
+          <t>860940</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/rio/</t>
+          <t>https://kc-klassavto.ru/auto/kia/rio_x/</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>759900</v>
+        <v>800940</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/rio/iv-restyling/sedan</t>
+          <t>https://carsklad-174.ru/auto/kia/rio/iv-restyling/x</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7137,50 +7157,50 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Rio X</t>
+          <t>Seltos</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>759900</v>
+        <v>920300</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/rio_x/</t>
+          <t>https://carsklad-174.ru/auto/kia/seltos/i/suv-5d</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>790900</t>
+          <t>920300</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kia/rio_x/</t>
+          <t>https://kcelitauto.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>759900</t>
+          <t>962900</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/rio_x/</t>
+          <t>https://kc-klassavto.ru/auto/kia/seltos/</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>800940</v>
+        <v>920300</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/rio/iv-restyling/x</t>
+          <t>https://carsklad-174.ru/auto/kia/seltos/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>390</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7190,50 +7210,50 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Seltos</t>
+          <t>Soul</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>920300</v>
+        <v>831200</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/seltos/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kia/soul/iii/hatchback-5d</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>920300</t>
+          <t>831200</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/kia/seltos/</t>
+          <t>https://kcelitauto.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>989900</t>
+          <t>884900</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/seltos/</t>
+          <t>https://kc-klassavto.ru/auto/kia/soul/</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>920300</v>
+        <v>831200</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/seltos/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/kia/soul/iii/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7243,50 +7263,30 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Sportage</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>831200</v>
+        <v>2309940</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/soul/iii/hatchback-5d</t>
-        </is>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>831200</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/kia/soul/</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>879900</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/kia/soul/</t>
+          <t>https://carsklad-174.ru/auto/kia/sportage/v/suv-5d</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>831200</v>
+        <v>2309940</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/soul/iii/hatchback-5d</t>
+          <t>https://carsklad-174.ru/auto/kia/sportage/v/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7296,65 +7296,73 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sportage</t>
+          <t>Sportage 5</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2309940</v>
+        <v>2299000</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/kia/sportage/v/suv-5d</t>
-        </is>
-      </c>
-      <c r="P143" t="n">
-        <v>2309940</v>
-      </c>
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/kia/sportage/v/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/kia/sportage/</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>2299000</t>
+        </is>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/kia/sportage/</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>KIA</t>
+          <t>Lada</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sportage 5</t>
+          <t>Aura</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1709940</v>
+        <v>1559400</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/kia/sportage/</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>1709940</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/kia/sportage/</t>
+          <t>https://carsklad-174.ru/auto/lada/aura/i/sedan</t>
+        </is>
+      </c>
+      <c r="J144" t="n">
+        <v>2059050</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-aura-sedan/</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>1559400</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/aura/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7364,38 +7372,74 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Aura</t>
+          <t>Granta Cross</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1559400</v>
+        <v>384300</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/aura/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/cross</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>425900</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/granta_cross_2019</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>425900</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
         </is>
       </c>
       <c r="J145" t="n">
-        <v>2059050</v>
+        <v>1036250</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-aura-sedan/</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-cross-i-restayling-universal/</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>425900</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/granta_cross/</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>426900</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/granta_cross/</t>
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1559400</v>
+        <v>384300</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/aura/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/cross</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7405,74 +7449,66 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Granta Cross</t>
+          <t>Granta Hatchback</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>384300</v>
+        <v>268500</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/cross</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>425900</v>
+        <v>272300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_cross_2019</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>425900</v>
+        <v>268500</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_cross_2019</t>
-        </is>
-      </c>
-      <c r="J146" t="n">
-        <v>1036250</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-cross-i-restayling-universal/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>425900</t>
+          <t>272300</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_cross/</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>462010</t>
+          <t>288300</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/granta_cross/</t>
+          <t>https://kc-klassavto.ru/auto/lada/granta_hatchback/</t>
         </is>
       </c>
       <c r="P146" t="n">
-        <v>384300</v>
+        <v>268500</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/cross</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7482,7 +7518,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Granta Hatchback</t>
+          <t>Granta Liftback</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -7490,58 +7526,58 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="F147" t="n">
+        <v>268500</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/granta_liftback_2018</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
         <v>272300</v>
       </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_hatchback_2018</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>268500</v>
-      </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_hatchback_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>272300</t>
+          <t>268500</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_hatchback/</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>376800</t>
+          <t>307900</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/granta_hatchback/</t>
+          <t>https://kc-klassavto.ru/auto/lada/granta_liftback/</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>268500</v>
+        <v>378810</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/hatchback-5d</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/liftback</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>415</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7551,66 +7587,30 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Granta Liftback</t>
+          <t>Granta Liftback New</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>268500</v>
+        <v>943150</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>268500</v>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_liftback_2018</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>272300</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_liftback_2018</t>
-        </is>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>268500</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>375610</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/granta_liftback/</t>
-        </is>
-      </c>
-      <c r="P148" t="n">
-        <v>378810</v>
-      </c>
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/liftback</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+        </is>
+      </c>
+      <c r="J148" t="n">
+        <v>943150</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7620,30 +7620,66 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Granta Liftback New</t>
+          <t>Granta Sedan</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>943150</v>
+        <v>257900</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
-        </is>
-      </c>
-      <c r="J149" t="n">
-        <v>943150</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-liftbek/</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>257900</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/granta_sedan_2018</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>257900</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>257900</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>285000</t>
+        </is>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/granta_sedan/</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>268500</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7653,66 +7689,66 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Granta Sedan</t>
+          <t>Granta Sedan Drive Active</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>257900</v>
+        <v>348900</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_sedan/</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/drive-active</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>257900</v>
+        <v>425900</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>257900</v>
+        <v>425900</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_sedan_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t>257900</t>
+          <t>425900</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_sedan/</t>
+          <t>https://kcelitauto.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>358510</t>
+          <t>419000</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/granta_sedan/</t>
+          <t>https://kc-klassavto.ru/auto/lada/granta_drive_active/</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>268500</v>
+        <v>348900</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sedan</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/drive-active</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7722,66 +7758,30 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Granta Sedan Drive Active</t>
+          <t>Granta Sedan New</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>348900</v>
+        <v>929505</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/drive-active</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>425900</v>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_da</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>425900</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_da</t>
-        </is>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>425900</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>378810</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/granta_drive_active/</t>
-        </is>
-      </c>
-      <c r="P151" t="n">
-        <v>348900</v>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/drive-active</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+        </is>
+      </c>
+      <c r="J151" t="n">
+        <v>929505</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7791,30 +7791,30 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Granta Sedan New</t>
+          <t>Granta Sport Liftback</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>929505</v>
+        <v>635400</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
-        </is>
-      </c>
-      <c r="J152" t="n">
-        <v>929505</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-granta-i-restayling-sedan/</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-liftback</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>635400</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-liftback</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7824,30 +7824,30 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Granta Sport Liftback</t>
+          <t>Granta Sport Sedan</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>635400</v>
+        <v>551340</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-liftback</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-sedan</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>635400</v>
+        <v>551340</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-liftback</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-sedan</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7857,30 +7857,30 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Granta Sport Sedan</t>
+          <t>Granta Sportline</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>551340</v>
+        <v>444500</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-sedan</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline</t>
         </is>
       </c>
       <c r="P154" t="n">
-        <v>551340</v>
+        <v>444500</v>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sport-sedan</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7890,30 +7890,30 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Granta Sportline</t>
+          <t>Granta Sportline Liftback</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>444500</v>
+        <v>465900</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
         </is>
       </c>
       <c r="P155" t="n">
-        <v>444500</v>
+        <v>465900</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>414</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7923,30 +7923,66 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Granta Sportline Liftback</t>
+          <t>Granta Universal</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>465900</v>
+        <v>257900</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/wagon-5d</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>278900</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/granta_universal_2018</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>278900</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>278900</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/granta_universal/</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>297300</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/granta_universal/</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>465900</v>
+        <v>257900</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/sportline-liftback</t>
+          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/wagon-5d</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>418</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7956,66 +7992,56 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Granta Universal</t>
+          <t>Largus</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>257900</v>
+        <v>348900</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/wagon-5d</t>
+          <t>https://kcelitauto.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>278900</v>
+        <v>348900</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/largus_21</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>278900</v>
+        <v>348900</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/granta_universal_2018</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>278900</t>
+          <t>348900</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/granta_universal/</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>358510</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/granta_universal/</t>
+          <t>https://kcelitauto.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>257900</v>
+        <v>804600</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/granta/i-restyling/wagon-5d</t>
+          <t>https://carsklad-174.ru/auto/lada/largus/i-restyling/wagon-5d</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8025,56 +8051,56 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Largus</t>
+          <t>Largus Cross</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/largus/</t>
+          <t>https://kcelitauto.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/largus_21</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>348900</v>
+        <v>384300</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>348900</t>
+          <t>384300</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/largus/</t>
+          <t>https://kcelitauto.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>804600</v>
+        <v>919800</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/largus/i-restyling/wagon-5d</t>
+          <t>https://carsklad-174.ru/auto/lada/largus/i-restyling/cross</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>451</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8084,56 +8110,32 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Largus Cross</t>
+          <t>Largus Cross New</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>384300</v>
+        <v>495000</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>384300</v>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_cross_21</t>
-        </is>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>384300</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/largus_cross/</t>
-        </is>
-      </c>
-      <c r="P159" t="n">
-        <v>919800</v>
-      </c>
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/largus/i-restyling/cross</t>
+          <t>https://kc-klassavto.ru/auto/lada/largus_cross/</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>495000</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/largus_cross/</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>449</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8143,32 +8145,32 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Largus Cross New</t>
+          <t>Largus New</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>699310</v>
+        <v>368000</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/largus_cross/</t>
+          <t>https://kc-klassavto.ru/auto/lada/largus/</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>699310</t>
+          <t>368000</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/largus_cross/</t>
+          <t>https://kc-klassavto.ru/auto/lada/largus/</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8178,32 +8180,38 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Largus New</t>
+          <t>Largus Фургон</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>540310</v>
+        <v>329000</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/largus/</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>540310</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/largus/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>329000</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/largus_furgon21</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>329000</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8213,38 +8221,38 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Largus Фургон</t>
+          <t>Niva</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>329000</v>
+        <v>515900</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>329000</v>
+        <v>515900</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/largus_furgon21</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/niva20</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>329000</v>
+        <v>515900</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/largus_furgon21</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8254,38 +8262,56 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Niva</t>
+          <t>Niva Legend 3 двери</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>515900</v>
+        <v>360200</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+          <t>https://carsklad-174.ru/auto/lada/niva-legend/i/suv-3d</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>515900</v>
+        <v>579900</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/niva20</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/4x4_3dr</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>515900</v>
+        <v>579900</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva20</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>559000</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/niva_legend_3_dv/</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>360200</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/niva-legend/i/suv-3d</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8295,56 +8321,38 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Niva Legend 3 двери</t>
+          <t>Niva Legend 5 дверей</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>360200</v>
+        <v>398900</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/niva-legend/i/suv-3d</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>579900</v>
+        <v>398900</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/4x4_3dr</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>579900</v>
+        <v>398900</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_3dr</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>559000</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/niva_legend_3_dv/</t>
-        </is>
-      </c>
-      <c r="P164" t="n">
-        <v>360200</v>
-      </c>
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/niva-legend/i/suv-3d</t>
+          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8354,38 +8362,38 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Niva Legend 5 дверей</t>
+          <t>Niva Off-Road</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>398900</v>
+        <v>569900</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>398900</v>
+        <v>569900</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/4x4_5dr</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/niva_off</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>398900</v>
+        <v>569900</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/4x4_5dr</t>
+          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8395,38 +8403,66 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Niva Off-Road</t>
+          <t>Niva Travel</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>569900</v>
+        <v>360200</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>569900</v>
+        <v>380200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/niva_off</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/travel</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>569900</v>
+        <v>360200</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/niva_off</t>
+          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>380200</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>546000</t>
+        </is>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/niva_travel/</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>425900</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/niva-travel/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>437</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8436,66 +8472,46 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Niva Travel</t>
+          <t>Vesta Cross</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>360200</v>
+        <v>444500</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>380200</v>
+        <v>444500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/travel</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_cross_2023</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>360200</v>
+        <v>444500</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/travel</t>
-        </is>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>380200</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/niva_travel/</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>549000</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/niva_travel/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>425900</v>
+        <v>892200</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/niva-travel/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/cross</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8505,7 +8521,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Vesta Cross</t>
+          <t>Vesta Cross New</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -8513,38 +8529,34 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>444500</v>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_cross_2023</t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>444500</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cross</t>
-        </is>
-      </c>
-      <c r="P168" t="n">
-        <v>892200</v>
-      </c>
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/cross</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>444500</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/vesta_cross/</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>619000</t>
+        </is>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/vesta_cross/</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8554,42 +8566,46 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Vesta Cross New</t>
+          <t>Vesta SW</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>444500</v>
+        <v>390000</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>444500</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta_cross/</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>669000</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta_cross/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>390000</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_sw_2023</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>390000</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>727000</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8599,46 +8615,46 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Vesta SW</t>
+          <t>Vesta SW Cross</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>390000</v>
+        <v>433000</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>390000</v>
+        <v>433000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_sw_2023</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_sw_cross_2023</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>390000</v>
+        <v>433000</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross</t>
         </is>
       </c>
       <c r="P170" t="n">
-        <v>727000</v>
+        <v>895800</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw</t>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw-cross</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8648,7 +8664,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Vesta SW Cross</t>
+          <t>Vesta SW Cross New</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -8656,38 +8672,34 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>433000</v>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_sw_cross_2023</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>433000</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sw_cross</t>
-        </is>
-      </c>
-      <c r="P171" t="n">
-        <v>895800</v>
-      </c>
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw-cross</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>433000</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/vesta_sw_cross/</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>666000</t>
+        </is>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/vesta_sw_cross/</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>444</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8697,42 +8709,42 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Vesta SW Cross New</t>
+          <t>Vesta SW New</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>433000</v>
+        <v>390000</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>433000</t>
+          <t>390000</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>727000</t>
+          <t>606000</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta_sw_cross/</t>
+          <t>https://kc-klassavto.ru/auto/lada/vesta_sw/</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>703</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8742,42 +8754,30 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Vesta SW New</t>
+          <t>Vesta SW Sportline</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>390000</v>
+        <v>1465800</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>390000</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta_sw/</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>591900</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta_sw/</t>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>1465800</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8787,30 +8787,46 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Vesta SW Sportline</t>
+          <t>Vesta Sedan</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1465800</v>
+        <v>380900</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>380900</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_2023</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>380900</v>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>1465800</v>
+        <v>384300</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sw-sportline</t>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8820,46 +8836,38 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Vesta Sedan</t>
+          <t>Vesta Sedan CNG</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>380900</v>
+        <v>465900</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>380900</v>
+        <v>465900</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_2023</t>
+          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>380900</v>
+        <v>465900</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta</t>
-        </is>
-      </c>
-      <c r="P175" t="n">
-        <v>384300</v>
-      </c>
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sedan</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8869,38 +8877,42 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Vesta Sedan CNG</t>
+          <t>Vesta Sedan New</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>465900</v>
+        <v>380900</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
-        </is>
-      </c>
-      <c r="F176" t="n">
-        <v>465900</v>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_cng</t>
-        </is>
-      </c>
-      <c r="H176" t="n">
-        <v>465900</v>
-      </c>
-      <c r="I176" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_cng</t>
+          <t>https://kcelitauto.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>380900</t>
+        </is>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/vesta/</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>566000</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/vesta/</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8910,42 +8922,38 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Vesta Sedan New</t>
+          <t>Vesta Sport</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>380900</v>
+        <v>579900</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>380900</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/vesta/</t>
-        </is>
-      </c>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>504000</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/vesta/</t>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>579900</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_sport</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>579900</v>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>442</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8955,38 +8963,30 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Vesta Sport</t>
+          <t>Vesta Sportline</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>579900</v>
+        <v>1363800</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
-        </is>
-      </c>
-      <c r="F178" t="n">
-        <v>579900</v>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/vesta_sport</t>
-        </is>
-      </c>
-      <c r="H178" t="n">
-        <v>579900</v>
-      </c>
-      <c r="I178" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/vesta_sport</t>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sportline</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>1363800</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sportline</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8996,30 +8996,66 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Vesta Sportline</t>
+          <t>Xray</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1363800</v>
+        <v>380900</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sportline</t>
+          <t>https://carsklad-174.ru/auto/lada/xray/i/hatchback-5d</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>385900</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/xray_2016</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>385900</v>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>385900</t>
+        </is>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/lada/xray/</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>457900</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/xray/</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>1363800</v>
+        <v>380900</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/vesta/i-restyling/sportline</t>
+          <t>https://carsklad-174.ru/auto/lada/xray/i/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9029,66 +9065,56 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Xray</t>
+          <t>Xray Cross</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>380900</v>
+        <v>384300</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/xray/i/hatchback-5d</t>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
         </is>
       </c>
       <c r="F180" t="n">
+        <v>384300</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lada/xray_cross</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>384300</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>508900</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/lada/xray_cross/</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
         <v>385900</v>
       </c>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/xray_2016</t>
-        </is>
-      </c>
-      <c r="H180" t="n">
-        <v>385900</v>
-      </c>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_2016</t>
-        </is>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>385900</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>426900</t>
-        </is>
-      </c>
-      <c r="O180" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/xray/</t>
-        </is>
-      </c>
-      <c r="P180" t="n">
-        <v>380900</v>
-      </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/lada/xray/i/hatchback-5d</t>
+          <t>https://carsklad-174.ru/auto/lada/xray/i/cross</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9098,89 +9124,71 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Xray Cross</t>
+          <t>ВИС 2349 Бортовая платформа</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>384300</v>
+        <v>1156100</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="F181" t="n">
-        <v>384300</v>
-      </c>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="H181" t="n">
-        <v>384300</v>
-      </c>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lada/xray_cross</t>
-        </is>
-      </c>
-      <c r="N181" t="inlineStr">
-        <is>
-          <t>519000</t>
-        </is>
-      </c>
-      <c r="O181" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/lada/xray_cross/</t>
-        </is>
-      </c>
-      <c r="P181" t="n">
-        <v>385900</v>
-      </c>
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/lada/xray/i/cross</t>
+          <t>https://saturn2.ru/available-cars/lada-vaz-2349-i-restayling-bort-tent/</t>
+        </is>
+      </c>
+      <c r="J181" t="n">
+        <v>1156100</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/lada-vaz-2349-i-restayling-bort-tent/</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Lada</t>
+          <t>Lifan</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ВИС 2349 Бортовая платформа</t>
+          <t>Murman</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1156100</v>
+        <v>844900</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-2349-i-restayling-bort-tent/</t>
-        </is>
-      </c>
-      <c r="J182" t="n">
-        <v>1156100</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/lada-vaz-2349-i-restayling-bort-tent/</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>844900</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/lifan/murman</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>844900</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9190,38 +9198,38 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Murman</t>
+          <t>Solano 2</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>844900</v>
+        <v>534900</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>844900</v>
+        <v>534900</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lifan/murman</t>
+          <t>https://avto-graf-newcars.ru/catalog/lifan/solano2</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>844900</v>
+        <v>534900</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/murman</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9231,38 +9239,38 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Solano 2</t>
+          <t>X50</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>534900</v>
+        <v>464900</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>534900</v>
+        <v>464900</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lifan/solano2</t>
+          <t>https://avto-graf-newcars.ru/catalog/lifan/x50</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>534900</v>
+        <v>464900</v>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/solano2</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9272,38 +9280,38 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>X50</t>
+          <t>X60</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>464900</v>
+        <v>594900</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>464900</v>
+        <v>594900</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lifan/x50</t>
+          <t>https://avto-graf-newcars.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>464900</v>
+        <v>594900</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x50</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9313,79 +9321,91 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>X60</t>
+          <t>X70</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>594900</v>
+        <v>614000</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>594900</v>
+        <v>614000</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://avto-graf-newcars.ru/catalog/lifan/x70</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>594900</v>
+        <v>614000</v>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/lifan_x60_2016</t>
+          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>464</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Lifan</t>
+          <t>Livan</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>X70</t>
+          <t>S6 Pro</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>614000</v>
+        <v>1529940</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>614000</v>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/lifan/x70</t>
-        </is>
-      </c>
-      <c r="H187" t="n">
-        <v>614000</v>
-      </c>
-      <c r="I187" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/lifan/x70</t>
+          <t>https://carsklad-174.ru/auto/livan/s6pro/i/sedan</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>1529940</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>1539000</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/livan/s6pro/</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>1529940</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/livan/s6pro/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9395,50 +9415,40 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>S6 Pro</t>
+          <t>X3 Pro</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1529940</v>
+        <v>999000</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/livan/s6pro/i/sedan</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>1529940</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/livan/s6pro/</t>
+          <t>https://kc-klassavto.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="N188" t="inlineStr">
         <is>
-          <t>1529940</t>
+          <t>999000</t>
         </is>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/livan/s6pro/</t>
+          <t>https://kc-klassavto.ru/auto/livan/x3pro/</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>1529940</v>
+        <v>1003200</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/livan/s6pro/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/livan/x3pro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9448,93 +9458,111 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>X3 Pro</t>
+          <t>X6 Pro</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>999000</v>
+        <v>1577940</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/livan/x3pro/</t>
+          <t>https://carsklad-174.ru/auto/livan/x6pro/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>1577940</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="N189" t="inlineStr">
         <is>
-          <t>999000</t>
+          <t>1619000</t>
         </is>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/livan/x3pro/</t>
+          <t>https://kc-klassavto.ru/auto/livan/x6pro/</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>1003200</v>
+        <v>1577940</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/livan/x3pro/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/livan/x6pro/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>509</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Livan</t>
+          <t>Moskvich</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>X6 Pro</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1577940</v>
+        <v>999000</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/livan/x6pro/i/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/moskvich/3/</t>
+        </is>
+      </c>
+      <c r="J190" t="n">
+        <v>1310000</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>1577940</t>
+          <t>1014000</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/livan/x6pro/</t>
+          <t>https://kcelitauto.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="N190" t="inlineStr">
         <is>
-          <t>1577940</t>
+          <t>999000</t>
         </is>
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/livan/x6pro/</t>
+          <t>https://kc-klassavto.ru/auto/moskvich/3/</t>
         </is>
       </c>
       <c r="P190" t="n">
-        <v>1577940</v>
+        <v>1014000</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/livan/x6pro/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/moskvich/3/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9544,109 +9572,117 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>999000</v>
+        <v>1249000</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/moskvich/3/</t>
+          <t>https://kc-klassavto.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="J191" t="n">
-        <v>1310000</v>
+        <v>1700000</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/moskvich-3-vnedorozhnik-5-dv/</t>
-        </is>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>1014000</t>
-        </is>
-      </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/moskvich/3/</t>
+          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
         </is>
       </c>
       <c r="N191" t="inlineStr">
         <is>
-          <t>999000</t>
+          <t>1249000</t>
         </is>
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/moskvich/3/</t>
+          <t>https://kc-klassavto.ru/auto/moskvich/6/</t>
         </is>
       </c>
       <c r="P191" t="n">
-        <v>1014000</v>
+        <v>1320000</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/moskvich/3/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/moskvich/6/i/liftback</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>520</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Moskvich</t>
+          <t>Nissan</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Qashqai</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1249000</v>
+        <v>877000</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/moskvich/6/</t>
-        </is>
-      </c>
-      <c r="J192" t="n">
-        <v>1700000</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/moskvich-6-liftbek-5-dv/</t>
+          <t>https://kc-klassavto.ru/auto/nissan/qashqai/</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>897000</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/nissan/qashqai_2020</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>897000</v>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>897000</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="N192" t="inlineStr">
         <is>
-          <t>1249000</t>
+          <t>877000</t>
         </is>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/moskvich/6/</t>
+          <t>https://kc-klassavto.ru/auto/nissan/qashqai/</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>1320000</v>
+        <v>1080000</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/moskvich/6/i/liftback</t>
+          <t>https://carsklad-174.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>520</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -9656,66 +9692,48 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Qashqai</t>
+          <t>Terrano</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>880000</v>
+        <v>616000</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/qashqai/</t>
+          <t>https://kc-klassavto.ru/auto/nissan/terrano/</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>897000</v>
+        <v>638000</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/nissan/qashqai_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>897000</v>
+        <v>638000</v>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/qashqai_2020</t>
-        </is>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>897000</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/nissan/qashqai/</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
         </is>
       </c>
       <c r="N193" t="inlineStr">
         <is>
-          <t>880000</t>
+          <t>616000</t>
         </is>
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/qashqai/</t>
-        </is>
-      </c>
-      <c r="P193" t="n">
-        <v>1080000</v>
-      </c>
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/nissan/qashqai/2-rest/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/nissan/terrano/</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -9725,117 +9743,143 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Terrano</t>
+          <t>X-trail</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>619000</v>
+        <v>1134000</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/terrano/</t>
+          <t>https://kcelitauto.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>638000</v>
+        <v>1134000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/nissan/terrano</t>
+          <t>https://avto-graf-newcars.ru/catalog/nissan/x-trail_2020</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>638000</v>
+        <v>1134000</v>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/terrano</t>
+          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>1134000</t>
+        </is>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/nissan/x-trail/</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>619000</t>
+          <t>1486000</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/terrano/</t>
+          <t>https://kc-klassavto.ru/auto/nissan/x-trail/</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>1629000</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>525</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Nissan</t>
+          <t>OMODA</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>X-trail</t>
+          <t>C5</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1134000</v>
+        <v>1263900</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/nissan/x-trail/</t>
+          <t>https://carsklad-174.ru/auto/omoda/c5/i/suv-5d</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1134000</v>
+        <v>1268900</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/omoda/c5</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>1134000</v>
+        <v>1268900</v>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/nissan/x-trail_2020</t>
+          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
+        </is>
+      </c>
+      <c r="J195" t="n">
+        <v>1913900</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/omoda-c5-i-krossover/</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>1134000</t>
+          <t>1263900</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/nissan/x-trail/</t>
+          <t>https://kcelitauto.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>1155000</t>
+          <t>1319000</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/nissan/x-trail/</t>
+          <t>https://kc-klassavto.ru/auto/omoda/c5/</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>1629000</v>
+        <v>1263900</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/nissan/x-trail/iii-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/omoda/c5/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9845,74 +9889,38 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>C5</t>
+          <t>C5 New</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1263900</v>
+        <v>1541940</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/omoda/c5/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>1268900</v>
-      </c>
-      <c r="G196" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/omoda/c5</t>
-        </is>
-      </c>
-      <c r="H196" t="n">
-        <v>1268900</v>
-      </c>
-      <c r="I196" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/omoda/c5</t>
+          <t>https://carsklad-174.ru/auto/omoda/c5/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="J196" t="n">
-        <v>1649900</v>
+        <v>2090901</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-i-krossover/</t>
-        </is>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>1263900</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/omoda/c5/</t>
-        </is>
-      </c>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>1318100</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/omoda/c5/</t>
+          <t>https://saturn2.ru/available-cars/omoda-c5-i-restayling-krossover/</t>
         </is>
       </c>
       <c r="P196" t="n">
-        <v>1263900</v>
+        <v>1541940</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/omoda/c5/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/omoda/c5/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>526</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9922,38 +9930,58 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>C5 New</t>
+          <t>S5</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1541940</v>
+        <v>1219000</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/omoda/c5/i-rest/suv-5d</t>
+          <t>https://kc-klassavto.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="J197" t="n">
-        <v>2090901</v>
+        <v>1688601</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-c5-i-restayling-krossover/</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>1247400</t>
+        </is>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/omoda/s5/</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/omoda/s5/</t>
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1541940</v>
+        <v>1247400</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/omoda/c5/i-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/omoda/s5/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>527</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9963,91 +9991,71 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>S5</t>
+          <t>S5 GT</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1199000</v>
+        <v>2109900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/omoda/s5/</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
         </is>
       </c>
       <c r="J198" t="n">
-        <v>1688601</v>
+        <v>2109900</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-sedan/</t>
-        </is>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>1247400</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>1199000</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/omoda/s5/</t>
-        </is>
-      </c>
-      <c r="P198" t="n">
-        <v>1247400</v>
-      </c>
-      <c r="Q198" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/omoda/s5/i/sedan</t>
+          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>545</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>OMODA</t>
+          <t>Ravon</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>S5 GT</t>
+          <t>Nexia R3</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2109900</v>
+        <v>356000</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
-        </is>
-      </c>
-      <c r="J199" t="n">
-        <v>2109900</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/omoda-s5-gt-sedan/</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>356000</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/ravon/nexia_r3</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>356000</v>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10057,38 +10065,38 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Nexia R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>356000</v>
+        <v>346000</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>356000</v>
+        <v>346000</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/ravon/nexia_r3</t>
+          <t>https://avto-graf-newcars.ru/catalog/ravon/r2</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>356000</v>
+        <v>346000</v>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/nexia_r3</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -10098,79 +10106,107 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>346000</v>
+        <v>366000</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>346000</v>
+        <v>366000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/ravon/r2</t>
+          <t>https://avto-graf-newcars.ru/catalog/ravon/r4</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>346000</v>
+        <v>366000</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r2</t>
+          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>549</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ravon</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>Arkana</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>366000</v>
+        <v>853000</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
+          <t>https://carsklad-174.ru/auto/renault/arkana/i/suv-5d</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>366000</v>
+        <v>858000</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/ravon/r4</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/arkana</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>366000</v>
+        <v>858000</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/ravon/r4</t>
+          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>853000</t>
+        </is>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>938000</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/renault/arkana/</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>853000</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/renault/arkana/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>553</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -10180,66 +10216,66 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Arkana</t>
+          <t>Duster</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>853000</v>
+        <v>475000</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/arkana/i/suv-5d</t>
+          <t>https://kcelitauto.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>858000</v>
+        <v>475000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/arkana</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>858000</v>
+        <v>475000</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/arkana</t>
+          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>853000</t>
+          <t>475000</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/arkana/</t>
+          <t>https://kcelitauto.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>746000</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/renault/arkana/</t>
+          <t>https://kc-klassavto.ru/auto/renault/duster/</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>853000</v>
+        <v>503990</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/arkana/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/renault/duster/ii/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>556</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -10249,66 +10285,66 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Duster</t>
+          <t>Kaptur</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>475000</v>
+        <v>656000</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/duster/</t>
+          <t>https://kc-klassavto.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/duster_2021</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="H204" t="n">
-        <v>475000</v>
+        <v>713000</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/duster_2021</t>
+          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>475000</t>
+          <t>713000</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/duster/</t>
+          <t>https://kcelitauto.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>739000</t>
+          <t>656000</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/renault/duster/</t>
+          <t>https://kc-klassavto.ru/auto/renault/kaptur/</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>503990</v>
+        <v>713000</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/duster/ii/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/renault/kaptur/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>556</t>
+          <t>558</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -10318,66 +10354,66 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Kaptur</t>
+          <t>Logan</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/kaptur/i-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/sedan</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/kaptur_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="H205" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/kaptur_2020</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>713000</t>
+          <t>395000</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/kaptur/</t>
+          <t>https://kcelitauto.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="N205" t="inlineStr">
         <is>
-          <t>938000</t>
+          <t>566000</t>
         </is>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/renault/kaptur/</t>
+          <t>https://kc-klassavto.ru/auto/renault/logan/</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>713000</v>
+        <v>395000</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/kaptur/i-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/sedan</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>559</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -10387,66 +10423,66 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Logan</t>
+          <t>Logan Stepway</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/sedan</t>
+          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/stepway</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>395000</v>
+        <v>503990</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/logan_new_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="H206" t="n">
-        <v>395000</v>
+        <v>503990</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_new_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>395000</t>
+          <t>503990</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/logan/</t>
+          <t>https://kcelitauto.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
         <is>
-          <t>569000</t>
+          <t>686000</t>
         </is>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/renault/logan/</t>
+          <t>https://kc-klassavto.ru/auto/renault/logan_stepway/</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/sedan</t>
+          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/stepway</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -10456,66 +10492,38 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Logan Stepway</t>
+          <t>Logan Stepway City</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>399000</v>
+        <v>677990</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>503990</v>
+        <v>677990</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/logan_stepway</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
       <c r="H207" t="n">
-        <v>503990</v>
+        <v>677990</v>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway</t>
-        </is>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>503990</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>659000</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/renault/logan_stepway/</t>
-        </is>
-      </c>
-      <c r="P207" t="n">
-        <v>399000</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/renault/logan/ii-restyling/stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -10525,38 +10533,66 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Logan Stepway City</t>
+          <t>Sandero</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>677990</v>
+        <v>395000</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://carsklad-174.ru/auto/renault/sandero/ii/hatchback-5d</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>677990</v>
+        <v>395000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/sandero_2018</t>
         </is>
       </c>
       <c r="H208" t="n">
-        <v>677990</v>
+        <v>395000</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/logan_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>395000</t>
+        </is>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>577000</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/renault/sandero/</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>395000</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/renault/sandero/ii/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -10566,66 +10602,66 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Sandero</t>
+          <t>Sandero Stepway</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/sandero/ii/hatchback-5d</t>
+          <t>https://kcelitauto.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/sandero_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="H209" t="n">
-        <v>395000</v>
+        <v>399000</v>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_2018</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>395000</t>
+          <t>399000</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/sandero/</t>
+          <t>https://kcelitauto.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="N209" t="inlineStr">
         <is>
-          <t>579000</t>
+          <t>736000</t>
         </is>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/renault/sandero/</t>
+          <t>https://kc-klassavto.ru/auto/renault/sandero_stepway/</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>395000</v>
+        <v>475000</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/renault/sandero/ii/hatchback-5d</t>
+          <t>https://carsklad-174.ru/auto/renault/sandero/ii/stepway</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -10635,107 +10671,97 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Sandero Stepway</t>
+          <t>Sandero Stepway City</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>399000</v>
+        <v>656993</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/renault/sandero_stepway/</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>399000</v>
+        <v>656993</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/sandero_stepway_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
       <c r="H210" t="n">
-        <v>399000</v>
+        <v>656993</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_2018</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>399000</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>689000</t>
-        </is>
-      </c>
-      <c r="O210" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/renault/sandero_stepway/</t>
-        </is>
-      </c>
-      <c r="P210" t="n">
-        <v>475000</v>
-      </c>
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/renault/sandero/ii/stepway</t>
+          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>571</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Skoda</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Sandero Stepway City</t>
+          <t>Karoq</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>656993</v>
+        <v>954000</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://carsklad-174.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>656993</v>
+        <v>954000</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://avto-graf-newcars.ru/catalog/skoda/karoq</t>
         </is>
       </c>
       <c r="H211" t="n">
-        <v>656993</v>
+        <v>954000</v>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/renault/sandero_stepway_city_2018</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>1215000</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/skoda/karoq/</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>954000</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>574</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -10745,56 +10771,46 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Karoq</t>
+          <t>Kodiaq</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>954000</v>
+        <v>1211000</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>954000</v>
+        <v>1449000</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/skoda/karoq</t>
+          <t>https://avto-graf-newcars.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="H212" t="n">
-        <v>954000</v>
+        <v>1354000</v>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/karoq</t>
-        </is>
-      </c>
-      <c r="N212" t="inlineStr">
-        <is>
-          <t>1023000</t>
-        </is>
-      </c>
-      <c r="O212" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/skoda/karoq/</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>954000</v>
+        <v>1211000</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/karoq/i-restayling/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>578</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -10804,46 +10820,56 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Kodiaq</t>
+          <t>Octavia</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1211000</v>
+        <v>844800</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/skoda/octavia/iv/liftback</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>1449000</v>
+        <v>844800</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/skoda/kodiaq</t>
+          <t>https://avto-graf-newcars.ru/catalog/skoda/octavia_20</t>
         </is>
       </c>
       <c r="H213" t="n">
-        <v>1354000</v>
+        <v>844800</v>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/kodiaq</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
+        </is>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>844800</t>
+        </is>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/skoda/octavia/</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1211000</v>
+        <v>844800</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/kodiaq/i-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/skoda/octavia/iv/liftback</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>578</t>
+          <t>579</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -10853,56 +10879,32 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Octavia</t>
+          <t>Octavia New</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>844800</v>
+        <v>1055000</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/octavia/iv/liftback</t>
-        </is>
-      </c>
-      <c r="F214" t="n">
-        <v>844800</v>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-      <c r="H214" t="n">
-        <v>844800</v>
-      </c>
-      <c r="I214" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/octavia_20</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>844800</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/skoda/octavia/</t>
-        </is>
-      </c>
-      <c r="P214" t="n">
-        <v>844800</v>
-      </c>
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/skoda/octavia/iv/liftback</t>
+          <t>https://kc-klassavto.ru/auto/skoda/octavia/</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>1055000</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/skoda/octavia/</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>581</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -10912,32 +10914,66 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Octavia New</t>
+          <t>Rapid</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>994200</v>
+        <v>425000</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/skoda/octavia/</t>
+          <t>https://carsklad-174.ru/auto/skoda/rapid/ii/liftback</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>425000</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>425000</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>425000</t>
+        </is>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/skoda/rapid/</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>994200</t>
+          <t>676000</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/skoda/octavia/</t>
+          <t>https://kc-klassavto.ru/auto/skoda/rapid/</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>425000</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/skoda/rapid/ii/liftback</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>585</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -10947,66 +10983,46 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Rapid</t>
+          <t>Superb</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>425000</v>
+        <v>1211000</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/rapid/ii/liftback</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>425000</v>
+        <v>1211000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/skoda/rapid_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
       <c r="H216" t="n">
-        <v>425000</v>
+        <v>1211000</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/rapid_2020</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>425000</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/skoda/rapid/</t>
-        </is>
-      </c>
-      <c r="N216" t="inlineStr">
-        <is>
-          <t>630600</t>
-        </is>
-      </c>
-      <c r="O216" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/skoda/rapid/</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
         </is>
       </c>
       <c r="P216" t="n">
-        <v>425000</v>
+        <v>1271340</v>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/skoda/rapid/ii/liftback</t>
+          <t>https://carsklad-174.ru/auto/skoda/superb/3-rest/liftback</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>586</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11016,87 +11032,99 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Superb</t>
+          <t>Superb Combi</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>1211000</v>
+        <v>1752000</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1211000</v>
+        <v>1752000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/skoda/superb_2019</t>
+          <t>https://avto-graf-newcars.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
       <c r="H217" t="n">
-        <v>1211000</v>
+        <v>1752000</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_2019</t>
-        </is>
-      </c>
-      <c r="P217" t="n">
-        <v>1271340</v>
-      </c>
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/skoda/superb/3-rest/liftback</t>
+          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>586</t>
+          <t>594</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Skoda</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Superb Combi</t>
+          <t>HC</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1752000</v>
+        <v>1219000</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
+          <t>https://kc-klassavto.ru/auto/solaris/hc/</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1752000</v>
+        <v>1763000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/skoda/superb_combi_2019</t>
-        </is>
-      </c>
-      <c r="H218" t="n">
-        <v>1752000</v>
-      </c>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/skoda/superb_combi_2019</t>
+          <t>https://avto-graf-newcars.ru/catalog/solaris/hc</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>1590000</t>
+        </is>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>1219000</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/solaris/hc/</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>1590000</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/solaris/hc/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>595</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11106,58 +11134,58 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>HC</t>
+          <t>HS</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1499000</v>
+        <v>769000</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/hc/</t>
+          <t>https://kc-klassavto.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1763000</v>
+        <v>1390000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/solaris/hc</t>
+          <t>https://avto-graf-newcars.ru/catalog/solaris/hs</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1590000</t>
+          <t>1212000</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/solaris/hc/</t>
+          <t>https://kcelitauto.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="N219" t="inlineStr">
         <is>
-          <t>1499000</t>
+          <t>769000</t>
         </is>
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/hc/</t>
+          <t>https://kc-klassavto.ru/auto/solaris/hs/</t>
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1590000</v>
+        <v>1212000</v>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/hc/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/solaris/hs/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>596</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -11167,58 +11195,58 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>HS</t>
+          <t>KRS</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1199000</v>
+        <v>729000</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/hs/</t>
+          <t>https://kc-klassavto.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>1390000</v>
+        <v>1448000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/solaris/hs</t>
+          <t>https://avto-graf-newcars.ru/catalog/solaris/krs</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>1212000</t>
+          <t>1236000</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/solaris/hs/</t>
+          <t>https://kcelitauto.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="N220" t="inlineStr">
         <is>
-          <t>1199000</t>
+          <t>729000</t>
         </is>
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/hs/</t>
+          <t>https://kc-klassavto.ru/auto/solaris/krs/</t>
         </is>
       </c>
       <c r="P220" t="n">
-        <v>1212000</v>
+        <v>1236000</v>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/hs/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/solaris/krs/i/sedan</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>597</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -11228,119 +11256,99 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>KRS</t>
+          <t>KRX</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1209000</v>
+        <v>789000</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/krs/</t>
+          <t>https://kc-klassavto.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>1448000</v>
+        <v>1464000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/solaris/krs</t>
+          <t>https://avto-graf-newcars.ru/catalog/solaris/krx</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>1236000</t>
+          <t>1344600</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/solaris/krs/</t>
+          <t>https://kcelitauto.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="N221" t="inlineStr">
         <is>
-          <t>1209000</t>
+          <t>789000</t>
         </is>
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/krs/</t>
+          <t>https://kc-klassavto.ru/auto/solaris/krx/</t>
         </is>
       </c>
       <c r="P221" t="n">
-        <v>1236000</v>
+        <v>1344600</v>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/solaris/krs/i/sedan</t>
+          <t>https://carsklad-174.ru/auto/solaris/krx/i/hatchback-5d</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>690</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Solaris</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>KRX</t>
+          <t>Jimny</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1239000</v>
+        <v>1379000</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/solaris/krx/</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1464000</v>
+        <v>1379000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/solaris/krx</t>
-        </is>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>1344600</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="N222" t="inlineStr">
-        <is>
-          <t>1239000</t>
-        </is>
-      </c>
-      <c r="O222" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/solaris/krx/</t>
-        </is>
-      </c>
-      <c r="P222" t="n">
-        <v>1344600</v>
-      </c>
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/solaris/krx/i/hatchback-5d</t>
+          <t>https://avto-graf-newcars.ru/catalog/suzuki/jimny_2019</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>1379000</v>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>607</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -11350,38 +11358,38 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Jimny</t>
+          <t>SX4</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1379000</v>
+        <v>1069000</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1379000</v>
+        <v>1069000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://avto-graf-newcars.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
       <c r="H223" t="n">
-        <v>1379000</v>
+        <v>1069000</v>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/jimny_2019</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>608</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -11391,79 +11399,91 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>SX4</t>
+          <t>Vitara</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1069000</v>
+        <v>969000</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1069000</v>
+        <v>969000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://avto-graf-newcars.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
       <c r="H224" t="n">
-        <v>1069000</v>
+        <v>969000</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/sx4_2016</t>
+          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>614</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>TANK</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Vitara</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>969000</v>
+        <v>2579400</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
-        </is>
-      </c>
-      <c r="F225" t="n">
-        <v>969000</v>
-      </c>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/suzuki/vitara_new</t>
-        </is>
-      </c>
-      <c r="H225" t="n">
-        <v>969000</v>
-      </c>
-      <c r="I225" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/suzuki/vitara_new</t>
+          <t>https://carsklad-174.ru/auto/tank/300/i/suv-5d</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>2579400</t>
+        </is>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>2719000</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/tank/300/</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>2579400</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/tank/300/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>615</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -11473,103 +11493,83 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2579400</v>
+        <v>3893000</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/tank/300/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/tank/500/i/suv-5d</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>2579400</t>
+          <t>3893000</t>
         </is>
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/tank/300/</t>
+          <t>https://kcelitauto.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="N226" t="inlineStr">
         <is>
-          <t>2699400</t>
+          <t>4299000</t>
         </is>
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/tank/300/</t>
+          <t>https://kc-klassavto.ru/auto/tank/500/</t>
         </is>
       </c>
       <c r="P226" t="n">
-        <v>2579400</v>
+        <v>3893000</v>
       </c>
       <c r="Q226" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/tank/300/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/tank/500/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>615</t>
+          <t>696</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TANK</t>
+          <t>UAZ</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>3909 Микроавтобус</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>3893000</v>
+        <v>1510000</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/tank/500/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>3893000</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>4079400</t>
-        </is>
-      </c>
-      <c r="O227" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/tank/500/</t>
-        </is>
-      </c>
-      <c r="P227" t="n">
-        <v>3893000</v>
-      </c>
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/tank/500/i/suv-5d</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+        </is>
+      </c>
+      <c r="J227" t="n">
+        <v>1510000</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -11579,30 +11579,30 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3303 Бортовой грузовик</t>
+          <t>3909 Скорая помощь</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1420000</v>
+        <v>1475000</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3303-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
       <c r="J228" t="n">
-        <v>1420000</v>
+        <v>1475000</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3303-bortovoy-gruzovik/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>698</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -11612,30 +11612,30 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>3909 Микроавтобус</t>
+          <t>3909 Цельнометаллический фургон</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1510000</v>
+        <v>1350000</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
       <c r="J229" t="n">
-        <v>1510000</v>
+        <v>1350000</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-mikroavtobus/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>633</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -11645,30 +11645,38 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>3909 Скорая помощь</t>
+          <t>Hunter</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1475000</v>
+        <v>538000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
-        </is>
-      </c>
-      <c r="J230" t="n">
-        <v>1475000</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-skoraya-pomoshch/</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>538000</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/hunter</t>
+        </is>
+      </c>
+      <c r="H230" t="n">
+        <v>538000</v>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>634</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -11678,30 +11686,56 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>3909 Цельнометаллический фургон</t>
+          <t>Patriot</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1350000</v>
+        <v>429380</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
-        </is>
-      </c>
-      <c r="J231" t="n">
-        <v>1350000</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3909-tselnometallicheskiy-furgon/</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>429380</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="H231" t="n">
+        <v>429380</v>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>429380</t>
+        </is>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>1108000</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>635</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11711,38 +11745,30 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Hunter</t>
+          <t>Patriot New</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>538000</v>
+        <v>1517000</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="F232" t="n">
-        <v>538000</v>
-      </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/hunter</t>
-        </is>
-      </c>
-      <c r="H232" t="n">
-        <v>538000</v>
-      </c>
-      <c r="I232" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/hunter</t>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+        </is>
+      </c>
+      <c r="J232" t="n">
+        <v>1517000</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>636</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11752,56 +11778,40 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Patriot</t>
+          <t>Patriot Pickup</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>429380</v>
+        <v>621000</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
-        </is>
-      </c>
-      <c r="F233" t="n">
-        <v>429380</v>
-      </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/Patriot_2019</t>
-        </is>
-      </c>
-      <c r="H233" t="n">
-        <v>429380</v>
-      </c>
-      <c r="I233" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/Patriot_2019</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>429380</t>
+          <t>621000</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot/</t>
+          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
         </is>
       </c>
       <c r="P233" t="n">
-        <v>1108000</v>
+        <v>1223000</v>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>637</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -11811,30 +11821,38 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Patriot New</t>
+          <t>Pickup</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1517000</v>
+        <v>621000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
-        </is>
-      </c>
-      <c r="J234" t="n">
-        <v>1517000</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-patriot-i-restayling-3-krossover/</t>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>621000</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/uaz/pickup-2019</t>
+        </is>
+      </c>
+      <c r="H234" t="n">
+        <v>621000</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>638</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11844,40 +11862,30 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Patriot Pickup</t>
+          <t>Pickup New</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>621000</v>
+        <v>1705000</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>621000</t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/uaz/patriot_pickup/</t>
-        </is>
-      </c>
-      <c r="P235" t="n">
-        <v>1223000</v>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/uaz/patriot/1rest-3/pickup</t>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+        </is>
+      </c>
+      <c r="J235" t="n">
+        <v>1705000</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>699</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -11887,38 +11895,30 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Pickup</t>
+          <t>Профи</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>621000</v>
+        <v>1715000</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="F236" t="n">
-        <v>621000</v>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/uaz/pickup-2019</t>
-        </is>
-      </c>
-      <c r="H236" t="n">
-        <v>621000</v>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/uaz/pickup-2019</t>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
+        </is>
+      </c>
+      <c r="J236" t="n">
+        <v>1715000</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>https://saturn2.ru/available-cars/uaz-profi/</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11928,63 +11928,89 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Pickup New</t>
+          <t>Профи Фургон</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1722000</v>
+        <v>1445000</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
         </is>
       </c>
       <c r="J237" t="n">
-        <v>1722000</v>
+        <v>1445000</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-pickup-i-restayling-2/</t>
+          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>645</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>UAZ</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Профи Фургон</t>
+          <t>Jetta</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1445000</v>
+        <v>910800</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
-        </is>
-      </c>
-      <c r="J238" t="n">
-        <v>1445000</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>https://saturn2.ru/available-cars/uaz-3741-furgon/</t>
+          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="H238" t="n">
+        <v>1013000</v>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>972000</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/volkswagen/jetta/</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>910800</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>652</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -11994,56 +12020,66 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Jetta</t>
+          <t>Polo</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>910800</v>
+        <v>519300</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
+          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/polo_2020</t>
         </is>
       </c>
       <c r="H239" t="n">
-        <v>1013000</v>
+        <v>519300</v>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/jetta_2020</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>519300</t>
+        </is>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="N239" t="inlineStr">
         <is>
-          <t>910800</t>
+          <t>727900</t>
         </is>
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>https://kc-klassavto.ru/auto/volkswagen/jetta/</t>
+          <t>https://kc-klassavto.ru/auto/volkswagen/polo/</t>
         </is>
       </c>
       <c r="P239" t="n">
-        <v>910800</v>
+        <v>714300</v>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/jetta/vii/sedan</t>
+          <t>https://carsklad-174.ru/auto/volkswagen/polo/vi/liftback</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>653</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -12053,66 +12089,38 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Polo</t>
+          <t>Taos</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/polo_2020</t>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
       <c r="H240" t="n">
-        <v>519300</v>
+        <v>1227900</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/polo_2020</t>
-        </is>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>519300</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="N240" t="inlineStr">
-        <is>
-          <t>730900</t>
-        </is>
-      </c>
-      <c r="O240" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/volkswagen/polo/</t>
-        </is>
-      </c>
-      <c r="P240" t="n">
-        <v>714300</v>
-      </c>
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/polo/vi/liftback</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>657</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -12122,107 +12130,99 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Taos</t>
+          <t>Tiguan</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1227900</v>
+        <v>1276900</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://kc-klassavto.ru/auto/volkswagen/tiguan/</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/taos</t>
+          <t>https://avto-graf-newcars.ru/catalog/volkswagen/tiguan_21</t>
         </is>
       </c>
       <c r="H241" t="n">
-        <v>1227900</v>
+        <v>1288900</v>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/taos</t>
+          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>1288900</t>
+        </is>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>1276900</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>https://kc-klassavto.ru/auto/volkswagen/tiguan/</t>
+        </is>
+      </c>
+      <c r="P241" t="n">
+        <v>1983900</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>https://carsklad-174.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>675</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>XCite</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Tiguan</t>
+          <t>X-Cross 7</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>1288900</v>
+        <v>1499400</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="F242" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>https://avto-graf-newcars.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="H242" t="n">
-        <v>1288900</v>
-      </c>
-      <c r="I242" t="inlineStr">
-        <is>
-          <t>https://che-motors-2024.ru/catalog/volkswagen/tiguan_21</t>
-        </is>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>1288900</t>
-        </is>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>https://kcelitauto.ru/auto/volkswagen/tiguan/</t>
-        </is>
-      </c>
-      <c r="N242" t="inlineStr">
-        <is>
-          <t>1597000</t>
-        </is>
-      </c>
-      <c r="O242" t="inlineStr">
-        <is>
-          <t>https://kc-klassavto.ru/auto/volkswagen/tiguan/</t>
+          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
         </is>
       </c>
       <c r="P242" t="n">
-        <v>1983900</v>
+        <v>1499400</v>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/volkswagen/tiguan/ii-rest/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -12232,62 +12232,29 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>X-Cross 7</t>
+          <t>X-Cross 8</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1499400</v>
+        <v>1799400</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
+          <t>https://carsklad-174.ru/auto/xcite/x-cross-8/i/suv-5d</t>
         </is>
       </c>
       <c r="J243" t="n">
-        <v>2130560</v>
+        <v>2463040</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>https://saturn2.ru/available-cars/xcite-x-cross-7-universal/</t>
+          <t>https://saturn2.ru/available-cars/xcite-x-cross-8-universal/</t>
         </is>
       </c>
       <c r="P243" t="n">
-        <v>1499400</v>
+        <v>1799400</v>
       </c>
       <c r="Q243" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/xcite/x-cross-7/i/suv-5d</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>787</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>XCite</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>X-Cross 8</t>
-        </is>
-      </c>
-      <c r="D244" t="n">
-        <v>1799400</v>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>https://carsklad-174.ru/auto/xcite/x-cross-8/i/suv-5d</t>
-        </is>
-      </c>
-      <c r="P244" t="n">
-        <v>1799400</v>
-      </c>
-      <c r="Q244" t="inlineStr">
         <is>
           <t>https://carsklad-174.ru/auto/xcite/x-cross-8/i/suv-5d</t>
         </is>

--- a/xlsx/chelyabinsk.xlsx
+++ b/xlsx/chelyabinsk.xlsx
@@ -9840,7 +9840,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>1913900</v>
+        <v>1649900</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
